--- a/EconomicsSoftwareEngineering/Lab1.xlsx
+++ b/EconomicsSoftwareEngineering/Lab1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tolia\Documents\GitHub\ITMO-PE\EconomicsSoftwareEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D326DA-1146-4688-8AC2-A09EBC7D59BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB2A848-578A-4767-A78C-A7D01C5658E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{343BDCF8-93BA-48B2-B1E2-DDA5B2F75838}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{343BDCF8-93BA-48B2-B1E2-DDA5B2F75838}"/>
   </bookViews>
   <sheets>
-    <sheet name="Simple Method" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Simple Method" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="157">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,13 +67,748 @@
   <si>
     <t>Optimistic (h-h)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Прототип сайта</t>
+  </si>
+  <si>
+    <t>Выбор технологий (фундамент)</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Подготовка</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Optimistic (h-h)</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Pessimistic (h-h)</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <r>
+      <t>Идет разработка сайт под заказ Северной футбольной лиги г. Санкт-Петербурга. Официальный бренд вместе с дизайном, лого и т.д. уже имеется. Требуется прописать функциональные пользовательские сценарии, прототип анимация и</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>интерфейса и т.д.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Разрешение на обработку персональных данных</t>
+  </si>
+  <si>
+    <t>Аренда хостинга</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Главная</t>
+  </si>
+  <si>
+    <t>Новости</t>
+  </si>
+  <si>
+    <t>Т.к. мы работаем с футбольными командами, а также многими спонсорами, такое соглашение нам необходимо для правомерной работы сайта.</t>
+  </si>
+  <si>
+    <t>В интернете довольно много вариантов для столь простого сайта, поэтому нужно найти лучший по отношению цена/качество.</t>
+  </si>
+  <si>
+    <t>Адаптивная верстка, плавные анимации, удобное отображение таблиц для четкого понимания турниров и будущих игр, подобрать фото в общей стилистике</t>
+  </si>
+  <si>
+    <t>Адаптивная и корректная верстка новостной ленты, подгрузка новых постов и удобство использования</t>
+  </si>
+  <si>
+    <t>Является самой трудоемкой задачей, т.к. они постоянно меняются и нужно заполнять данные для новых команд и турниров, понятное и ненагражденное отображение статистики, верстка таблиц, фото в общей стилистике, а также дополнительные внутренние вкладки с соотв таблицами и статистикой, по сути - профиль для каждого турнира, т.к. профиля пользователя нет. Внутренние таблицы, их верстка</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Важно определиться с используемыми технологиями: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Frontend </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">AngularJS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">подойдет нам лучше всего, потому что информационный сайт с красивыми анимациями можно очень быстро на нем написать. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Backend </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">- простой </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">PHP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>сервер для аутентификации пользователей и запись на турниры. Создание собственных турниров не предусмотрено.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Турниры/</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Профи ль команды</t>
+    </r>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>Команды</t>
+  </si>
+  <si>
+    <t>Игроки</t>
+  </si>
+  <si>
+    <t>Видео</t>
+  </si>
+  <si>
+    <t>Персонал</t>
+  </si>
+  <si>
+    <t>Партнеры</t>
+  </si>
+  <si>
+    <t>Заявиться в соревнования</t>
+  </si>
+  <si>
+    <t>Форма для регистрации на турнир / О лиге</t>
+  </si>
+  <si>
+    <t>Обратная связь</t>
+  </si>
+  <si>
+    <t>Поиск</t>
+  </si>
+  <si>
+    <t>Просто удобное отображение в таблице существующих команд, высокое качество логотипов и понятное отображение названий команд. Отступы, адаптивная верстка, шрифты</t>
+  </si>
+  <si>
+    <t>Аналогично Командам, но только с игроками и футбольными клубами. Отступы, адаптивная верстка, шрифты</t>
+  </si>
+  <si>
+    <t>Аналогично Новостям, только с видео вместо постов, соответственно корректная работа открывания поверх страницы видеоплейера и затемнение остальных элементов, корректная верстка плеера</t>
+  </si>
+  <si>
+    <t>Аналогично Игрокам, только действующее руководство, сортировка по должности и текущему статусу</t>
+  </si>
+  <si>
+    <t>Небольшая вкладка с основными спонсорами, компактные карточки с нужной информацией, их верстка</t>
+  </si>
+  <si>
+    <t>Форма в хэдере для того, чтобы зарегистрированный пользователь мог поучаствовать в турнирах, просмотр турниров, отображение основной информации</t>
+  </si>
+  <si>
+    <t>Аналогична Турниру, только с основной информацией о нем, основная информация об участниках, их сортировка по подтверждениям, верстка таблицы и подбор шрифтов</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Небольшая форма для обратной связи от футбольной лиги, выползает наверх, затемнение фона, текст с </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">email </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>и отправка сообщение, возвращение к исходной странице по завершению</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Поиск по командам, турнирам и спортсменам. Ищет поля с предыдущих вкладов, поиск по разным именам/названиям. Верстка результатов во внутренних вкладках, переход на </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Профили команд</t>
+    </r>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Войти</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Настройка и подключение БД</t>
+  </si>
+  <si>
+    <t>Авторизация пользователей</t>
+  </si>
+  <si>
+    <t>Обработка запросов</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Модульное тестирование</t>
+  </si>
+  <si>
+    <t>Интеграционное тестирование</t>
+  </si>
+  <si>
+    <t>Функциональное тестирование</t>
+  </si>
+  <si>
+    <t>Релиз</t>
+  </si>
+  <si>
+    <t>SSL certificate</t>
+  </si>
+  <si>
+    <t>Выбор окружения</t>
+  </si>
+  <si>
+    <t>Настройка</t>
+  </si>
+  <si>
+    <t>Выбор и создание БД, создание таблиц и настройка триггеров, нужна для хранения пользователей, турниров, команд и тд</t>
+  </si>
+  <si>
+    <t>Отправка всех таблиц из БД, поиск нужных таблиц по БД</t>
+  </si>
+  <si>
+    <t>Тестирование общения фронта и бэка, корректная обработка форм и тд</t>
+  </si>
+  <si>
+    <t>Тестирование полных пользовательских сценариев</t>
+  </si>
+  <si>
+    <t>Проверка основного функционала и корректного отображения сайта и его таблиц в различных верстках</t>
+  </si>
+  <si>
+    <t>Настройка хоста под наши нужды, проверка общения клиента и сервера</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1442</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Простая логинка и соотв страница регистрации, просто ввод </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">email </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>и пароля, затемнение других окон, войти с помощью ВК и внутреннего профиля</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Простейший </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">PHP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>сервер для отправки запросов на логинку и регистрацию к БД</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проверка бэка на надежность, на наличие </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">SQL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>инъекций и корректную работу запросов к БД. Никакой более сложной логики не предусмотрено, как и других модулей, соотв требуется проверить основной функционал</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Тестирование </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(alpha </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>beta)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Self-Signed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">или отсутствие не подойдет, настройка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">https </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>соединения</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На выбранный хост скинуть скомпилированный </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">html </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">страничку с ангуляром, добавить </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">php </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>сервер</t>
+    </r>
+  </si>
+  <si>
+    <t>Разработал высокоинтерактивный пользовательский интерфейс для нового сервиса Selectel, включая анимацию и прототипы основных функций сайта.</t>
+  </si>
+  <si>
+    <t>Интерфейсная часть использует ReactJS для реализации динамических страниц, серверная часть использует SpringBoot для предоставления эффективных интерфейсных служб, а база данных использует PostgreSQL для поддержки хранения и обработки больших объемов данных.</t>
+  </si>
+  <si>
+    <t>Веб-сайт предполагает обработку персональных данных клиентов облачных услуг и должен заключать соответствующие соглашения о конфиденциальности.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +831,44 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -104,7 +878,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -112,13 +886,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -131,9 +960,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规_Sheet1" xfId="1" xr:uid="{D5FC512D-11FB-400B-BFDE-6B089FC218F7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,17 +1340,711 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BA74D2-656B-41C3-B20B-91E5589DE908}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="13.375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="116.25">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="158.25">
+      <c r="A4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="71.25">
+      <c r="A5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57">
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="71.25">
+      <c r="A8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="57">
+      <c r="A9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="185.25">
+      <c r="A10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="85.5">
+      <c r="A11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="57">
+      <c r="A12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="85.5">
+      <c r="A13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="57">
+      <c r="A14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="57">
+      <c r="A15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="71.25">
+      <c r="A16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="85.5">
+      <c r="A17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="85.5">
+      <c r="A18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="85.5">
+      <c r="A19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="71.25">
+      <c r="A20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="57">
+      <c r="A22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="42.75">
+      <c r="A23" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.5">
+      <c r="A24" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15">
+      <c r="A25" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="99.75">
+      <c r="A26" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="42.75">
+      <c r="A27" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="42.75">
+      <c r="A28" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15">
+      <c r="A29" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="57">
+      <c r="A30" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="42.75">
+      <c r="A31" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="42.75">
+      <c r="A32" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="42.75">
+      <c r="A33" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15">
+      <c r="A34" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A34:C34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF919840-9214-4EC6-8269-5D4BE3F124DF}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="5.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
@@ -463,77 +2053,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="75">
+      <c r="A3" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="120">
+      <c r="A4" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75">
+      <c r="A5" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EconomicsSoftwareEngineering/Lab1.xlsx
+++ b/EconomicsSoftwareEngineering/Lab1.xlsx
@@ -1,72 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tolia\Documents\GitHub\ITMO-PE\EconomicsSoftwareEngineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/2398768715qq.com/GitHub/ITMO-PE/EconomicsSoftwareEngineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB2A848-578A-4767-A78C-A7D01C5658E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74290B9E-1D5F-F24F-9152-273D8D29BD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{343BDCF8-93BA-48B2-B1E2-DDA5B2F75838}"/>
+    <workbookView xWindow="22940" yWindow="1100" windowWidth="22940" windowHeight="28700" activeTab="1" xr2:uid="{343BDCF8-93BA-48B2-B1E2-DDA5B2F75838}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Simple Method" sheetId="1" r:id="rId2"/>
+    <sheet name="PERT Method" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="157">
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="172">
   <si>
     <t>Название</t>
   </si>
   <si>
-    <t xml:space="preserve">Описание </t>
-  </si>
-  <si>
     <t>Optimal (h-h)</t>
-  </si>
-  <si>
-    <t>Подготовка</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pessimistic (h-h)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frontend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Backend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Testing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Release</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optimistic (h-h)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Прототип сайта</t>
@@ -795,20 +772,380 @@
     </r>
   </si>
   <si>
-    <t>Разработал высокоинтерактивный пользовательский интерфейс для нового сервиса Selectel, включая анимацию и прототипы основных функций сайта.</t>
-  </si>
-  <si>
-    <t>Интерфейсная часть использует ReactJS для реализации динамических страниц, серверная часть использует SpringBoot для предоставления эффективных интерфейсных служб, а база данных использует PostgreSQL для поддержки хранения и обработки больших объемов данных.</t>
-  </si>
-  <si>
-    <t>Веб-сайт предполагает обработку персональных данных клиентов облачных услуг и должен заключать соответствующие соглашения о конфиденциальности.</t>
+    <t>开发网站的初步原型，设计主页、服务页面、产品页面等的用户体验与交互动画。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确定技术栈：前端使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ReactJS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以支持动态交互，后端使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Node.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>GraphQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现快速数据处理，数据库选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>PostgreSQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于涉及用户注册与数据存储，必须获得数据处理许可，并确保符合相关法律要求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应式设计，展示主要服务、动态内容加载、优化动画效果，突出主要内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态表单验证，响应式布局，提供2FA验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>展示产品详细信息页面，包含技术参数、价格计算等内容。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括常见问题、提交工单表单、实时聊天支持功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>展示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Selectel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供的各类云服务，支持动态筛选和详细信息展示。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示技术文档，支持分章节阅读和全文搜索功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括账户管理、订单历史、服务与设备状态监控，支持自定义配置功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建数据库结构，包括用户数据、订单、服务与设备状态等表格与索引优化。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现用户登录、注册、权限管理逻辑，支持多种角色（普通用户、管理员）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计并开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>RESTful API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，支持前端与后端的数据交互。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现数据加密存储和安全通信（如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SSL/TLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试每个模块功能的可靠性，确保前后端逻辑正确无误。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保前后端及外部服务之间的交互工作正常。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试完整用户场景，包括注册、订购服务、查看文档等流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对主要功能进行内部测试和公开测试，收集反馈并优化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装并配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书，确保网站运行于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>HTTPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协议。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将代码部署到云服务器，并完成必要的环境配置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Optimistic</t>
+  </si>
+  <si>
+    <t>Pessimistic</t>
+  </si>
+  <si>
+    <t>Optimal</t>
+  </si>
+  <si>
+    <t>(h)</t>
+  </si>
+  <si>
+    <t>Ei=(P_i+O_i+4M_i)/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>СКО_i=(P_i-O_i)/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,16 +1206,49 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1E4F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -938,6 +1308,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -947,7 +1354,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,20 +1364,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1018,6 +1416,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1025,6 +1429,48 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1045,9 +1491,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1085,7 +1531,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1191,7 +1637,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1333,7 +1779,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1347,686 +1793,686 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="123">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="165">
+      <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="B4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75">
+      <c r="A5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60">
+      <c r="A6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="75">
+      <c r="A8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60">
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="195">
+      <c r="A10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="90">
+      <c r="A11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60">
+      <c r="A12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="90">
+      <c r="A13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60">
+      <c r="A14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60">
+      <c r="A15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="75">
+      <c r="A16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="90">
+      <c r="A17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="90">
+      <c r="A18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="90">
+      <c r="A19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="75">
+      <c r="A20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60">
+      <c r="A22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45">
+      <c r="A23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30">
+      <c r="A24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="105">
+      <c r="A26" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="45">
+      <c r="A27" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45">
+      <c r="A28" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="116.25">
-      <c r="A3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="158.25">
-      <c r="A4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="E29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="60">
+      <c r="A30" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45">
+      <c r="A31" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45">
+      <c r="A32" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="71.25">
-      <c r="A5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="F32" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45">
+      <c r="A33" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="57">
-      <c r="A6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="71.25">
-      <c r="A8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="57">
-      <c r="A9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="185.25">
-      <c r="A10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="85.5">
-      <c r="A11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="57">
-      <c r="A12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="85.5">
-      <c r="A13" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="57">
-      <c r="A14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="57">
-      <c r="A15" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="71.25">
-      <c r="A16" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="85.5">
-      <c r="A17" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="85.5">
-      <c r="A18" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="85.5">
-      <c r="A19" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="71.25">
-      <c r="A20" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15">
-      <c r="A21" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="57">
-      <c r="A22" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="42.75">
-      <c r="A23" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="11" t="s">
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="28.5">
-      <c r="A24" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15">
-      <c r="A25" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="99.75">
-      <c r="A26" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="42.75">
-      <c r="A27" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="42.75">
-      <c r="A28" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15">
-      <c r="A29" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="57">
-      <c r="A30" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="42.75">
-      <c r="A31" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="42.75">
-      <c r="A32" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="42.75">
-      <c r="A33" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15">
-      <c r="A34" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A34:C34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2035,135 +2481,2118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF919840-9214-4EC6-8269-5D4BE3F124DF}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A1" s="27" t="str">
+        <f>"№"</f>
+        <v>№</v>
+      </c>
+      <c r="B1" s="27" t="str">
+        <f>"Название"</f>
+        <v>Название</v>
+      </c>
+      <c r="C1" s="27" t="str">
+        <f>"Описание"</f>
+        <v>Описание</v>
+      </c>
+      <c r="D1" s="27" t="str">
+        <f>"Оптимистичное время (часы)"</f>
+        <v>Оптимистичное время (часы)</v>
+      </c>
+      <c r="E1" s="27" t="str">
+        <f>"Пессимистичное время (часы)"</f>
+        <v>Пессимистичное время (часы)</v>
+      </c>
+      <c r="F1" s="27" t="str">
+        <f>"Лучшее время (часы)"</f>
+        <v>Лучшее время (часы)</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <f>"编号"</f>
+        <v>编号</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <f>"名称"</f>
+        <v>名称</v>
+      </c>
+      <c r="J1" s="1" t="str">
+        <f>"描述"</f>
+        <v>描述</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <f>"乐观时间 (小时)"</f>
+        <v>乐观时间 (小时)</v>
+      </c>
+      <c r="L1" s="1" t="str">
+        <f>"悲观时间 (小时)"</f>
+        <v>悲观时间 (小时)</v>
+      </c>
+      <c r="M1" s="1" t="str">
+        <f>"最佳时间 (小时)"</f>
+        <v>最佳时间 (小时)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15">
+      <c r="A2" s="27" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="str">
+        <f>"Подготовка"</f>
+        <v>Подготовка</v>
+      </c>
+      <c r="C2" s="27" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D2" s="28" t="str">
+        <f>"200"</f>
+        <v>200</v>
+      </c>
+      <c r="E2" s="28" t="str">
+        <f>"450"</f>
+        <v>450</v>
+      </c>
+      <c r="F2" s="28" t="str">
+        <f>"300"</f>
+        <v>300</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f>"准备"</f>
+        <v>准备</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f>"200"</f>
+        <v>200</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f>"450"</f>
+        <v>450</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <f>"300"</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="135">
+      <c r="A3" s="27" t="str">
+        <f>"1.1"</f>
+        <v>1.1</v>
+      </c>
+      <c r="B3" s="28" t="str">
+        <f>"Прототип сайта"</f>
+        <v>Прототип сайта</v>
+      </c>
+      <c r="C3" s="28" t="str">
+        <f>"Разработка начального прототипа сайта, проектирование пользовательского опыта и анимаций взаимодействия для главной страницы, страницы услуг, страницы продуктов и других разделов."</f>
+        <v>Разработка начального прототипа сайта, проектирование пользовательского опыта и анимаций взаимодействия для главной страницы, страницы услуг, страницы продуктов и других разделов.</v>
+      </c>
+      <c r="D3" s="28">
+        <v>50</v>
+      </c>
+      <c r="E3" s="28" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+      <c r="F3" s="28" t="str">
+        <f>"70"</f>
+        <v>70</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>"1.1"</f>
+        <v>1.1</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f>"网站原型"</f>
+        <v>网站原型</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f>"70"</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="225">
+      <c r="A4" s="27" t="str">
+        <f>"1.2"</f>
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="28" t="str">
+        <f>"Выбор технологий"</f>
+        <v>Выбор технологий</v>
+      </c>
+      <c r="C4" s="28" t="str">
+        <f>"Определение технологического стека: использование ReactJS для динамического взаимодействия на фронтенде, Node.js и GraphQL для быстрого обработки данных на бэкенде, выбор PostgreSQL в качестве базы данных."</f>
+        <v>Определение технологического стека: использование ReactJS для динамического взаимодействия на фронтенде, Node.js и GraphQL для быстрого обработки данных на бэкенде, выбор PostgreSQL в качестве базы данных.</v>
+      </c>
+      <c r="D4" s="28" t="str">
+        <f>"10"</f>
+        <v>10</v>
+      </c>
+      <c r="E4" s="28" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="F4" s="28" t="str">
+        <f>"20"</f>
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>"1.2"</f>
+        <v>1.2</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>"技术选择"</f>
+        <v>技术选择</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>"10"</f>
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f>"20"</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="150">
+      <c r="A5" s="27" t="str">
+        <f>"1.3"</f>
+        <v>1.3</v>
+      </c>
+      <c r="B5" s="28" t="str">
+        <f>"Разрешение на обработку данных"</f>
+        <v>Разрешение на обработку данных</v>
+      </c>
+      <c r="C5" s="28" t="str">
+        <f>"Ввиду работы с регистрацией пользователей и хранением данных необходимо получить разрешение на обработку данных и обеспечить соблюдение законодательных норм."</f>
+        <v>Ввиду работы с регистрацией пользователей и хранением данных необходимо получить разрешение на обработку данных и обеспечить соблюдение законодательных норм.</v>
+      </c>
+      <c r="D5" s="28" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+      <c r="E5" s="28" t="str">
+        <f>"250"</f>
+        <v>250</v>
+      </c>
+      <c r="F5" s="28" t="str">
+        <f>"150"</f>
+        <v>150</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>"1.3"</f>
+        <v>1.3</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>"数据处理许可"</f>
+        <v>数据处理许可</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f>"250"</f>
+        <v>250</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f>"150"</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="90">
+      <c r="A6" s="27" t="str">
+        <f>"1.4"</f>
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="29" t="str">
+        <f>"Настройка хостинга и домена"</f>
+        <v>Настройка хостинга и домена</v>
+      </c>
+      <c r="C6" s="28" t="str">
+        <f>"Определение оптимального хостинга и конфигурации домена с учетом производительности и стоимости."</f>
+        <v>Определение оптимального хостинга и конфигурации домена с учетом производительности и стоимости.</v>
+      </c>
+      <c r="D6" s="28" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="E6" s="28" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="F6" s="28" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>"1.4"</f>
+        <v>1.4</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f>"主机与域名设置"</f>
+        <v>主机与域名设置</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f>"确定最佳主机和域名设置方案，优化性能和成本。"</f>
+        <v>确定最佳主机和域名设置方案，优化性能和成本。</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15">
+      <c r="A7" s="27" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="27" t="str">
+        <f>"Фронтенд"</f>
+        <v>Фронтенд</v>
+      </c>
+      <c r="C7" s="27" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D7" s="28" t="str">
+        <f>"300"</f>
+        <v>300</v>
+      </c>
+      <c r="E7" s="28" t="str">
+        <f>"500"</f>
+        <v>500</v>
+      </c>
+      <c r="F7" s="28" t="str">
+        <f>"400"</f>
+        <v>400</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f>"前端"</f>
+        <v>前端</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f>"300"</f>
+        <v>300</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f>"500"</f>
+        <v>500</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f>"400"</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="135">
+      <c r="A8" s="27" t="str">
+        <f>"2.1"</f>
+        <v>2.1</v>
+      </c>
+      <c r="B8" s="27" t="str">
+        <f>"Главная страница"</f>
+        <v>Главная страница</v>
+      </c>
+      <c r="C8" s="27" t="str">
+        <f>"Адаптивный дизайн, отображение основных услуг, динамическая загрузка контента, оптимизация анимаций, акцент на ключевой информации."</f>
+        <v>Адаптивный дизайн, отображение основных услуг, динамическая загрузка контента, оптимизация анимаций, акцент на ключевой информации.</v>
+      </c>
+      <c r="D8" s="28" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="E8" s="28" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+      <c r="F8" s="28" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>"2.1"</f>
+        <v>2.1</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f>"主页"</f>
+        <v>主页</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="75">
+      <c r="A9" s="27" t="str">
+        <f>"2.2"</f>
+        <v>2.2</v>
+      </c>
+      <c r="B9" s="28" t="str">
+        <f>"Страница входа/регистрации"</f>
+        <v>Страница входа/регистрации</v>
+      </c>
+      <c r="C9" s="28" t="str">
+        <f>"Динамическая валидация форм, адаптивный макет, поддержка двухфакторной аутентификации (2FA)."</f>
+        <v>Динамическая валидация форм, адаптивный макет, поддержка двухфакторной аутентификации (2FA).</v>
+      </c>
+      <c r="D9" s="28" t="str">
+        <f>"30"</f>
+        <v>30</v>
+      </c>
+      <c r="E9" s="28" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="F9" s="28" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>"2.2"</f>
+        <v>2.2</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f>"登录/注册"</f>
+        <v>登录/注册</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f>"30"</f>
+        <v>30</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="120">
+      <c r="A10" s="27" t="str">
+        <f>"2.3"</f>
+        <v>2.3</v>
+      </c>
+      <c r="B10" s="28" t="str">
+        <f>"Страница услуг"</f>
+        <v>Страница услуг</v>
+      </c>
+      <c r="C10" s="28" t="str">
+        <f>"Отображение различных облачных услуг Selectel, поддержка динамической фильтрации и отображения подробной информации."</f>
+        <v>Отображение различных облачных услуг Selectel, поддержка динамической фильтрации и отображения подробной информации.</v>
+      </c>
+      <c r="D10" s="28" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="E10" s="28" t="str">
+        <f>"90"</f>
+        <v>90</v>
+      </c>
+      <c r="F10" s="28" t="str">
+        <f>"70"</f>
+        <v>70</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>"2.3"</f>
+        <v>2.3</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f>"服务页面"</f>
+        <v>服务页面</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f>"90"</f>
+        <v>90</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f>"70"</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="105">
+      <c r="A11" s="27" t="str">
+        <f>"2.4"</f>
+        <v>2.4</v>
+      </c>
+      <c r="B11" s="28" t="str">
+        <f>"Страница продуктов"</f>
+        <v>Страница продуктов</v>
+      </c>
+      <c r="C11" s="28" t="str">
+        <f>"Представление подробной информации о продуктах, включая технические параметры и калькуляцию стоимости."</f>
+        <v>Представление подробной информации о продуктах, включая технические параметры и калькуляцию стоимости.</v>
+      </c>
+      <c r="D11" s="28" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="E11" s="28" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+      <c r="F11" s="28" t="str">
+        <f>"75"</f>
+        <v>75</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>"2.4"</f>
+        <v>2.4</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f>"产品页面"</f>
+        <v>产品页面</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f>"75"</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="90">
+      <c r="A12" s="27" t="str">
+        <f>"2.5"</f>
+        <v>2.5</v>
+      </c>
+      <c r="B12" s="28" t="str">
+        <f>"Центр поддержки"</f>
+        <v>Центр поддержки</v>
+      </c>
+      <c r="C12" s="28" t="str">
+        <f>"Включает раздел часто задаваемых вопросов, форму отправки запросов и поддержку в реальном времени через чат."</f>
+        <v>Включает раздел часто задаваемых вопросов, форму отправки запросов и поддержку в реальном времени через чат.</v>
+      </c>
+      <c r="D12" s="28" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="E12" s="28" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+      <c r="F12" s="28" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>"2.5"</f>
+        <v>2.5</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f>"支持中心"</f>
+        <v>支持中心</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="90">
+      <c r="A13" s="27" t="str">
+        <f>"2.6"</f>
+        <v>2.6</v>
+      </c>
+      <c r="B13" s="27" t="str">
+        <f>"Страница документации"</f>
+        <v>Страница документации</v>
+      </c>
+      <c r="C13" s="27" t="str">
+        <f>"Отображение технической документации с возможностью постраничного чтения и полнотекстового поиска."</f>
+        <v>Отображение технической документации с возможностью постраничного чтения и полнотекстового поиска.</v>
+      </c>
+      <c r="D13" s="28" t="str">
+        <f>"30"</f>
+        <v>30</v>
+      </c>
+      <c r="E13" s="28" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="F13" s="28" t="str">
+        <f>"45"</f>
+        <v>45</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>"2.6"</f>
+        <v>2.6</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f>"文档页面"</f>
+        <v>文档页面</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f>"30"</f>
+        <v>30</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f>"45"</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="120">
+      <c r="A14" s="27" t="str">
+        <f>"2.7"</f>
+        <v>2.7</v>
+      </c>
+      <c r="B14" s="28" t="str">
+        <f>"Панель управления пользователем"</f>
+        <v>Панель управления пользователем</v>
+      </c>
+      <c r="C14" s="28" t="str">
+        <f>"Включает управление аккаунтом, историю заказов, мониторинг состояния услуг и устройств, поддержку пользовательской настройки."</f>
+        <v>Включает управление аккаунтом, историю заказов, мониторинг состояния услуг и устройств, поддержку пользовательской настройки.</v>
+      </c>
+      <c r="D14" s="28" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="E14" s="28" t="str">
+        <f>"120"</f>
+        <v>120</v>
+      </c>
+      <c r="F14" s="28" t="str">
+        <f>"90"</f>
+        <v>90</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>"2.7"</f>
+        <v>2.7</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f>"用户控制面板"</f>
+        <v>用户控制面板</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f>"120"</f>
+        <v>120</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f>"90"</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15">
+      <c r="A15" s="27" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="B15" s="28" t="str">
+        <f>"Бэкенд"</f>
+        <v>Бэкенд</v>
+      </c>
+      <c r="C15" s="28" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D15" s="28" t="str">
+        <f>"250"</f>
+        <v>250</v>
+      </c>
+      <c r="E15" s="28" t="str">
+        <f>"450"</f>
+        <v>450</v>
+      </c>
+      <c r="F15" s="28" t="str">
+        <f>"350"</f>
+        <v>350</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f>"后端"</f>
+        <v>后端</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f>"250"</f>
+        <v>250</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f>"450"</f>
+        <v>450</v>
+      </c>
+      <c r="M15" s="1" t="str">
+        <f>"350"</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="135">
+      <c r="A16" s="27" t="str">
+        <f>"3.1"</f>
+        <v>3.1</v>
+      </c>
+      <c r="B16" s="28" t="str">
+        <f>"Проектирование и настройка базы данных"</f>
+        <v>Проектирование и настройка базы данных</v>
+      </c>
+      <c r="C16" s="28" t="str">
+        <f>"Создание структуры базы данных, включающей данные пользователей, заказы, состояние услуг и устройств, оптимизация индексов."</f>
+        <v>Создание структуры базы данных, включающей данные пользователей, заказы, состояние услуг и устройств, оптимизация индексов.</v>
+      </c>
+      <c r="D16" s="28" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="E16" s="28" t="str">
+        <f>"120"</f>
+        <v>120</v>
+      </c>
+      <c r="F16" s="28" t="str">
+        <f>"90"</f>
+        <v>90</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>"3.1"</f>
+        <v>3.1</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f>"数据库设计与配置"</f>
+        <v>数据库设计与配置</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f>"120"</f>
+        <v>120</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f>"90"</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="135">
+      <c r="A17" s="27" t="str">
+        <f>"3.2"</f>
+        <v>3.2</v>
+      </c>
+      <c r="B17" s="28" t="str">
+        <f>"Аутентификация и управление правами доступа"</f>
+        <v>Аутентификация и управление правами доступа</v>
+      </c>
+      <c r="C17" s="28" t="str">
+        <f>"Реализация логики входа, регистрации и управления правами доступа, поддержка различных ролей (обычные пользователи, администраторы)."</f>
+        <v>Реализация логики входа, регистрации и управления правами доступа, поддержка различных ролей (обычные пользователи, администраторы).</v>
+      </c>
+      <c r="D17" s="28" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="E17" s="28" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+      <c r="F17" s="28" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>"3.2"</f>
+        <v>3.2</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f>"用户认证与权限管理"</f>
+        <v>用户认证与权限管理</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="105">
+      <c r="A18" s="27" t="str">
+        <f>"3.3"</f>
+        <v>3.3</v>
+      </c>
+      <c r="B18" s="27" t="str">
+        <f>"Разработка API"</f>
+        <v>Разработка API</v>
+      </c>
+      <c r="C18" s="27" t="str">
+        <f>"Проектирование и разработка RESTful API для взаимодействия фронтенда и бэкенда."</f>
+        <v>Проектирование и разработка RESTful API для взаимодействия фронтенда и бэкенда.</v>
+      </c>
+      <c r="D18" s="28" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+      <c r="E18" s="28" t="str">
+        <f>"150"</f>
+        <v>150</v>
+      </c>
+      <c r="F18" s="28" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>"3.3"</f>
+        <v>3.3</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f>"服务接口开发"</f>
+        <v>服务接口开发</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f>"150"</f>
+        <v>150</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="90">
+      <c r="A19" s="27" t="str">
+        <f>"3.4"</f>
+        <v>3.4</v>
+      </c>
+      <c r="B19" s="28" t="str">
+        <f>"Безопасность и шифрование данных"</f>
+        <v>Безопасность и шифрование данных</v>
+      </c>
+      <c r="C19" s="28" t="str">
+        <f>"Реализация шифрования данных для хранения и обеспечение защищенной связи (например, через SSL/TLS)."</f>
+        <v>Реализация шифрования данных для хранения и обеспечение защищенной связи (например, через SSL/TLS).</v>
+      </c>
+      <c r="D19" s="28" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="E19" s="28" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+      <c r="F19" s="28" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f>"3.4"</f>
+        <v>3.4</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f>"数据安全与加密"</f>
+        <v>数据安全与加密</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15">
+      <c r="A20" s="27" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="B20" s="27" t="str">
+        <f>"Тестирование"</f>
+        <v>Тестирование</v>
+      </c>
+      <c r="C20" s="27" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D20" s="28" t="str">
+        <f>"150"</f>
+        <v>150</v>
+      </c>
+      <c r="E20" s="28" t="str">
+        <f>"300"</f>
+        <v>300</v>
+      </c>
+      <c r="F20" s="28" t="str">
+        <f>"200"</f>
+        <v>200</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f>"测试"</f>
+        <v>测试</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f>"150"</f>
+        <v>150</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f>"300"</f>
+        <v>300</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f>"200"</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="105">
+      <c r="A21" s="27" t="str">
+        <f>"4.1"</f>
+        <v>4.1</v>
+      </c>
+      <c r="B21" s="28" t="str">
+        <f>"Модульное тестирование"</f>
+        <v>Модульное тестирование</v>
+      </c>
+      <c r="C21" s="28" t="str">
+        <f>"Проверка надежности функциональности каждого модуля, обеспечение корректности логики фронтенда и бэкенда."</f>
+        <v>Проверка надежности функциональности каждого модуля, обеспечение корректности логики фронтенда и бэкенда.</v>
+      </c>
+      <c r="D21" s="28" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="E21" s="28" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+      <c r="F21" s="28" t="str">
+        <f>"75"</f>
+        <v>75</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f>"4.1"</f>
+        <v>4.1</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f>"单元测试"</f>
+        <v>单元测试</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+      <c r="M21" s="1" t="str">
+        <f>"75"</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="75">
+      <c r="A22" s="27" t="str">
+        <f>"4.2"</f>
+        <v>4.2</v>
+      </c>
+      <c r="B22" s="28" t="str">
+        <f>"Интеграционное тестирование"</f>
+        <v>Интеграционное тестирование</v>
+      </c>
+      <c r="C22" s="28" t="str">
+        <f>"Проверка корректности взаимодействия между фронтендом, бэкендом и внешними сервисами."</f>
+        <v>Проверка корректности взаимодействия между фронтендом, бэкендом и внешними сервисами.</v>
+      </c>
+      <c r="D22" s="28" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="E22" s="28" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+      <c r="F22" s="28" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f>"4.2"</f>
+        <v>4.2</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f>"集成测试"</f>
+        <v>集成测试</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="105">
+      <c r="A23" s="27" t="str">
+        <f>"4.3"</f>
+        <v>4.3</v>
+      </c>
+      <c r="B23" s="28" t="str">
+        <f>"Функциональное тестирование"</f>
+        <v>Функциональное тестирование</v>
+      </c>
+      <c r="C23" s="28" t="str">
+        <f>"Тестирование полных пользовательских сценариев, включая регистрацию, заказ услуг, просмотр документации и т. д."</f>
+        <v>Тестирование полных пользовательских сценариев, включая регистрацию, заказ услуг, просмотр документации и т. д.</v>
+      </c>
+      <c r="D23" s="28" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="E23" s="28" t="str">
+        <f>"120"</f>
+        <v>120</v>
+      </c>
+      <c r="F23" s="28" t="str">
+        <f>"90"</f>
+        <v>90</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>"4.3"</f>
+        <v>4.3</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f>"功能测试"</f>
+        <v>功能测试</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f>"120"</f>
+        <v>120</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f>"90"</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15">
+      <c r="A24" s="27" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="B24" s="28" t="str">
+        <f>"Развертывание"</f>
+        <v>Развертывание</v>
+      </c>
+      <c r="C24" s="28" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D24" s="28" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+      <c r="E24" s="28" t="str">
+        <f>"200"</f>
+        <v>200</v>
+      </c>
+      <c r="F24" s="28" t="str">
+        <f>"150"</f>
+        <v>150</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f>"发布"</f>
+        <v>发布</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f>"200"</f>
+        <v>200</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f>"150"</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="105">
+      <c r="A25" s="27" t="str">
+        <f>"5.1"</f>
+        <v>5.1</v>
+      </c>
+      <c r="B25" s="28" t="str">
+        <f>"Alpha и Beta тестирование"</f>
+        <v>Alpha и Beta тестирование</v>
+      </c>
+      <c r="C25" s="28" t="str">
+        <f>"Проведение внутреннего тестирования и открытого тестирования основных функций, сбор обратной связи и оптимизация."</f>
+        <v>Проведение внутреннего тестирования и открытого тестирования основных функций, сбор обратной связи и оптимизация.</v>
+      </c>
+      <c r="D25" s="28" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="E25" s="28" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+      <c r="F25" s="28" t="str">
+        <f>"75"</f>
+        <v>75</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f>"5.1"</f>
+        <v>5.1</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f>"Alpha和Beta测试"</f>
+        <v>Alpha和Beta测试</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f>"75"</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="90">
+      <c r="A26" s="27" t="str">
+        <f>"5.2"</f>
+        <v>5.2</v>
+      </c>
+      <c r="B26" s="28" t="str">
+        <f>"Настройка SSL-сертификата"</f>
+        <v>Настройка SSL-сертификата</v>
+      </c>
+      <c r="C26" s="28" t="str">
+        <f>"Установка и настройка SSL-сертификата для работы сайта по протоколу HTTPS."</f>
+        <v>Установка и настройка SSL-сертификата для работы сайта по протоколу HTTPS.</v>
+      </c>
+      <c r="D26" s="28" t="str">
+        <f>"10"</f>
+        <v>10</v>
+      </c>
+      <c r="E26" s="28" t="str">
+        <f>"20"</f>
+        <v>20</v>
+      </c>
+      <c r="F26" s="28" t="str">
+        <f>"15"</f>
+        <v>15</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f>"5.2"</f>
+        <v>5.2</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f>"SSL证书配置"</f>
+        <v>SSL证书配置</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f>"10"</f>
+        <v>10</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f>"20"</f>
+        <v>20</v>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f>"15"</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="90">
+      <c r="A27" s="27" t="str">
+        <f>"5.3"</f>
+        <v>5.3</v>
+      </c>
+      <c r="B27" s="28" t="str">
+        <f>"Развертывание сервера"</f>
+        <v>Развертывание сервера</v>
+      </c>
+      <c r="C27" s="28" t="str">
+        <f>"Размещение кода на облачном сервере и выполнение необходимой конфигурации окружения."</f>
+        <v>Размещение кода на облачном сервере и выполнение необходимой конфигурации окружения.</v>
+      </c>
+      <c r="D27" s="28" t="str">
+        <f>"30"</f>
+        <v>30</v>
+      </c>
+      <c r="E27" s="28" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="F27" s="28" t="str">
+        <f>"45"</f>
+        <v>45</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f>"5.3"</f>
+        <v>5.3</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f>"服务器部署"</f>
+        <v>服务器部署</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f>"30"</f>
+        <v>30</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="M27" s="1" t="str">
+        <f>"45"</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15">
+      <c r="A28" s="27" t="str">
+        <f>"Z"</f>
+        <v>Z</v>
+      </c>
+      <c r="B28" s="28" t="str">
+        <f>"Итого"</f>
+        <v>Итого</v>
+      </c>
+      <c r="C28" s="28" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="D28" s="28" t="str">
+        <f>"1000"</f>
+        <v>1000</v>
+      </c>
+      <c r="E28" s="28" t="str">
+        <f>"1950"</f>
+        <v>1950</v>
+      </c>
+      <c r="F28" s="28" t="str">
+        <f>"1400"</f>
+        <v>1400</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f>"Z"</f>
+        <v>Z</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f>"总计"</f>
+        <v>总计</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f>"1000"</f>
+        <v>1000</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f>"1950"</f>
+        <v>1950</v>
+      </c>
+      <c r="M28" s="1" t="str">
+        <f>"1400"</f>
+        <v>1400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E0DD2C-E896-F14F-9EB7-F7E140FCF726}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="14"/>
+    <col min="2" max="2" width="42.33203125" style="14" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" style="14"/>
+    <col min="6" max="6" width="14.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" thickBot="1">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" ht="16">
+      <c r="A3" s="14" t="str">
+        <f>"1.1"</f>
+        <v>1.1</v>
+      </c>
+      <c r="B3" s="14" t="str">
+        <f>"Прототип сайта"</f>
+        <v>Прототип сайта</v>
+      </c>
+      <c r="C3" s="37">
+        <v>50</v>
+      </c>
+      <c r="D3" s="36">
+        <v>100</v>
+      </c>
+      <c r="E3" s="37">
+        <v>70</v>
+      </c>
+      <c r="F3" s="38">
+        <f>(C3+D3+4*E3)/6</f>
+        <v>71.666666666666671</v>
+      </c>
+      <c r="G3" s="38">
+        <f>(C3+D3)/6</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16">
+      <c r="A4" s="14" t="str">
+        <f>"1.2"</f>
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="14" t="str">
+        <f>"Выбор технологий"</f>
+        <v>Выбор технологий</v>
+      </c>
+      <c r="C4" s="37">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D4" s="36" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="E4" s="37" t="str">
+        <f>"20"</f>
+        <v>20</v>
+      </c>
+      <c r="F4" s="38">
+        <f t="shared" ref="F4:F23" si="0">(C4+D4+4*E4)/6</f>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="G4" s="38">
+        <f t="shared" ref="G4:G23" si="1">(C4+D4)/6</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16">
+      <c r="A5" s="14" t="str">
+        <f>"1.3"</f>
+        <v>1.3</v>
+      </c>
+      <c r="B5" s="14" t="str">
+        <f>"Разрешение на обработку данных"</f>
+        <v>Разрешение на обработку данных</v>
+      </c>
+      <c r="C5" s="37">
+        <v>100</v>
+      </c>
+      <c r="D5" s="36" t="str">
+        <f>"250"</f>
+        <v>250</v>
+      </c>
+      <c r="E5" s="37" t="str">
+        <f>"150"</f>
+        <v>150</v>
+      </c>
+      <c r="F5" s="38">
+        <f t="shared" si="0"/>
+        <v>158.33333333333334</v>
+      </c>
+      <c r="G5" s="38">
+        <f t="shared" si="1"/>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16">
+      <c r="A6" s="14" t="str">
+        <f>"1.4"</f>
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="14" t="str">
+        <f>"Настройка хостинга и домена"</f>
+        <v>Настройка хостинга и домена</v>
+      </c>
+      <c r="C6" s="37">
+        <v>40</v>
+      </c>
+      <c r="D6" s="36" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="E6" s="37" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="F6" s="38">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G6" s="38">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16">
+      <c r="A7" s="14" t="str">
+        <f>"2.1"</f>
+        <v>2.1</v>
+      </c>
+      <c r="B7" s="14" t="str">
+        <f>"Главная страница"</f>
+        <v>Главная страница</v>
+      </c>
+      <c r="C7" s="37">
+        <v>40</v>
+      </c>
+      <c r="D7" s="36" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+      <c r="E7" s="37" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="F7" s="38">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G7" s="38">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16">
+      <c r="A8" s="14" t="str">
+        <f>"2.2"</f>
+        <v>2.2</v>
+      </c>
+      <c r="B8" s="14" t="str">
+        <f>"Страница входа/регистрации"</f>
+        <v>Страница входа/регистрации</v>
+      </c>
+      <c r="C8" s="37" t="str">
+        <f>"30"</f>
+        <v>30</v>
+      </c>
+      <c r="D8" s="36" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="E8" s="37" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="F8" s="38">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G8" s="38">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16">
+      <c r="A9" s="14" t="str">
+        <f>"2.3"</f>
+        <v>2.3</v>
+      </c>
+      <c r="B9" s="14" t="str">
+        <f>"Страница услуг"</f>
+        <v>Страница услуг</v>
+      </c>
+      <c r="C9" s="37" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="D9" s="36" t="str">
+        <f>"90"</f>
+        <v>90</v>
+      </c>
+      <c r="E9" s="37" t="str">
+        <f>"70"</f>
+        <v>70</v>
+      </c>
+      <c r="F9" s="38">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G9" s="38">
+        <f t="shared" si="1"/>
+        <v>23.333333333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16">
+      <c r="A10" s="14" t="str">
+        <f>"2.4"</f>
+        <v>2.4</v>
+      </c>
+      <c r="B10" s="14" t="str">
+        <f>"Страница продуктов"</f>
+        <v>Страница продуктов</v>
+      </c>
+      <c r="C10" s="37" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="D10" s="36" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="37" t="str">
+        <f>"75"</f>
+        <v>75</v>
+      </c>
+      <c r="F10" s="38">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G10" s="38">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16">
+      <c r="A11" s="14" t="str">
+        <f>"2.5"</f>
+        <v>2.5</v>
+      </c>
+      <c r="B11" s="14" t="str">
+        <f>"Центр поддержки"</f>
+        <v>Центр поддержки</v>
+      </c>
+      <c r="C11" s="37" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="D11" s="36" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+      <c r="E11" s="37" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="F11" s="38">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G11" s="38">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16">
+      <c r="A12" s="14" t="str">
+        <f>"2.6"</f>
+        <v>2.6</v>
+      </c>
+      <c r="B12" s="14" t="str">
+        <f>"Страница документации"</f>
+        <v>Страница документации</v>
+      </c>
+      <c r="C12" s="37" t="str">
+        <f>"30"</f>
+        <v>30</v>
+      </c>
+      <c r="D12" s="36" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="E12" s="37" t="str">
+        <f>"45"</f>
+        <v>45</v>
+      </c>
+      <c r="F12" s="38">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G12" s="38">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16">
+      <c r="A13" s="14" t="str">
+        <f>"2.7"</f>
+        <v>2.7</v>
+      </c>
+      <c r="B13" s="14" t="str">
+        <f>"Панель управления пользователем"</f>
+        <v>Панель управления пользователем</v>
+      </c>
+      <c r="C13" s="37" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="D13" s="36" t="str">
+        <f>"120"</f>
+        <v>120</v>
+      </c>
+      <c r="E13" s="37" t="str">
+        <f>"90"</f>
+        <v>90</v>
+      </c>
+      <c r="F13" s="38">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G13" s="38">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16">
+      <c r="A14" s="14" t="str">
+        <f>"3.1"</f>
+        <v>3.1</v>
+      </c>
+      <c r="B14" s="14" t="str">
+        <f>"Проектирование и настройка базы данных"</f>
+        <v>Проектирование и настройка базы данных</v>
+      </c>
+      <c r="C14" s="37" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="D14" s="36" t="str">
+        <f>"120"</f>
+        <v>120</v>
+      </c>
+      <c r="E14" s="37" t="str">
+        <f>"90"</f>
+        <v>90</v>
+      </c>
+      <c r="F14" s="38">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G14" s="38">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16">
+      <c r="A15" s="14" t="str">
+        <f>"3.2"</f>
+        <v>3.2</v>
+      </c>
+      <c r="B15" s="14" t="str">
+        <f>"Аутентификация и управление правами доступа"</f>
+        <v>Аутентификация и управление правами доступа</v>
+      </c>
+      <c r="C15" s="37" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="D15" s="36" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+      <c r="E15" s="37" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="F15" s="38">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16">
+      <c r="A16" s="14" t="str">
+        <f>"3.3"</f>
+        <v>3.3</v>
+      </c>
+      <c r="B16" s="14" t="str">
+        <f>"Разработка API"</f>
+        <v>Разработка API</v>
+      </c>
+      <c r="C16" s="37" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+      <c r="D16" s="36" t="str">
+        <f>"150"</f>
+        <v>150</v>
+      </c>
+      <c r="E16" s="37" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+      <c r="F16" s="38">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="G16" s="38">
+        <f t="shared" si="1"/>
+        <v>38.333333333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16">
+      <c r="A17" s="14" t="str">
+        <f>"3.4"</f>
+        <v>3.4</v>
+      </c>
+      <c r="B17" s="14" t="str">
+        <f>"Безопасность и шифрование данных"</f>
+        <v>Безопасность и шифрование данных</v>
+      </c>
+      <c r="C17" s="37" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="D17" s="36" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+      <c r="E17" s="37" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="F17" s="38">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16">
+      <c r="A18" s="14" t="str">
+        <f>"4.1"</f>
+        <v>4.1</v>
+      </c>
+      <c r="B18" s="14" t="str">
+        <f>"Модульное тестирование"</f>
+        <v>Модульное тестирование</v>
+      </c>
+      <c r="C18" s="37" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="D18" s="36" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+      <c r="E18" s="37" t="str">
+        <f>"75"</f>
+        <v>75</v>
+      </c>
+      <c r="F18" s="38">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G18" s="38">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16">
+      <c r="A19" s="14" t="str">
+        <f>"4.2"</f>
+        <v>4.2</v>
+      </c>
+      <c r="B19" s="14" t="str">
+        <f>"Интеграционное тестирование"</f>
+        <v>Интеграционное тестирование</v>
+      </c>
+      <c r="C19" s="37" t="str">
+        <f>"40"</f>
+        <v>40</v>
+      </c>
+      <c r="D19" s="36" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+      <c r="E19" s="37" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="F19" s="38">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G19" s="38">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16">
+      <c r="A20" s="14" t="str">
+        <f>"4.3"</f>
+        <v>4.3</v>
+      </c>
+      <c r="B20" s="14" t="str">
+        <f>"Функциональное тестирование"</f>
+        <v>Функциональное тестирование</v>
+      </c>
+      <c r="C20" s="37" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="D20" s="36" t="str">
+        <f>"120"</f>
+        <v>120</v>
+      </c>
+      <c r="E20" s="37" t="str">
+        <f>"90"</f>
+        <v>90</v>
+      </c>
+      <c r="F20" s="38">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G20" s="38">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16">
+      <c r="A21" s="14" t="str">
+        <f>"5.1"</f>
+        <v>5.1</v>
+      </c>
+      <c r="B21" s="14" t="str">
+        <f>"Alpha и Beta тестирование"</f>
+        <v>Alpha и Beta тестирование</v>
+      </c>
+      <c r="C21" s="37" t="str">
+        <f>"50"</f>
+        <v>50</v>
+      </c>
+      <c r="D21" s="36" t="str">
+        <f>"100"</f>
+        <v>100</v>
+      </c>
+      <c r="E21" s="37" t="str">
+        <f>"75"</f>
+        <v>75</v>
+      </c>
+      <c r="F21" s="38">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G21" s="38">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16">
+      <c r="A22" s="14" t="str">
+        <f>"5.2"</f>
+        <v>5.2</v>
+      </c>
+      <c r="B22" s="14" t="str">
+        <f>"Настройка SSL-сертификата"</f>
+        <v>Настройка SSL-сертификата</v>
+      </c>
+      <c r="C22" s="37" t="str">
+        <f>"10"</f>
+        <v>10</v>
+      </c>
+      <c r="D22" s="36" t="str">
+        <f>"20"</f>
+        <v>20</v>
+      </c>
+      <c r="E22" s="37" t="str">
+        <f>"15"</f>
+        <v>15</v>
+      </c>
+      <c r="F22" s="38">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G22" s="38">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="75">
-      <c r="A3" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="120">
-      <c r="A4" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="75">
-      <c r="A5" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="16">
+      <c r="A23" s="14" t="str">
+        <f>"5.3"</f>
+        <v>5.3</v>
+      </c>
+      <c r="B23" s="14" t="str">
+        <f>"Развертывание сервера"</f>
+        <v>Развертывание сервера</v>
+      </c>
+      <c r="C23" s="37" t="str">
+        <f>"30"</f>
+        <v>30</v>
+      </c>
+      <c r="D23" s="36" t="str">
+        <f>"60"</f>
+        <v>60</v>
+      </c>
+      <c r="E23" s="37" t="str">
+        <f>"45"</f>
+        <v>45</v>
+      </c>
+      <c r="F23" s="38">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G23" s="38">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16">
+      <c r="A24" s="14" t="str">
+        <f>"Z"</f>
+        <v>Z</v>
+      </c>
+      <c r="B24" s="14" t="str">
+        <f>"Итого"</f>
+        <v>Итого</v>
+      </c>
+      <c r="C24" s="37" t="str">
+        <f>"1000"</f>
+        <v>1000</v>
+      </c>
+      <c r="D24" s="36">
+        <f>SUM(D3:D23)</f>
+        <v>100</v>
+      </c>
+      <c r="E24" s="37" t="str">
+        <f>"1400"</f>
+        <v>1400</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/EconomicsSoftwareEngineering/Lab1.xlsx
+++ b/EconomicsSoftwareEngineering/Lab1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/2398768715qq.com/GitHub/ITMO-PE/EconomicsSoftwareEngineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74290B9E-1D5F-F24F-9152-273D8D29BD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F23FE5F-EC81-614D-B562-5A8F2F373BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22940" yWindow="1100" windowWidth="22940" windowHeight="28700" activeTab="1" xr2:uid="{343BDCF8-93BA-48B2-B1E2-DDA5B2F75838}"/>
+    <workbookView xWindow="22940" yWindow="1100" windowWidth="22940" windowHeight="28700" activeTab="2" xr2:uid="{343BDCF8-93BA-48B2-B1E2-DDA5B2F75838}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="215">
   <si>
     <t>Название</t>
   </si>
@@ -770,6 +770,15 @@
       </rPr>
       <t>сервер</t>
     </r>
+  </si>
+  <si>
+    <t>Главная страница</t>
+  </si>
+  <si>
+    <t>Центр поддержки</t>
+  </si>
+  <si>
+    <t>Разработка API</t>
   </si>
   <si>
     <t>开发网站的初步原型，设计主页、服务页面、产品页面等的用户体验与交互动画。</t>
@@ -1118,23 +1127,144 @@
     <t>№</t>
   </si>
   <si>
-    <t>Optimistic</t>
-  </si>
-  <si>
-    <t>Pessimistic</t>
-  </si>
-  <si>
-    <t>Optimal</t>
-  </si>
-  <si>
-    <t>(h)</t>
-  </si>
-  <si>
-    <t>Ei=(P_i+O_i+4M_i)/6</t>
+    <t>Оптимистичное время (часы)</t>
+  </si>
+  <si>
+    <t>Пессимистичное время (часы)</t>
+  </si>
+  <si>
+    <t>Лучшее время (часы)</t>
+  </si>
+  <si>
+    <t>Разработка начального прототипа сайта, проектирование пользовательского опыта и анимаций взаимодействия для главной страницы, страницы услуг, страницы продуктов и других разделов.</t>
+  </si>
+  <si>
+    <t>Выбор технологий</t>
+  </si>
+  <si>
+    <t>Определение технологического стека: использование ReactJS для динамического взаимодействия на фронтенде, Node.js и GraphQL для быстрого обработки данных на бэкенде, выбор PostgreSQL в качестве базы данных.</t>
+  </si>
+  <si>
+    <t>Разрешение на обработку данных</t>
+  </si>
+  <si>
+    <t>Ввиду работы с регистрацией пользователей и хранением данных необходимо получить разрешение на обработку данных и обеспечить соблюдение законодательных норм.</t>
+  </si>
+  <si>
+    <t>Настройка хостинга и домена</t>
+  </si>
+  <si>
+    <t>Определение оптимального хостинга и конфигурации домена с учетом производительности и стоимости.</t>
+  </si>
+  <si>
+    <t>Фронтенд</t>
+  </si>
+  <si>
+    <t>Адаптивный дизайн, отображение основных услуг, динамическая загрузка контента, оптимизация анимаций, акцент на ключевой информации.</t>
+  </si>
+  <si>
+    <t>Страница входа/регистрации</t>
+  </si>
+  <si>
+    <t>Динамическая валидация форм, адаптивный макет, поддержка двухфакторной аутентификации (2FA).</t>
+  </si>
+  <si>
+    <t>Страница услуг</t>
+  </si>
+  <si>
+    <t>Отображение различных облачных услуг Selectel, поддержка динамической фильтрации и отображения подробной информации.</t>
+  </si>
+  <si>
+    <t>Страница продуктов</t>
+  </si>
+  <si>
+    <t>Представление подробной информации о продуктах, включая технические параметры и калькуляцию стоимости.</t>
+  </si>
+  <si>
+    <t>Включает раздел часто задаваемых вопросов, форму отправки запросов и поддержку в реальном времени через чат.</t>
+  </si>
+  <si>
+    <t>Страница документации</t>
+  </si>
+  <si>
+    <t>Отображение технической документации с возможностью постраничного чтения и полнотекстового поиска.</t>
+  </si>
+  <si>
+    <t>Панель управления пользователем</t>
+  </si>
+  <si>
+    <t>Включает управление аккаунтом, историю заказов, мониторинг состояния услуг и устройств, поддержку пользовательской настройки.</t>
+  </si>
+  <si>
+    <t>Бэкенд</t>
+  </si>
+  <si>
+    <t>Проектирование и настройка базы данных</t>
+  </si>
+  <si>
+    <t>Создание структуры базы данных, включающей данные пользователей, заказы, состояние услуг и устройств, оптимизация индексов.</t>
+  </si>
+  <si>
+    <t>Аутентификация и управление правами доступа</t>
+  </si>
+  <si>
+    <t>Реализация логики входа, регистрации и управления правами доступа, поддержка различных ролей (обычные пользователи, администраторы).</t>
+  </si>
+  <si>
+    <t>Проектирование и разработка RESTful API для взаимодействия фронтенда и бэкенда.</t>
+  </si>
+  <si>
+    <t>Безопасность и шифрование данных</t>
+  </si>
+  <si>
+    <t>Реализация шифрования данных для хранения и обеспечение защищенной связи (например, через SSL/TLS).</t>
+  </si>
+  <si>
+    <t>Тестирование</t>
+  </si>
+  <si>
+    <t>Проверка надежности функциональности каждого модуля, обеспечение корректности логики фронтенда и бэкенда.</t>
+  </si>
+  <si>
+    <t>Проверка корректности взаимодействия между фронтендом, бэкендом и внешними сервисами.</t>
+  </si>
+  <si>
+    <t>Тестирование полных пользовательских сценариев, включая регистрацию, заказ услуг, просмотр документации и т. д.</t>
+  </si>
+  <si>
+    <t>Развертывание</t>
+  </si>
+  <si>
+    <t>Alpha и Beta тестирование</t>
+  </si>
+  <si>
+    <t>Проведение внутреннего тестирования и открытого тестирования основных функций, сбор обратной связи и оптимизация.</t>
+  </si>
+  <si>
+    <t>Настройка SSL-сертификата</t>
+  </si>
+  <si>
+    <t>Установка и настройка SSL-сертификата для работы сайта по протоколу HTTPS.</t>
+  </si>
+  <si>
+    <t>Развертывание сервера</t>
+  </si>
+  <si>
+    <t>Размещение кода на облачном сервере и выполнение необходимой конфигурации окружения.</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Optimistic (h)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>СКО_i=(P_i-O_i)/6</t>
+    <t>Pessimistic (h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimal (h)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1142,10 +1272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1233,22 +1360,29 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC1E4F5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1318,7 +1452,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1339,8 +1475,47 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1354,7 +1529,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1436,41 +1611,65 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2483,8 +2682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF919840-9214-4EC6-8269-5D4BE3F124DF}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2498,30 +2697,24 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A1" s="27" t="str">
-        <f>"№"</f>
-        <v>№</v>
-      </c>
-      <c r="B1" s="27" t="str">
-        <f>"Название"</f>
-        <v>Название</v>
-      </c>
-      <c r="C1" s="27" t="str">
-        <f>"Описание"</f>
-        <v>Описание</v>
-      </c>
-      <c r="D1" s="27" t="str">
-        <f>"Оптимистичное время (часы)"</f>
-        <v>Оптимистичное время (часы)</v>
-      </c>
-      <c r="E1" s="27" t="str">
-        <f>"Пессимистичное время (часы)"</f>
-        <v>Пессимистичное время (часы)</v>
-      </c>
-      <c r="F1" s="27" t="str">
-        <f>"Лучшее время (часы)"</f>
-        <v>Лучшее время (часы)</v>
+    <row r="1" spans="1:13" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A1" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>171</v>
       </c>
       <c r="H1" s="1" t="str">
         <f>"编号"</f>
@@ -2548,29 +2741,21 @@
         <v>最佳时间 (小时)</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
-      <c r="A2" s="27" t="str">
-        <f>"1"</f>
+    <row r="2" spans="1:13" ht="16" thickBot="1">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="str">
-        <f>"Подготовка"</f>
-        <v>Подготовка</v>
-      </c>
-      <c r="C2" s="27" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="D2" s="28" t="str">
-        <f>"200"</f>
+      <c r="B2" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34">
         <v>200</v>
       </c>
-      <c r="E2" s="28" t="str">
-        <f>"450"</f>
+      <c r="E2" s="34">
         <v>450</v>
       </c>
-      <c r="F2" s="28" t="str">
-        <f>"300"</f>
+      <c r="F2" s="34">
         <v>300</v>
       </c>
       <c r="H2" s="1" t="str">
@@ -2598,28 +2783,23 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="135">
-      <c r="A3" s="27" t="str">
-        <f>"1.1"</f>
-        <v>1.1</v>
-      </c>
-      <c r="B3" s="28" t="str">
-        <f>"Прототип сайта"</f>
-        <v>Прототип сайта</v>
-      </c>
-      <c r="C3" s="28" t="str">
-        <f>"Разработка начального прототипа сайта, проектирование пользовательского опыта и анимаций взаимодействия для главной страницы, страницы услуг, страницы продуктов и других разделов."</f>
-        <v>Разработка начального прототипа сайта, проектирование пользовательского опыта и анимаций взаимодействия для главной страницы, страницы услуг, страницы продуктов и других разделов.</v>
-      </c>
-      <c r="D3" s="28">
+    <row r="3" spans="1:13" ht="136" thickBot="1">
+      <c r="A3" s="31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="34">
         <v>50</v>
       </c>
-      <c r="E3" s="28" t="str">
-        <f>"100"</f>
+      <c r="E3" s="34">
         <v>100</v>
       </c>
-      <c r="F3" s="28" t="str">
-        <f>"70"</f>
+      <c r="F3" s="34">
         <v>70</v>
       </c>
       <c r="H3" s="1" t="str">
@@ -2631,7 +2811,7 @@
         <v>网站原型</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K3" s="1" t="str">
         <f>"50"</f>
@@ -2646,29 +2826,23 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="225">
-      <c r="A4" s="27" t="str">
-        <f>"1.2"</f>
+    <row r="4" spans="1:13" ht="226" thickBot="1">
+      <c r="A4" s="31">
         <v>1.2</v>
       </c>
-      <c r="B4" s="28" t="str">
-        <f>"Выбор технологий"</f>
-        <v>Выбор технологий</v>
-      </c>
-      <c r="C4" s="28" t="str">
-        <f>"Определение технологического стека: использование ReactJS для динамического взаимодействия на фронтенде, Node.js и GraphQL для быстрого обработки данных на бэкенде, выбор PostgreSQL в качестве базы данных."</f>
-        <v>Определение технологического стека: использование ReactJS для динамического взаимодействия на фронтенде, Node.js и GraphQL для быстрого обработки данных на бэкенде, выбор PostgreSQL в качестве базы данных.</v>
-      </c>
-      <c r="D4" s="28" t="str">
-        <f>"10"</f>
+      <c r="B4" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="34">
         <v>10</v>
       </c>
-      <c r="E4" s="28" t="str">
-        <f>"40"</f>
+      <c r="E4" s="34">
         <v>40</v>
       </c>
-      <c r="F4" s="28" t="str">
-        <f>"20"</f>
+      <c r="F4" s="34">
         <v>20</v>
       </c>
       <c r="H4" s="1" t="str">
@@ -2680,7 +2854,7 @@
         <v>技术选择</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K4" s="1" t="str">
         <f>"10"</f>
@@ -2695,29 +2869,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="150">
-      <c r="A5" s="27" t="str">
-        <f>"1.3"</f>
+    <row r="5" spans="1:13" ht="151" thickBot="1">
+      <c r="A5" s="31">
         <v>1.3</v>
       </c>
-      <c r="B5" s="28" t="str">
-        <f>"Разрешение на обработку данных"</f>
-        <v>Разрешение на обработку данных</v>
-      </c>
-      <c r="C5" s="28" t="str">
-        <f>"Ввиду работы с регистрацией пользователей и хранением данных необходимо получить разрешение на обработку данных и обеспечить соблюдение законодательных норм."</f>
-        <v>Ввиду работы с регистрацией пользователей и хранением данных необходимо получить разрешение на обработку данных и обеспечить соблюдение законодательных норм.</v>
-      </c>
-      <c r="D5" s="28" t="str">
-        <f>"100"</f>
+      <c r="B5" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="34">
         <v>100</v>
       </c>
-      <c r="E5" s="28" t="str">
-        <f>"250"</f>
+      <c r="E5" s="34">
         <v>250</v>
       </c>
-      <c r="F5" s="28" t="str">
-        <f>"150"</f>
+      <c r="F5" s="34">
         <v>150</v>
       </c>
       <c r="H5" s="1" t="str">
@@ -2729,7 +2897,7 @@
         <v>数据处理许可</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K5" s="1" t="str">
         <f>"100"</f>
@@ -2744,29 +2912,23 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="90">
-      <c r="A6" s="27" t="str">
-        <f>"1.4"</f>
+    <row r="6" spans="1:13" ht="91" thickBot="1">
+      <c r="A6" s="31">
         <v>1.4</v>
       </c>
-      <c r="B6" s="29" t="str">
-        <f>"Настройка хостинга и домена"</f>
-        <v>Настройка хостинга и домена</v>
-      </c>
-      <c r="C6" s="28" t="str">
-        <f>"Определение оптимального хостинга и конфигурации домена с учетом производительности и стоимости."</f>
-        <v>Определение оптимального хостинга и конфигурации домена с учетом производительности и стоимости.</v>
-      </c>
-      <c r="D6" s="28" t="str">
-        <f>"40"</f>
+      <c r="B6" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="34">
         <v>40</v>
       </c>
-      <c r="E6" s="28" t="str">
-        <f>"60"</f>
+      <c r="E6" s="34">
         <v>60</v>
       </c>
-      <c r="F6" s="28" t="str">
-        <f>"50"</f>
+      <c r="F6" s="34">
         <v>50</v>
       </c>
       <c r="H6" s="1" t="str">
@@ -2794,29 +2956,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15">
-      <c r="A7" s="27" t="str">
-        <f>"2"</f>
+    <row r="7" spans="1:13" ht="16" thickBot="1">
+      <c r="A7" s="31">
         <v>2</v>
       </c>
-      <c r="B7" s="27" t="str">
-        <f>"Фронтенд"</f>
-        <v>Фронтенд</v>
-      </c>
-      <c r="C7" s="27" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="D7" s="28" t="str">
-        <f>"300"</f>
+      <c r="B7" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34">
         <v>300</v>
       </c>
-      <c r="E7" s="28" t="str">
-        <f>"500"</f>
+      <c r="E7" s="34">
         <v>500</v>
       </c>
-      <c r="F7" s="28" t="str">
-        <f>"400"</f>
+      <c r="F7" s="34">
         <v>400</v>
       </c>
       <c r="H7" s="1" t="str">
@@ -2844,29 +2998,23 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="135">
-      <c r="A8" s="27" t="str">
-        <f>"2.1"</f>
+    <row r="8" spans="1:13" ht="136" thickBot="1">
+      <c r="A8" s="31">
         <v>2.1</v>
       </c>
-      <c r="B8" s="27" t="str">
-        <f>"Главная страница"</f>
-        <v>Главная страница</v>
-      </c>
-      <c r="C8" s="27" t="str">
-        <f>"Адаптивный дизайн, отображение основных услуг, динамическая загрузка контента, оптимизация анимаций, акцент на ключевой информации."</f>
-        <v>Адаптивный дизайн, отображение основных услуг, динамическая загрузка контента, оптимизация анимаций, акцент на ключевой информации.</v>
-      </c>
-      <c r="D8" s="28" t="str">
-        <f>"40"</f>
+      <c r="B8" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="34">
         <v>40</v>
       </c>
-      <c r="E8" s="28" t="str">
-        <f>"80"</f>
+      <c r="E8" s="34">
         <v>80</v>
       </c>
-      <c r="F8" s="28" t="str">
-        <f>"60"</f>
+      <c r="F8" s="34">
         <v>60</v>
       </c>
       <c r="H8" s="1" t="str">
@@ -2878,7 +3026,7 @@
         <v>主页</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K8" s="1" t="str">
         <f>"40"</f>
@@ -2893,29 +3041,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="75">
-      <c r="A9" s="27" t="str">
-        <f>"2.2"</f>
-        <v>2.2</v>
-      </c>
-      <c r="B9" s="28" t="str">
-        <f>"Страница входа/регистрации"</f>
-        <v>Страница входа/регистрации</v>
-      </c>
-      <c r="C9" s="28" t="str">
-        <f>"Динамическая валидация форм, адаптивный макет, поддержка двухфакторной аутентификации (2FA)."</f>
-        <v>Динамическая валидация форм, адаптивный макет, поддержка двухфакторной аутентификации (2FA).</v>
-      </c>
-      <c r="D9" s="28" t="str">
-        <f>"30"</f>
+    <row r="9" spans="1:13" ht="76" thickBot="1">
+      <c r="A9" s="31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="34">
         <v>30</v>
       </c>
-      <c r="E9" s="28" t="str">
-        <f>"50"</f>
+      <c r="E9" s="34">
         <v>50</v>
       </c>
-      <c r="F9" s="28" t="str">
-        <f>"40"</f>
+      <c r="F9" s="34">
         <v>40</v>
       </c>
       <c r="H9" s="1" t="str">
@@ -2927,7 +3069,7 @@
         <v>登录/注册</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K9" s="1" t="str">
         <f>"30"</f>
@@ -2942,29 +3084,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="120">
-      <c r="A10" s="27" t="str">
-        <f>"2.3"</f>
-        <v>2.3</v>
-      </c>
-      <c r="B10" s="28" t="str">
-        <f>"Страница услуг"</f>
-        <v>Страница услуг</v>
-      </c>
-      <c r="C10" s="28" t="str">
-        <f>"Отображение различных облачных услуг Selectel, поддержка динамической фильтрации и отображения подробной информации."</f>
-        <v>Отображение различных облачных услуг Selectel, поддержка динамической фильтрации и отображения подробной информации.</v>
-      </c>
-      <c r="D10" s="28" t="str">
-        <f>"50"</f>
+    <row r="10" spans="1:13" ht="121" thickBot="1">
+      <c r="A10" s="31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="34">
         <v>50</v>
       </c>
-      <c r="E10" s="28" t="str">
-        <f>"90"</f>
+      <c r="E10" s="34">
         <v>90</v>
       </c>
-      <c r="F10" s="28" t="str">
-        <f>"70"</f>
+      <c r="F10" s="34">
         <v>70</v>
       </c>
       <c r="H10" s="1" t="str">
@@ -2976,7 +3112,7 @@
         <v>服务页面</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K10" s="1" t="str">
         <f>"50"</f>
@@ -2991,29 +3127,23 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="105">
-      <c r="A11" s="27" t="str">
-        <f>"2.4"</f>
+    <row r="11" spans="1:13" ht="106" thickBot="1">
+      <c r="A11" s="31">
         <v>2.4</v>
       </c>
-      <c r="B11" s="28" t="str">
-        <f>"Страница продуктов"</f>
-        <v>Страница продуктов</v>
-      </c>
-      <c r="C11" s="28" t="str">
-        <f>"Представление подробной информации о продуктах, включая технические параметры и калькуляцию стоимости."</f>
-        <v>Представление подробной информации о продуктах, включая технические параметры и калькуляцию стоимости.</v>
-      </c>
-      <c r="D11" s="28" t="str">
-        <f>"50"</f>
+      <c r="B11" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="34">
         <v>50</v>
       </c>
-      <c r="E11" s="28" t="str">
-        <f>"100"</f>
+      <c r="E11" s="34">
         <v>100</v>
       </c>
-      <c r="F11" s="28" t="str">
-        <f>"75"</f>
+      <c r="F11" s="34">
         <v>75</v>
       </c>
       <c r="H11" s="1" t="str">
@@ -3025,7 +3155,7 @@
         <v>产品页面</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K11" s="1" t="str">
         <f>"50"</f>
@@ -3040,29 +3170,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="90">
-      <c r="A12" s="27" t="str">
-        <f>"2.5"</f>
+    <row r="12" spans="1:13" ht="91" thickBot="1">
+      <c r="A12" s="31">
         <v>2.5</v>
       </c>
-      <c r="B12" s="28" t="str">
-        <f>"Центр поддержки"</f>
-        <v>Центр поддержки</v>
-      </c>
-      <c r="C12" s="28" t="str">
-        <f>"Включает раздел часто задаваемых вопросов, форму отправки запросов и поддержку в реальном времени через чат."</f>
-        <v>Включает раздел часто задаваемых вопросов, форму отправки запросов и поддержку в реальном времени через чат.</v>
-      </c>
-      <c r="D12" s="28" t="str">
-        <f>"40"</f>
+      <c r="B12" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="34">
         <v>40</v>
       </c>
-      <c r="E12" s="28" t="str">
-        <f>"80"</f>
+      <c r="E12" s="34">
         <v>80</v>
       </c>
-      <c r="F12" s="28" t="str">
-        <f>"60"</f>
+      <c r="F12" s="34">
         <v>60</v>
       </c>
       <c r="H12" s="1" t="str">
@@ -3074,7 +3198,7 @@
         <v>支持中心</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K12" s="1" t="str">
         <f>"40"</f>
@@ -3089,29 +3213,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="90">
-      <c r="A13" s="27" t="str">
-        <f>"2.6"</f>
+    <row r="13" spans="1:13" ht="91" thickBot="1">
+      <c r="A13" s="31">
         <v>2.6</v>
       </c>
-      <c r="B13" s="27" t="str">
-        <f>"Страница документации"</f>
-        <v>Страница документации</v>
-      </c>
-      <c r="C13" s="27" t="str">
-        <f>"Отображение технической документации с возможностью постраничного чтения и полнотекстового поиска."</f>
-        <v>Отображение технической документации с возможностью постраничного чтения и полнотекстового поиска.</v>
-      </c>
-      <c r="D13" s="28" t="str">
-        <f>"30"</f>
+      <c r="B13" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="34">
         <v>30</v>
       </c>
-      <c r="E13" s="28" t="str">
-        <f>"60"</f>
+      <c r="E13" s="34">
         <v>60</v>
       </c>
-      <c r="F13" s="28" t="str">
-        <f>"45"</f>
+      <c r="F13" s="34">
         <v>45</v>
       </c>
       <c r="H13" s="1" t="str">
@@ -3123,7 +3241,7 @@
         <v>文档页面</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K13" s="1" t="str">
         <f>"30"</f>
@@ -3138,29 +3256,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="120">
-      <c r="A14" s="27" t="str">
-        <f>"2.7"</f>
+    <row r="14" spans="1:13" ht="121" thickBot="1">
+      <c r="A14" s="31">
         <v>2.7</v>
       </c>
-      <c r="B14" s="28" t="str">
-        <f>"Панель управления пользователем"</f>
-        <v>Панель управления пользователем</v>
-      </c>
-      <c r="C14" s="28" t="str">
-        <f>"Включает управление аккаунтом, историю заказов, мониторинг состояния услуг и устройств, поддержку пользовательской настройки."</f>
-        <v>Включает управление аккаунтом, историю заказов, мониторинг состояния услуг и устройств, поддержку пользовательской настройки.</v>
-      </c>
-      <c r="D14" s="28" t="str">
-        <f>"60"</f>
+      <c r="B14" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="34">
         <v>60</v>
       </c>
-      <c r="E14" s="28" t="str">
-        <f>"120"</f>
+      <c r="E14" s="34">
         <v>120</v>
       </c>
-      <c r="F14" s="28" t="str">
-        <f>"90"</f>
+      <c r="F14" s="34">
         <v>90</v>
       </c>
       <c r="H14" s="1" t="str">
@@ -3172,7 +3284,7 @@
         <v>用户控制面板</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K14" s="1" t="str">
         <f>"60"</f>
@@ -3187,29 +3299,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15">
-      <c r="A15" s="27" t="str">
-        <f>"3"</f>
+    <row r="15" spans="1:13" ht="16" thickBot="1">
+      <c r="A15" s="31">
         <v>3</v>
       </c>
-      <c r="B15" s="28" t="str">
-        <f>"Бэкенд"</f>
-        <v>Бэкенд</v>
-      </c>
-      <c r="C15" s="28" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="D15" s="28" t="str">
-        <f>"250"</f>
+      <c r="B15" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="34">
         <v>250</v>
       </c>
-      <c r="E15" s="28" t="str">
-        <f>"450"</f>
+      <c r="E15" s="34">
         <v>450</v>
       </c>
-      <c r="F15" s="28" t="str">
-        <f>"350"</f>
+      <c r="F15" s="34">
         <v>350</v>
       </c>
       <c r="H15" s="1" t="str">
@@ -3237,29 +3341,23 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="135">
-      <c r="A16" s="27" t="str">
-        <f>"3.1"</f>
+    <row r="16" spans="1:13" ht="136" thickBot="1">
+      <c r="A16" s="31">
         <v>3.1</v>
       </c>
-      <c r="B16" s="28" t="str">
-        <f>"Проектирование и настройка базы данных"</f>
-        <v>Проектирование и настройка базы данных</v>
-      </c>
-      <c r="C16" s="28" t="str">
-        <f>"Создание структуры базы данных, включающей данные пользователей, заказы, состояние услуг и устройств, оптимизация индексов."</f>
-        <v>Создание структуры базы данных, включающей данные пользователей, заказы, состояние услуг и устройств, оптимизация индексов.</v>
-      </c>
-      <c r="D16" s="28" t="str">
-        <f>"60"</f>
+      <c r="B16" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="34">
         <v>60</v>
       </c>
-      <c r="E16" s="28" t="str">
-        <f>"120"</f>
+      <c r="E16" s="34">
         <v>120</v>
       </c>
-      <c r="F16" s="28" t="str">
-        <f>"90"</f>
+      <c r="F16" s="34">
         <v>90</v>
       </c>
       <c r="H16" s="1" t="str">
@@ -3271,7 +3369,7 @@
         <v>数据库设计与配置</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K16" s="1" t="str">
         <f>"60"</f>
@@ -3286,29 +3384,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="135">
-      <c r="A17" s="27" t="str">
-        <f>"3.2"</f>
+    <row r="17" spans="1:13" ht="136" thickBot="1">
+      <c r="A17" s="31">
         <v>3.2</v>
       </c>
-      <c r="B17" s="28" t="str">
-        <f>"Аутентификация и управление правами доступа"</f>
-        <v>Аутентификация и управление правами доступа</v>
-      </c>
-      <c r="C17" s="28" t="str">
-        <f>"Реализация логики входа, регистрации и управления правами доступа, поддержка различных ролей (обычные пользователи, администраторы)."</f>
-        <v>Реализация логики входа, регистрации и управления правами доступа, поддержка различных ролей (обычные пользователи, администраторы).</v>
-      </c>
-      <c r="D17" s="28" t="str">
-        <f>"40"</f>
+      <c r="B17" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="34">
         <v>40</v>
       </c>
-      <c r="E17" s="28" t="str">
-        <f>"80"</f>
+      <c r="E17" s="34">
         <v>80</v>
       </c>
-      <c r="F17" s="28" t="str">
-        <f>"60"</f>
+      <c r="F17" s="34">
         <v>60</v>
       </c>
       <c r="H17" s="1" t="str">
@@ -3320,7 +3412,7 @@
         <v>用户认证与权限管理</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K17" s="1" t="str">
         <f>"40"</f>
@@ -3335,29 +3427,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="105">
-      <c r="A18" s="27" t="str">
-        <f>"3.3"</f>
+    <row r="18" spans="1:13" ht="106" thickBot="1">
+      <c r="A18" s="31">
         <v>3.3</v>
       </c>
-      <c r="B18" s="27" t="str">
-        <f>"Разработка API"</f>
-        <v>Разработка API</v>
-      </c>
-      <c r="C18" s="27" t="str">
-        <f>"Проектирование и разработка RESTful API для взаимодействия фронтенда и бэкенда."</f>
-        <v>Проектирование и разработка RESTful API для взаимодействия фронтенда и бэкенда.</v>
-      </c>
-      <c r="D18" s="28" t="str">
-        <f>"80"</f>
+      <c r="B18" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="34">
         <v>80</v>
       </c>
-      <c r="E18" s="28" t="str">
-        <f>"150"</f>
+      <c r="E18" s="34">
         <v>150</v>
       </c>
-      <c r="F18" s="28" t="str">
-        <f>"100"</f>
+      <c r="F18" s="34">
         <v>100</v>
       </c>
       <c r="H18" s="1" t="str">
@@ -3369,7 +3455,7 @@
         <v>服务接口开发</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K18" s="1" t="str">
         <f>"80"</f>
@@ -3384,29 +3470,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="90">
-      <c r="A19" s="27" t="str">
-        <f>"3.4"</f>
+    <row r="19" spans="1:13" ht="91" thickBot="1">
+      <c r="A19" s="31">
         <v>3.4</v>
       </c>
-      <c r="B19" s="28" t="str">
-        <f>"Безопасность и шифрование данных"</f>
-        <v>Безопасность и шифрование данных</v>
-      </c>
-      <c r="C19" s="28" t="str">
-        <f>"Реализация шифрования данных для хранения и обеспечение защищенной связи (например, через SSL/TLS)."</f>
-        <v>Реализация шифрования данных для хранения и обеспечение защищенной связи (например, через SSL/TLS).</v>
-      </c>
-      <c r="D19" s="28" t="str">
-        <f>"40"</f>
+      <c r="B19" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="34">
         <v>40</v>
       </c>
-      <c r="E19" s="28" t="str">
-        <f>"80"</f>
+      <c r="E19" s="34">
         <v>80</v>
       </c>
-      <c r="F19" s="28" t="str">
-        <f>"60"</f>
+      <c r="F19" s="34">
         <v>60</v>
       </c>
       <c r="H19" s="1" t="str">
@@ -3418,7 +3498,7 @@
         <v>数据安全与加密</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K19" s="1" t="str">
         <f>"40"</f>
@@ -3433,29 +3513,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15">
-      <c r="A20" s="27" t="str">
-        <f>"4"</f>
+    <row r="20" spans="1:13" ht="16" thickBot="1">
+      <c r="A20" s="31">
         <v>4</v>
       </c>
-      <c r="B20" s="27" t="str">
-        <f>"Тестирование"</f>
-        <v>Тестирование</v>
-      </c>
-      <c r="C20" s="27" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="D20" s="28" t="str">
-        <f>"150"</f>
+      <c r="B20" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34">
         <v>150</v>
       </c>
-      <c r="E20" s="28" t="str">
-        <f>"300"</f>
+      <c r="E20" s="34">
         <v>300</v>
       </c>
-      <c r="F20" s="28" t="str">
-        <f>"200"</f>
+      <c r="F20" s="34">
         <v>200</v>
       </c>
       <c r="H20" s="1" t="str">
@@ -3483,29 +3555,23 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="105">
-      <c r="A21" s="27" t="str">
-        <f>"4.1"</f>
-        <v>4.1</v>
-      </c>
-      <c r="B21" s="28" t="str">
-        <f>"Модульное тестирование"</f>
-        <v>Модульное тестирование</v>
-      </c>
-      <c r="C21" s="28" t="str">
-        <f>"Проверка надежности функциональности каждого модуля, обеспечение корректности логики фронтенда и бэкенда."</f>
-        <v>Проверка надежности функциональности каждого модуля, обеспечение корректности логики фронтенда и бэкенда.</v>
-      </c>
-      <c r="D21" s="28" t="str">
-        <f>"50"</f>
+    <row r="21" spans="1:13" ht="106" thickBot="1">
+      <c r="A21" s="31">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="34">
         <v>50</v>
       </c>
-      <c r="E21" s="28" t="str">
-        <f>"100"</f>
+      <c r="E21" s="34">
         <v>100</v>
       </c>
-      <c r="F21" s="28" t="str">
-        <f>"75"</f>
+      <c r="F21" s="34">
         <v>75</v>
       </c>
       <c r="H21" s="1" t="str">
@@ -3517,7 +3583,7 @@
         <v>单元测试</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K21" s="1" t="str">
         <f>"50"</f>
@@ -3532,29 +3598,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="75">
-      <c r="A22" s="27" t="str">
-        <f>"4.2"</f>
+    <row r="22" spans="1:13" ht="76" thickBot="1">
+      <c r="A22" s="31">
         <v>4.2</v>
       </c>
-      <c r="B22" s="28" t="str">
-        <f>"Интеграционное тестирование"</f>
-        <v>Интеграционное тестирование</v>
-      </c>
-      <c r="C22" s="28" t="str">
-        <f>"Проверка корректности взаимодействия между фронтендом, бэкендом и внешними сервисами."</f>
-        <v>Проверка корректности взаимодействия между фронтендом, бэкендом и внешними сервисами.</v>
-      </c>
-      <c r="D22" s="28" t="str">
-        <f>"40"</f>
+      <c r="B22" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="34">
         <v>40</v>
       </c>
-      <c r="E22" s="28" t="str">
-        <f>"80"</f>
+      <c r="E22" s="34">
         <v>80</v>
       </c>
-      <c r="F22" s="28" t="str">
-        <f>"60"</f>
+      <c r="F22" s="34">
         <v>60</v>
       </c>
       <c r="H22" s="1" t="str">
@@ -3566,7 +3626,7 @@
         <v>集成测试</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K22" s="1" t="str">
         <f>"40"</f>
@@ -3581,29 +3641,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="105">
-      <c r="A23" s="27" t="str">
-        <f>"4.3"</f>
+    <row r="23" spans="1:13" ht="106" thickBot="1">
+      <c r="A23" s="31">
         <v>4.3</v>
       </c>
-      <c r="B23" s="28" t="str">
-        <f>"Функциональное тестирование"</f>
-        <v>Функциональное тестирование</v>
-      </c>
-      <c r="C23" s="28" t="str">
-        <f>"Тестирование полных пользовательских сценариев, включая регистрацию, заказ услуг, просмотр документации и т. д."</f>
-        <v>Тестирование полных пользовательских сценариев, включая регистрацию, заказ услуг, просмотр документации и т. д.</v>
-      </c>
-      <c r="D23" s="28" t="str">
-        <f>"60"</f>
+      <c r="B23" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="34">
         <v>60</v>
       </c>
-      <c r="E23" s="28" t="str">
-        <f>"120"</f>
+      <c r="E23" s="34">
         <v>120</v>
       </c>
-      <c r="F23" s="28" t="str">
-        <f>"90"</f>
+      <c r="F23" s="34">
         <v>90</v>
       </c>
       <c r="H23" s="1" t="str">
@@ -3615,7 +3669,7 @@
         <v>功能测试</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K23" s="1" t="str">
         <f>"60"</f>
@@ -3630,29 +3684,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15">
-      <c r="A24" s="27" t="str">
-        <f>"5"</f>
+    <row r="24" spans="1:13" ht="16" thickBot="1">
+      <c r="A24" s="31">
         <v>5</v>
       </c>
-      <c r="B24" s="28" t="str">
-        <f>"Развертывание"</f>
-        <v>Развертывание</v>
-      </c>
-      <c r="C24" s="28" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="D24" s="28" t="str">
-        <f>"100"</f>
+      <c r="B24" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="34">
         <v>100</v>
       </c>
-      <c r="E24" s="28" t="str">
-        <f>"200"</f>
+      <c r="E24" s="34">
         <v>200</v>
       </c>
-      <c r="F24" s="28" t="str">
-        <f>"150"</f>
+      <c r="F24" s="34">
         <v>150</v>
       </c>
       <c r="H24" s="1" t="str">
@@ -3680,29 +3726,23 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="105">
-      <c r="A25" s="27" t="str">
-        <f>"5.1"</f>
-        <v>5.1</v>
-      </c>
-      <c r="B25" s="28" t="str">
-        <f>"Alpha и Beta тестирование"</f>
-        <v>Alpha и Beta тестирование</v>
-      </c>
-      <c r="C25" s="28" t="str">
-        <f>"Проведение внутреннего тестирования и открытого тестирования основных функций, сбор обратной связи и оптимизация."</f>
-        <v>Проведение внутреннего тестирования и открытого тестирования основных функций, сбор обратной связи и оптимизация.</v>
-      </c>
-      <c r="D25" s="28" t="str">
-        <f>"50"</f>
+    <row r="25" spans="1:13" ht="106" thickBot="1">
+      <c r="A25" s="31">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="34">
         <v>50</v>
       </c>
-      <c r="E25" s="28" t="str">
-        <f>"100"</f>
+      <c r="E25" s="34">
         <v>100</v>
       </c>
-      <c r="F25" s="28" t="str">
-        <f>"75"</f>
+      <c r="F25" s="34">
         <v>75</v>
       </c>
       <c r="H25" s="1" t="str">
@@ -3714,7 +3754,7 @@
         <v>Alpha和Beta测试</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K25" s="1" t="str">
         <f>"50"</f>
@@ -3729,29 +3769,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="90">
-      <c r="A26" s="27" t="str">
-        <f>"5.2"</f>
+    <row r="26" spans="1:13" ht="91" thickBot="1">
+      <c r="A26" s="31">
         <v>5.2</v>
       </c>
-      <c r="B26" s="28" t="str">
-        <f>"Настройка SSL-сертификата"</f>
-        <v>Настройка SSL-сертификата</v>
-      </c>
-      <c r="C26" s="28" t="str">
-        <f>"Установка и настройка SSL-сертификата для работы сайта по протоколу HTTPS."</f>
-        <v>Установка и настройка SSL-сертификата для работы сайта по протоколу HTTPS.</v>
-      </c>
-      <c r="D26" s="28" t="str">
-        <f>"10"</f>
+      <c r="B26" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="34">
         <v>10</v>
       </c>
-      <c r="E26" s="28" t="str">
-        <f>"20"</f>
+      <c r="E26" s="34">
         <v>20</v>
       </c>
-      <c r="F26" s="28" t="str">
-        <f>"15"</f>
+      <c r="F26" s="34">
         <v>15</v>
       </c>
       <c r="H26" s="1" t="str">
@@ -3763,7 +3797,7 @@
         <v>SSL证书配置</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K26" s="1" t="str">
         <f>"10"</f>
@@ -3778,29 +3812,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="90">
-      <c r="A27" s="27" t="str">
-        <f>"5.3"</f>
+    <row r="27" spans="1:13" ht="91" thickBot="1">
+      <c r="A27" s="31">
         <v>5.3</v>
       </c>
-      <c r="B27" s="28" t="str">
-        <f>"Развертывание сервера"</f>
-        <v>Развертывание сервера</v>
-      </c>
-      <c r="C27" s="28" t="str">
-        <f>"Размещение кода на облачном сервере и выполнение необходимой конфигурации окружения."</f>
-        <v>Размещение кода на облачном сервере и выполнение необходимой конфигурации окружения.</v>
-      </c>
-      <c r="D27" s="28" t="str">
-        <f>"30"</f>
+      <c r="B27" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="34">
         <v>30</v>
       </c>
-      <c r="E27" s="28" t="str">
-        <f>"60"</f>
+      <c r="E27" s="34">
         <v>60</v>
       </c>
-      <c r="F27" s="28" t="str">
-        <f>"45"</f>
+      <c r="F27" s="34">
         <v>45</v>
       </c>
       <c r="H27" s="1" t="str">
@@ -3812,7 +3840,7 @@
         <v>服务器部署</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K27" s="1" t="str">
         <f>"30"</f>
@@ -3827,29 +3855,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15">
-      <c r="A28" s="27" t="str">
-        <f>"Z"</f>
-        <v>Z</v>
-      </c>
-      <c r="B28" s="28" t="str">
-        <f>"Итого"</f>
-        <v>Итого</v>
-      </c>
-      <c r="C28" s="28" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-      <c r="D28" s="28" t="str">
-        <f>"1000"</f>
+    <row r="28" spans="1:13" ht="16" thickBot="1">
+      <c r="A28" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="34">
         <v>1000</v>
       </c>
-      <c r="E28" s="28" t="str">
-        <f>"1950"</f>
+      <c r="E28" s="34">
         <v>1950</v>
       </c>
-      <c r="F28" s="28" t="str">
-        <f>"1400"</f>
+      <c r="F28" s="34">
         <v>1400</v>
       </c>
       <c r="H28" s="1" t="str">
@@ -3885,10 +3905,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E0DD2C-E896-F14F-9EB7-F7E140FCF726}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="A1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3902,694 +3922,1133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="3" spans="1:7" ht="16">
-      <c r="A3" s="14" t="str">
-        <f>"1.1"</f>
-        <v>1.1</v>
-      </c>
-      <c r="B3" s="14" t="str">
-        <f>"Прототип сайта"</f>
-        <v>Прототип сайта</v>
-      </c>
-      <c r="C3" s="37">
+      <c r="C1" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39">
         <v>50</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="39">
         <v>100</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="39">
         <v>70</v>
       </c>
-      <c r="F3" s="38">
-        <f>(C3+D3+4*E3)/6</f>
-        <v>71.666666666666671</v>
-      </c>
-      <c r="G3" s="38">
+      <c r="F3" s="40">
+        <f>(C3+D3+6*E3)/6</f>
+        <v>95</v>
+      </c>
+      <c r="G3" s="41">
         <f>(C3+D3)/6</f>
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16">
-      <c r="A4" s="14" t="str">
-        <f>"1.2"</f>
+    <row r="4" spans="1:7">
+      <c r="A4" s="37">
         <v>1.2</v>
       </c>
-      <c r="B4" s="14" t="str">
-        <f>"Выбор технологий"</f>
-        <v>Выбор технологий</v>
-      </c>
-      <c r="C4" s="37">
+      <c r="B4" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="39">
         <v>10</v>
       </c>
-      <c r="D4" s="36" t="str">
-        <f>"40"</f>
+      <c r="D4" s="39">
         <v>40</v>
       </c>
-      <c r="E4" s="37" t="str">
-        <f>"20"</f>
+      <c r="E4" s="39">
         <v>20</v>
       </c>
-      <c r="F4" s="38">
-        <f t="shared" ref="F4:F23" si="0">(C4+D4+4*E4)/6</f>
-        <v>21.666666666666668</v>
-      </c>
-      <c r="G4" s="38">
+      <c r="F4" s="40">
+        <f t="shared" ref="F4:F23" si="0">(C4+D4+6*E4)/6</f>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="G4" s="41">
         <f t="shared" ref="G4:G23" si="1">(C4+D4)/6</f>
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16">
-      <c r="A5" s="14" t="str">
-        <f>"1.3"</f>
+    <row r="5" spans="1:7">
+      <c r="A5" s="37">
         <v>1.3</v>
       </c>
-      <c r="B5" s="14" t="str">
-        <f>"Разрешение на обработку данных"</f>
-        <v>Разрешение на обработку данных</v>
-      </c>
-      <c r="C5" s="37">
+      <c r="B5" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="39">
         <v>100</v>
       </c>
-      <c r="D5" s="36" t="str">
-        <f>"250"</f>
+      <c r="D5" s="39">
         <v>250</v>
       </c>
-      <c r="E5" s="37" t="str">
-        <f>"150"</f>
+      <c r="E5" s="39">
         <v>150</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="40">
         <f t="shared" si="0"/>
-        <v>158.33333333333334</v>
-      </c>
-      <c r="G5" s="38">
+        <v>208.33333333333334</v>
+      </c>
+      <c r="G5" s="41">
         <f t="shared" si="1"/>
         <v>58.333333333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16">
-      <c r="A6" s="14" t="str">
-        <f>"1.4"</f>
+    <row r="6" spans="1:7">
+      <c r="A6" s="37">
         <v>1.4</v>
       </c>
-      <c r="B6" s="14" t="str">
-        <f>"Настройка хостинга и домена"</f>
-        <v>Настройка хостинга и домена</v>
-      </c>
-      <c r="C6" s="37">
+      <c r="B6" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="39">
         <v>40</v>
       </c>
-      <c r="D6" s="36" t="str">
-        <f>"60"</f>
+      <c r="D6" s="39">
         <v>60</v>
       </c>
-      <c r="E6" s="37" t="str">
-        <f>"50"</f>
+      <c r="E6" s="39">
         <v>50</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="40">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G6" s="38">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="G6" s="41">
         <f t="shared" si="1"/>
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16">
-      <c r="A7" s="14" t="str">
-        <f>"2.1"</f>
+    <row r="7" spans="1:7">
+      <c r="A7" s="37">
         <v>2.1</v>
       </c>
-      <c r="B7" s="14" t="str">
-        <f>"Главная страница"</f>
-        <v>Главная страница</v>
-      </c>
-      <c r="C7" s="37">
+      <c r="B7" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="39">
         <v>40</v>
       </c>
-      <c r="D7" s="36" t="str">
-        <f>"80"</f>
+      <c r="D7" s="39">
         <v>80</v>
       </c>
-      <c r="E7" s="37" t="str">
-        <f>"60"</f>
+      <c r="E7" s="39">
         <v>60</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="40">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G7" s="41">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="39">
+        <v>30</v>
+      </c>
+      <c r="D8" s="39">
+        <v>50</v>
+      </c>
+      <c r="E8" s="39">
+        <v>40</v>
+      </c>
+      <c r="F8" s="40">
+        <f t="shared" si="0"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="G8" s="41">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="37">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="39">
+        <v>50</v>
+      </c>
+      <c r="D9" s="39">
+        <v>90</v>
+      </c>
+      <c r="E9" s="39">
+        <v>70</v>
+      </c>
+      <c r="F9" s="40">
+        <f t="shared" si="0"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="G9" s="41">
+        <f t="shared" si="1"/>
+        <v>23.333333333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="37">
+        <v>2.4</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="39">
+        <v>50</v>
+      </c>
+      <c r="D10" s="39">
+        <v>100</v>
+      </c>
+      <c r="E10" s="39">
+        <v>75</v>
+      </c>
+      <c r="F10" s="40">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G10" s="41">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="39">
+        <v>40</v>
+      </c>
+      <c r="D11" s="39">
+        <v>80</v>
+      </c>
+      <c r="E11" s="39">
+        <v>60</v>
+      </c>
+      <c r="F11" s="40">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G11" s="41">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="37">
+        <v>2.6</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="39">
+        <v>30</v>
+      </c>
+      <c r="D12" s="39">
+        <v>60</v>
+      </c>
+      <c r="E12" s="39">
+        <v>45</v>
+      </c>
+      <c r="F12" s="40">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G12" s="41">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="37">
+        <v>2.7</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="39">
+        <v>60</v>
+      </c>
+      <c r="D13" s="39">
+        <v>120</v>
+      </c>
+      <c r="E13" s="39">
+        <v>90</v>
+      </c>
+      <c r="F13" s="40">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G13" s="41">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="37">
+        <v>3.1</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="39">
+        <v>60</v>
+      </c>
+      <c r="D14" s="39">
+        <v>120</v>
+      </c>
+      <c r="E14" s="39">
+        <v>90</v>
+      </c>
+      <c r="F14" s="40">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G14" s="41">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="37">
+        <v>3.2</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="39">
+        <v>40</v>
+      </c>
+      <c r="D15" s="39">
+        <v>80</v>
+      </c>
+      <c r="E15" s="39">
+        <v>60</v>
+      </c>
+      <c r="F15" s="40">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G15" s="41">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16">
-      <c r="A8" s="14" t="str">
-        <f>"2.2"</f>
-        <v>2.2</v>
-      </c>
-      <c r="B8" s="14" t="str">
-        <f>"Страница входа/регистрации"</f>
-        <v>Страница входа/регистрации</v>
-      </c>
-      <c r="C8" s="37" t="str">
-        <f>"30"</f>
-        <v>30</v>
-      </c>
-      <c r="D8" s="36" t="str">
-        <f>"50"</f>
+    <row r="16" spans="1:7">
+      <c r="A16" s="37">
+        <v>3.3</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="39">
+        <v>80</v>
+      </c>
+      <c r="D16" s="39">
+        <v>150</v>
+      </c>
+      <c r="E16" s="39">
+        <v>100</v>
+      </c>
+      <c r="F16" s="40">
+        <f t="shared" si="0"/>
+        <v>138.33333333333334</v>
+      </c>
+      <c r="G16" s="41">
+        <f t="shared" si="1"/>
+        <v>38.333333333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="37">
+        <v>3.4</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="39">
+        <v>40</v>
+      </c>
+      <c r="D17" s="39">
+        <v>80</v>
+      </c>
+      <c r="E17" s="39">
+        <v>60</v>
+      </c>
+      <c r="F17" s="40">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G17" s="41">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="37">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="39">
         <v>50</v>
       </c>
-      <c r="E8" s="37" t="str">
-        <f>"40"</f>
-        <v>40</v>
-      </c>
-      <c r="F8" s="38">
+      <c r="D18" s="39">
+        <v>100</v>
+      </c>
+      <c r="E18" s="39">
+        <v>75</v>
+      </c>
+      <c r="F18" s="40">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G8" s="38">
-        <f t="shared" si="1"/>
-        <v>13.333333333333334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16">
-      <c r="A9" s="14" t="str">
-        <f>"2.3"</f>
-        <v>2.3</v>
-      </c>
-      <c r="B9" s="14" t="str">
-        <f>"Страница услуг"</f>
-        <v>Страница услуг</v>
-      </c>
-      <c r="C9" s="37" t="str">
-        <f>"50"</f>
-        <v>50</v>
-      </c>
-      <c r="D9" s="36" t="str">
-        <f>"90"</f>
-        <v>90</v>
-      </c>
-      <c r="E9" s="37" t="str">
-        <f>"70"</f>
-        <v>70</v>
-      </c>
-      <c r="F9" s="38">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="G9" s="38">
-        <f t="shared" si="1"/>
-        <v>23.333333333333332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16">
-      <c r="A10" s="14" t="str">
-        <f>"2.4"</f>
-        <v>2.4</v>
-      </c>
-      <c r="B10" s="14" t="str">
-        <f>"Страница продуктов"</f>
-        <v>Страница продуктов</v>
-      </c>
-      <c r="C10" s="37" t="str">
-        <f>"50"</f>
-        <v>50</v>
-      </c>
-      <c r="D10" s="36" t="str">
-        <f>"100"</f>
         <v>100</v>
       </c>
-      <c r="E10" s="37" t="str">
-        <f>"75"</f>
-        <v>75</v>
-      </c>
-      <c r="F10" s="38">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="G10" s="38">
+      <c r="G18" s="41">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16">
-      <c r="A11" s="14" t="str">
-        <f>"2.5"</f>
-        <v>2.5</v>
-      </c>
-      <c r="B11" s="14" t="str">
-        <f>"Центр поддержки"</f>
-        <v>Центр поддержки</v>
-      </c>
-      <c r="C11" s="37" t="str">
-        <f>"40"</f>
+    <row r="19" spans="1:7">
+      <c r="A19" s="37">
+        <v>4.2</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="39">
         <v>40</v>
       </c>
-      <c r="D11" s="36" t="str">
-        <f>"80"</f>
+      <c r="D19" s="39">
         <v>80</v>
       </c>
-      <c r="E11" s="37" t="str">
-        <f>"60"</f>
+      <c r="E19" s="39">
         <v>60</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F19" s="40">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G19" s="41">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="37">
+        <v>4.3</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="39">
+        <v>60</v>
+      </c>
+      <c r="D20" s="39">
+        <v>120</v>
+      </c>
+      <c r="E20" s="39">
+        <v>90</v>
+      </c>
+      <c r="F20" s="40">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G20" s="41">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="37">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="39">
+        <v>50</v>
+      </c>
+      <c r="D21" s="39">
+        <v>100</v>
+      </c>
+      <c r="E21" s="39">
+        <v>75</v>
+      </c>
+      <c r="F21" s="40">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G21" s="41">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="37">
+        <v>5.2</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="39">
+        <v>10</v>
+      </c>
+      <c r="D22" s="39">
+        <v>20</v>
+      </c>
+      <c r="E22" s="39">
+        <v>15</v>
+      </c>
+      <c r="F22" s="40">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G22" s="41">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="37">
+        <v>5.3</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="39">
+        <v>30</v>
+      </c>
+      <c r="D23" s="39">
+        <v>60</v>
+      </c>
+      <c r="E23" s="39">
+        <v>45</v>
+      </c>
+      <c r="F23" s="40">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G11" s="38">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16">
-      <c r="A12" s="14" t="str">
-        <f>"2.6"</f>
-        <v>2.6</v>
-      </c>
-      <c r="B12" s="14" t="str">
-        <f>"Страница документации"</f>
-        <v>Страница документации</v>
-      </c>
-      <c r="C12" s="37" t="str">
-        <f>"30"</f>
-        <v>30</v>
-      </c>
-      <c r="D12" s="36" t="str">
-        <f>"60"</f>
-        <v>60</v>
-      </c>
-      <c r="E12" s="37" t="str">
-        <f>"45"</f>
-        <v>45</v>
-      </c>
-      <c r="F12" s="38">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="G12" s="38">
+      <c r="G23" s="41">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16">
-      <c r="A13" s="14" t="str">
-        <f>"2.7"</f>
+    <row r="24" spans="1:7">
+      <c r="F24" s="28">
+        <f>SUM(F37:F57)</f>
+        <v>1883.3333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="42"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="39">
+        <v>50</v>
+      </c>
+      <c r="D37" s="39">
+        <v>100</v>
+      </c>
+      <c r="E37" s="39">
+        <v>70</v>
+      </c>
+      <c r="F37" s="40">
+        <f>(C37+D37+6*E37)/6</f>
+        <v>95</v>
+      </c>
+      <c r="G37" s="41">
+        <f>(C37+D37)/6</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="37">
+        <v>1.2</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="39">
+        <v>10</v>
+      </c>
+      <c r="D38" s="39">
+        <v>40</v>
+      </c>
+      <c r="E38" s="39">
+        <v>20</v>
+      </c>
+      <c r="F38" s="40">
+        <f t="shared" ref="F38:F57" si="2">(C38+D38+6*E38)/6</f>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="G38" s="41">
+        <f t="shared" ref="G38:G57" si="3">(C38+D38)/6</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="39">
+        <v>100</v>
+      </c>
+      <c r="D39" s="39">
+        <v>250</v>
+      </c>
+      <c r="E39" s="39">
+        <v>150</v>
+      </c>
+      <c r="F39" s="40">
+        <f t="shared" si="2"/>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="G39" s="41">
+        <f t="shared" si="3"/>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="37">
+        <v>1.4</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="39">
+        <v>40</v>
+      </c>
+      <c r="D40" s="39">
+        <v>60</v>
+      </c>
+      <c r="E40" s="39">
+        <v>50</v>
+      </c>
+      <c r="F40" s="40">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="G40" s="41">
+        <f t="shared" si="3"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="37">
+        <v>2.1</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="39">
+        <v>40</v>
+      </c>
+      <c r="D41" s="39">
+        <v>80</v>
+      </c>
+      <c r="E41" s="39">
+        <v>60</v>
+      </c>
+      <c r="F41" s="40">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G41" s="41">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="39">
+        <v>30</v>
+      </c>
+      <c r="D42" s="39">
+        <v>50</v>
+      </c>
+      <c r="E42" s="39">
+        <v>40</v>
+      </c>
+      <c r="F42" s="40">
+        <f t="shared" si="2"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="G42" s="41">
+        <f t="shared" si="3"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="37">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="39">
+        <v>50</v>
+      </c>
+      <c r="D43" s="39">
+        <v>90</v>
+      </c>
+      <c r="E43" s="39">
+        <v>70</v>
+      </c>
+      <c r="F43" s="40">
+        <f t="shared" si="2"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="G43" s="41">
+        <f t="shared" si="3"/>
+        <v>23.333333333333332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="37">
+        <v>2.4</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="39">
+        <v>50</v>
+      </c>
+      <c r="D44" s="39">
+        <v>100</v>
+      </c>
+      <c r="E44" s="39">
+        <v>75</v>
+      </c>
+      <c r="F44" s="40">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G44" s="41">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="39">
+        <v>40</v>
+      </c>
+      <c r="D45" s="39">
+        <v>80</v>
+      </c>
+      <c r="E45" s="39">
+        <v>60</v>
+      </c>
+      <c r="F45" s="40">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G45" s="41">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="37">
+        <v>2.6</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="39">
+        <v>30</v>
+      </c>
+      <c r="D46" s="39">
+        <v>60</v>
+      </c>
+      <c r="E46" s="39">
+        <v>45</v>
+      </c>
+      <c r="F46" s="40">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="G46" s="41">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="37">
         <v>2.7</v>
       </c>
-      <c r="B13" s="14" t="str">
-        <f>"Панель управления пользователем"</f>
-        <v>Панель управления пользователем</v>
-      </c>
-      <c r="C13" s="37" t="str">
-        <f>"60"</f>
+      <c r="B47" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" s="39">
         <v>60</v>
       </c>
-      <c r="D13" s="36" t="str">
-        <f>"120"</f>
+      <c r="D47" s="39">
         <v>120</v>
       </c>
-      <c r="E13" s="37" t="str">
-        <f>"90"</f>
+      <c r="E47" s="39">
         <v>90</v>
       </c>
-      <c r="F13" s="38">
-        <f t="shared" si="0"/>
+      <c r="F47" s="40">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="G47" s="41">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="37">
+        <v>3.1</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="39">
+        <v>60</v>
+      </c>
+      <c r="D48" s="39">
+        <v>120</v>
+      </c>
+      <c r="E48" s="39">
         <v>90</v>
       </c>
-      <c r="G13" s="38">
-        <f t="shared" si="1"/>
+      <c r="F48" s="40">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="G48" s="41">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16">
-      <c r="A14" s="14" t="str">
-        <f>"3.1"</f>
-        <v>3.1</v>
-      </c>
-      <c r="B14" s="14" t="str">
-        <f>"Проектирование и настройка базы данных"</f>
-        <v>Проектирование и настройка базы данных</v>
-      </c>
-      <c r="C14" s="37" t="str">
-        <f>"60"</f>
+    <row r="49" spans="1:7">
+      <c r="A49" s="37">
+        <v>3.2</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="39">
+        <v>40</v>
+      </c>
+      <c r="D49" s="39">
+        <v>80</v>
+      </c>
+      <c r="E49" s="39">
         <v>60</v>
       </c>
-      <c r="D14" s="36" t="str">
-        <f>"120"</f>
+      <c r="F49" s="40">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G49" s="41">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="37">
+        <v>3.3</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="39">
+        <v>80</v>
+      </c>
+      <c r="D50" s="39">
+        <v>150</v>
+      </c>
+      <c r="E50" s="39">
+        <v>100</v>
+      </c>
+      <c r="F50" s="40">
+        <f t="shared" si="2"/>
+        <v>138.33333333333334</v>
+      </c>
+      <c r="G50" s="41">
+        <f t="shared" si="3"/>
+        <v>38.333333333333336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="37">
+        <v>3.4</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="39">
+        <v>40</v>
+      </c>
+      <c r="D51" s="39">
+        <v>80</v>
+      </c>
+      <c r="E51" s="39">
+        <v>60</v>
+      </c>
+      <c r="F51" s="40">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G51" s="41">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="37">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="39">
+        <v>50</v>
+      </c>
+      <c r="D52" s="39">
+        <v>100</v>
+      </c>
+      <c r="E52" s="39">
+        <v>75</v>
+      </c>
+      <c r="F52" s="40">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G52" s="41">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="37">
+        <v>4.2</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="39">
+        <v>40</v>
+      </c>
+      <c r="D53" s="39">
+        <v>80</v>
+      </c>
+      <c r="E53" s="39">
+        <v>60</v>
+      </c>
+      <c r="F53" s="40">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G53" s="41">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="37">
+        <v>4.3</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="39">
+        <v>60</v>
+      </c>
+      <c r="D54" s="39">
         <v>120</v>
       </c>
-      <c r="E14" s="37" t="str">
-        <f>"90"</f>
+      <c r="E54" s="39">
         <v>90</v>
       </c>
-      <c r="F14" s="38">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="G14" s="38">
-        <f t="shared" si="1"/>
+      <c r="F54" s="40">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="G54" s="41">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16">
-      <c r="A15" s="14" t="str">
-        <f>"3.2"</f>
-        <v>3.2</v>
-      </c>
-      <c r="B15" s="14" t="str">
-        <f>"Аутентификация и управление правами доступа"</f>
-        <v>Аутентификация и управление правами доступа</v>
-      </c>
-      <c r="C15" s="37" t="str">
-        <f>"40"</f>
-        <v>40</v>
-      </c>
-      <c r="D15" s="36" t="str">
-        <f>"80"</f>
-        <v>80</v>
-      </c>
-      <c r="E15" s="37" t="str">
-        <f>"60"</f>
+    <row r="55" spans="1:7">
+      <c r="A55" s="37">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="39">
+        <v>50</v>
+      </c>
+      <c r="D55" s="39">
+        <v>100</v>
+      </c>
+      <c r="E55" s="39">
+        <v>75</v>
+      </c>
+      <c r="F55" s="40">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G55" s="41">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="37">
+        <v>5.2</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="39">
+        <v>10</v>
+      </c>
+      <c r="D56" s="39">
+        <v>20</v>
+      </c>
+      <c r="E56" s="39">
+        <v>15</v>
+      </c>
+      <c r="F56" s="40">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G56" s="41">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="37">
+        <v>5.3</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="39">
+        <v>30</v>
+      </c>
+      <c r="D57" s="39">
         <v>60</v>
       </c>
-      <c r="F15" s="38">
-        <f t="shared" si="0"/>
+      <c r="E57" s="39">
+        <v>45</v>
+      </c>
+      <c r="F57" s="40">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="G15" s="38">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16">
-      <c r="A16" s="14" t="str">
-        <f>"3.3"</f>
-        <v>3.3</v>
-      </c>
-      <c r="B16" s="14" t="str">
-        <f>"Разработка API"</f>
-        <v>Разработка API</v>
-      </c>
-      <c r="C16" s="37" t="str">
-        <f>"80"</f>
-        <v>80</v>
-      </c>
-      <c r="D16" s="36" t="str">
-        <f>"150"</f>
-        <v>150</v>
-      </c>
-      <c r="E16" s="37" t="str">
-        <f>"100"</f>
-        <v>100</v>
-      </c>
-      <c r="F16" s="38">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="G16" s="38">
-        <f t="shared" si="1"/>
-        <v>38.333333333333336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16">
-      <c r="A17" s="14" t="str">
-        <f>"3.4"</f>
-        <v>3.4</v>
-      </c>
-      <c r="B17" s="14" t="str">
-        <f>"Безопасность и шифрование данных"</f>
-        <v>Безопасность и шифрование данных</v>
-      </c>
-      <c r="C17" s="37" t="str">
-        <f>"40"</f>
-        <v>40</v>
-      </c>
-      <c r="D17" s="36" t="str">
-        <f>"80"</f>
-        <v>80</v>
-      </c>
-      <c r="E17" s="37" t="str">
-        <f>"60"</f>
-        <v>60</v>
-      </c>
-      <c r="F17" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G17" s="38">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16">
-      <c r="A18" s="14" t="str">
-        <f>"4.1"</f>
-        <v>4.1</v>
-      </c>
-      <c r="B18" s="14" t="str">
-        <f>"Модульное тестирование"</f>
-        <v>Модульное тестирование</v>
-      </c>
-      <c r="C18" s="37" t="str">
-        <f>"50"</f>
-        <v>50</v>
-      </c>
-      <c r="D18" s="36" t="str">
-        <f>"100"</f>
-        <v>100</v>
-      </c>
-      <c r="E18" s="37" t="str">
-        <f>"75"</f>
-        <v>75</v>
-      </c>
-      <c r="F18" s="38">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="G18" s="38">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16">
-      <c r="A19" s="14" t="str">
-        <f>"4.2"</f>
-        <v>4.2</v>
-      </c>
-      <c r="B19" s="14" t="str">
-        <f>"Интеграционное тестирование"</f>
-        <v>Интеграционное тестирование</v>
-      </c>
-      <c r="C19" s="37" t="str">
-        <f>"40"</f>
-        <v>40</v>
-      </c>
-      <c r="D19" s="36" t="str">
-        <f>"80"</f>
-        <v>80</v>
-      </c>
-      <c r="E19" s="37" t="str">
-        <f>"60"</f>
-        <v>60</v>
-      </c>
-      <c r="F19" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G19" s="38">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16">
-      <c r="A20" s="14" t="str">
-        <f>"4.3"</f>
-        <v>4.3</v>
-      </c>
-      <c r="B20" s="14" t="str">
-        <f>"Функциональное тестирование"</f>
-        <v>Функциональное тестирование</v>
-      </c>
-      <c r="C20" s="37" t="str">
-        <f>"60"</f>
-        <v>60</v>
-      </c>
-      <c r="D20" s="36" t="str">
-        <f>"120"</f>
-        <v>120</v>
-      </c>
-      <c r="E20" s="37" t="str">
-        <f>"90"</f>
-        <v>90</v>
-      </c>
-      <c r="F20" s="38">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="G20" s="38">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16">
-      <c r="A21" s="14" t="str">
-        <f>"5.1"</f>
-        <v>5.1</v>
-      </c>
-      <c r="B21" s="14" t="str">
-        <f>"Alpha и Beta тестирование"</f>
-        <v>Alpha и Beta тестирование</v>
-      </c>
-      <c r="C21" s="37" t="str">
-        <f>"50"</f>
-        <v>50</v>
-      </c>
-      <c r="D21" s="36" t="str">
-        <f>"100"</f>
-        <v>100</v>
-      </c>
-      <c r="E21" s="37" t="str">
-        <f>"75"</f>
-        <v>75</v>
-      </c>
-      <c r="F21" s="38">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="G21" s="38">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16">
-      <c r="A22" s="14" t="str">
-        <f>"5.2"</f>
-        <v>5.2</v>
-      </c>
-      <c r="B22" s="14" t="str">
-        <f>"Настройка SSL-сертификата"</f>
-        <v>Настройка SSL-сертификата</v>
-      </c>
-      <c r="C22" s="37" t="str">
-        <f>"10"</f>
-        <v>10</v>
-      </c>
-      <c r="D22" s="36" t="str">
-        <f>"20"</f>
-        <v>20</v>
-      </c>
-      <c r="E22" s="37" t="str">
-        <f>"15"</f>
+      <c r="G57" s="41">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="F22" s="38">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G22" s="38">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16">
-      <c r="A23" s="14" t="str">
-        <f>"5.3"</f>
-        <v>5.3</v>
-      </c>
-      <c r="B23" s="14" t="str">
-        <f>"Развертывание сервера"</f>
-        <v>Развертывание сервера</v>
-      </c>
-      <c r="C23" s="37" t="str">
-        <f>"30"</f>
-        <v>30</v>
-      </c>
-      <c r="D23" s="36" t="str">
-        <f>"60"</f>
-        <v>60</v>
-      </c>
-      <c r="E23" s="37" t="str">
-        <f>"45"</f>
-        <v>45</v>
-      </c>
-      <c r="F23" s="38">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="G23" s="38">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16">
-      <c r="A24" s="14" t="str">
-        <f>"Z"</f>
-        <v>Z</v>
-      </c>
-      <c r="B24" s="14" t="str">
-        <f>"Итого"</f>
-        <v>Итого</v>
-      </c>
-      <c r="C24" s="37" t="str">
-        <f>"1000"</f>
-        <v>1000</v>
-      </c>
-      <c r="D24" s="36">
-        <f>SUM(D3:D23)</f>
-        <v>100</v>
-      </c>
-      <c r="E24" s="37" t="str">
-        <f>"1400"</f>
-        <v>1400</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="14">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EconomicsSoftwareEngineering/Lab1.xlsx
+++ b/EconomicsSoftwareEngineering/Lab1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tolia\Documents\GitHub\ITMO-PE\EconomicsSoftwareEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A25AFD-BD7A-453D-B505-F326CA68BBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A990E2B-512D-4E40-B1C9-B7F1CCDBC8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{343BDCF8-93BA-48B2-B1E2-DDA5B2F75838}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{343BDCF8-93BA-48B2-B1E2-DDA5B2F75838}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Method" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="79">
   <si>
     <t>Название</t>
   </si>
@@ -58,7 +58,96 @@
     <t>Центр поддержки</t>
   </si>
   <si>
-    <t>开发网站的初步原型，设计主页、服务页面、产品页面等的用户体验与交互动画。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确定技术栈：前端使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ReactJS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以支持动态交互，后端使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Node.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>GraphQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现快速数据处理，数据库选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>PostgreSQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -70,7 +159,7 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>确定技术栈：前端使用</t>
+      <t>展示产品详细信息页面，包含技术参数、价格计算等内容。</t>
     </r>
     <r>
       <rPr>
@@ -80,8 +169,11 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>ReactJS</t>
-    </r>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -90,7 +182,7 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>以支持动态交互，后端使用</t>
+      <t>展示</t>
     </r>
     <r>
       <rPr>
@@ -100,7 +192,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>Node.js</t>
+      <t>Selectel</t>
     </r>
     <r>
       <rPr>
@@ -110,7 +202,20 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>和</t>
+      <t>提供的各类云服务，支持动态筛选和详细信息展示。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建数据库结构，包括用户数据、订单、服务与设备状态等表格与索引优化。</t>
     </r>
     <r>
       <rPr>
@@ -120,8 +225,11 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>GraphQL</t>
-    </r>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -130,7 +238,7 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>实现快速数据处理，数据库选择</t>
+      <t>设计并开发</t>
     </r>
     <r>
       <rPr>
@@ -140,7 +248,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>PostgreSQL</t>
+      <t>RESTful API</t>
     </r>
     <r>
       <rPr>
@@ -150,257 +258,97 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>。</t>
+      <t>，支持前端与后端的数据交互。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由于涉及用户注册与数据存储，必须获得数据处理许可，并确保符合相关法律要求。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现数据加密存储和安全通信（如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SSL/TLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>响应式设计，展示主要服务、动态内容加载、优化动画效果，突出主要内容。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装并配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书，确保网站运行于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>HTTPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协议。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动态表单验证，响应式布局，提供2FA验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>展示产品详细信息页面，包含技术参数、价格计算等内容。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括常见问题、提交工单表单、实时聊天支持功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>展示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Selectel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提供的各类云服务，支持动态筛选和详细信息展示。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示技术文档，支持分章节阅读和全文搜索功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括账户管理、订单历史、服务与设备状态监控，支持自定义配置功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建数据库结构，包括用户数据、订单、服务与设备状态等表格与索引优化。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现用户登录、注册、权限管理逻辑，支持多种角色（普通用户、管理员）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设计并开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>RESTful API</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，支持前端与后端的数据交互。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实现数据加密存储和安全通信（如</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SSL/TLS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试每个模块功能的可靠性，确保前后端逻辑正确无误。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确保前后端及外部服务之间的交互工作正常。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试完整用户场景，包括注册、订购服务、查看文档等流程。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对主要功能进行内部测试和公开测试，收集反馈并优化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安装并配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书，确保网站运行于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>HTTPS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>协议。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将代码部署到云服务器，并完成必要的环境配置。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -417,9 +365,6 @@
   </si>
   <si>
     <t>Выбор технологий</t>
-  </si>
-  <si>
-    <t>Определение технологического стека: использование ReactJS для динамического взаимодействия на фронтенде, Node.js и GraphQL для быстрого обработки данных на бэкенде, выбор PostgreSQL в качестве базы данных.</t>
   </si>
   <si>
     <t>Разрешение на обработку данных</t>
@@ -547,6 +492,203 @@
   </si>
   <si>
     <t>Релиз</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发网站的初步原型，设计主页、服务页面、产品页面等的用户体验与交互动画。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Определение технологического стека: использование ReactJS для динамического взаимодействия на фронтенде, Spring для быстрого обработки данных на бэкенде, выбор PostgreSQL в качестве базы данных.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由于涉及用户注册与数据存储，必须获得数据处理许可，并确保符合相关法律要求。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>响应式设计，展示主要服务、动态内容加载、优化动画效果，突出主要内容。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动态表单验证，响应式布局，提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2FA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包括常见问题、提交工单表单、实时聊天支持功能。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显示技术文档，支持分章节阅读和全文搜索功能。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包括账户管理、订单历史、服务与设备状态监控，支持自定义配置功能。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实现用户登录、注册、权限管理逻辑，支持多种角色（普通用户、管理员）。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试每个模块功能的可靠性，确保前后端逻辑正确无误。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确保前后端及外部服务之间的交互工作正常。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试完整用户场景，包括注册、订购服务、查看文档等流程。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对主要功能进行内部测试和公开测试，收集反馈并优化。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将代码部署到云服务器，并完成必要的环境配置。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Аутентификация и управление правами доступа</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +696,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,13 +736,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
@@ -613,9 +751,24 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -733,7 +886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,17 +899,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -770,17 +941,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -791,23 +971,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF919840-9214-4EC6-8269-5D4BE3F124DF}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1141,23 +1315,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>33</v>
+      <c r="D1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="str">
         <f>"编号"</f>
@@ -1185,20 +1359,20 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A2" s="10">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18">
         <v>200</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="18">
         <v>450</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="18">
         <v>300</v>
       </c>
       <c r="H2" s="1" t="str">
@@ -1227,22 +1401,22 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="122.25" thickBot="1">
-      <c r="A3" s="10">
+      <c r="A3" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="18">
         <v>50</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="18">
         <v>100</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="18">
         <v>70</v>
       </c>
       <c r="H3" s="1" t="str">
@@ -1253,8 +1427,8 @@
         <f>"网站原型"</f>
         <v>网站原型</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="K3" s="1" t="str">
         <f>"50"</f>
@@ -1270,22 +1444,22 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="210.75" thickBot="1">
-      <c r="A4" s="10">
+      <c r="A4" s="16">
         <v>1.2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="B4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="18">
         <v>10</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="18">
         <v>40</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="18">
         <v>20</v>
       </c>
       <c r="H4" s="1" t="str">
@@ -1296,8 +1470,8 @@
         <f>"技术选择"</f>
         <v>技术选择</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>11</v>
+      <c r="J4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K4" s="1" t="str">
         <f>"10"</f>
@@ -1313,22 +1487,22 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="135.75" thickBot="1">
-      <c r="A5" s="10">
+      <c r="A5" s="16">
         <v>1.3</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="B5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="18">
         <v>100</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="18">
         <v>250</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="18">
         <v>150</v>
       </c>
       <c r="H5" s="1" t="str">
@@ -1339,8 +1513,8 @@
         <f>"数据处理许可"</f>
         <v>数据处理许可</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>12</v>
+      <c r="J5" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="K5" s="1" t="str">
         <f>"100"</f>
@@ -1356,22 +1530,22 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="90.75" thickBot="1">
-      <c r="A6" s="10">
+      <c r="A6" s="16">
         <v>1.4</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="18">
         <v>40</v>
       </c>
-      <c r="D6" s="13">
-        <v>40</v>
-      </c>
-      <c r="E6" s="13">
-        <v>60</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="E6" s="18">
+        <v>60</v>
+      </c>
+      <c r="F6" s="18">
         <v>50</v>
       </c>
       <c r="H6" s="1" t="str">
@@ -1400,20 +1574,20 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A7" s="10">
+      <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13">
+      <c r="B7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18">
         <v>300</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="18">
         <v>500</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="18">
         <v>400</v>
       </c>
       <c r="H7" s="1" t="str">
@@ -1442,22 +1616,22 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="122.25" thickBot="1">
-      <c r="A8" s="10">
+      <c r="A8" s="16">
         <v>2.1</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="C8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="18">
         <v>40</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="18">
         <v>80</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="18">
         <v>60</v>
       </c>
       <c r="H8" s="1" t="str">
@@ -1468,8 +1642,8 @@
         <f>"主页"</f>
         <v>主页</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>13</v>
+      <c r="J8" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="K8" s="1" t="str">
         <f>"40"</f>
@@ -1484,23 +1658,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="68.25" thickBot="1">
-      <c r="A9" s="10">
+    <row r="9" spans="1:13" ht="69.75" thickBot="1">
+      <c r="A9" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="B9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="13">
+      <c r="D9" s="18">
+        <v>30</v>
+      </c>
+      <c r="E9" s="18">
         <v>50</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="18">
         <v>40</v>
       </c>
       <c r="H9" s="1" t="str">
@@ -1511,8 +1685,8 @@
         <f>"登录/注册"</f>
         <v>登录/注册</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>14</v>
+      <c r="J9" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K9" s="1" t="str">
         <f>"30"</f>
@@ -1528,22 +1702,22 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="110.25" thickBot="1">
-      <c r="A10" s="10">
+      <c r="A10" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="B10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="18">
         <v>50</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="18">
         <v>90</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="18">
         <v>70</v>
       </c>
       <c r="H10" s="1" t="str">
@@ -1554,8 +1728,8 @@
         <f>"服务页面"</f>
         <v>服务页面</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>17</v>
+      <c r="J10" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="K10" s="1" t="str">
         <f>"50"</f>
@@ -1571,22 +1745,22 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="96.75" thickBot="1">
-      <c r="A11" s="10">
+      <c r="A11" s="16">
         <v>2.4</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="B11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="18">
         <v>50</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="18">
         <v>100</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="18">
         <v>75</v>
       </c>
       <c r="H11" s="1" t="str">
@@ -1597,8 +1771,8 @@
         <f>"产品页面"</f>
         <v>产品页面</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>15</v>
+      <c r="J11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="K11" s="1" t="str">
         <f>"50"</f>
@@ -1614,22 +1788,22 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="81.75" thickBot="1">
-      <c r="A12" s="10">
+      <c r="A12" s="16">
         <v>2.5</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="C12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="18">
         <v>40</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="18">
         <v>80</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="18">
         <v>60</v>
       </c>
       <c r="H12" s="1" t="str">
@@ -1640,8 +1814,8 @@
         <f>"支持中心"</f>
         <v>支持中心</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>16</v>
+      <c r="J12" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="K12" s="1" t="str">
         <f>"40"</f>
@@ -1657,22 +1831,22 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="81.75" thickBot="1">
-      <c r="A13" s="10">
+      <c r="A13" s="16">
         <v>2.6</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="B13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="18">
         <v>30</v>
       </c>
-      <c r="E13" s="13">
-        <v>60</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="E13" s="18">
+        <v>60</v>
+      </c>
+      <c r="F13" s="18">
         <v>45</v>
       </c>
       <c r="H13" s="1" t="str">
@@ -1683,8 +1857,8 @@
         <f>"文档页面"</f>
         <v>文档页面</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>18</v>
+      <c r="J13" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="K13" s="1" t="str">
         <f>"30"</f>
@@ -1700,22 +1874,22 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="108.75" thickBot="1">
-      <c r="A14" s="10">
+      <c r="A14" s="16">
         <v>2.7</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="13">
-        <v>60</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="B14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="18">
+        <v>60</v>
+      </c>
+      <c r="E14" s="18">
         <v>120</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="18">
         <v>90</v>
       </c>
       <c r="H14" s="1" t="str">
@@ -1726,8 +1900,8 @@
         <f>"用户控制面板"</f>
         <v>用户控制面板</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>19</v>
+      <c r="J14" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="K14" s="1" t="str">
         <f>"60"</f>
@@ -1743,20 +1917,20 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A15" s="10">
+      <c r="A15" s="16">
         <v>3</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="13">
+      <c r="B15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18">
         <v>250</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="18">
         <v>450</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="18">
         <v>350</v>
       </c>
       <c r="H15" s="1" t="str">
@@ -1785,22 +1959,22 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="123.75" thickBot="1">
-      <c r="A16" s="10">
+      <c r="A16" s="16">
         <v>3.1</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="13">
-        <v>60</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="B16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="18">
+        <v>60</v>
+      </c>
+      <c r="E16" s="18">
         <v>120</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="18">
         <v>90</v>
       </c>
       <c r="H16" s="1" t="str">
@@ -1811,8 +1985,8 @@
         <f>"数据库设计与配置"</f>
         <v>数据库设计与配置</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>20</v>
+      <c r="J16" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K16" s="1" t="str">
         <f>"60"</f>
@@ -1828,22 +2002,22 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="122.25" thickBot="1">
-      <c r="A17" s="10">
+      <c r="A17" s="16">
         <v>3.2</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="B17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="18">
         <v>40</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="18">
         <v>80</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="18">
         <v>60</v>
       </c>
       <c r="H17" s="1" t="str">
@@ -1854,8 +2028,8 @@
         <f>"用户认证与权限管理"</f>
         <v>用户认证与权限管理</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>21</v>
+      <c r="J17" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="K17" s="1" t="str">
         <f>"40"</f>
@@ -1871,22 +2045,22 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="84.75" thickBot="1">
-      <c r="A18" s="10">
+      <c r="A18" s="16">
         <v>3.3</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="B18" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="18">
         <v>80</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="18">
         <v>150</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="18">
         <v>100</v>
       </c>
       <c r="H18" s="1" t="str">
@@ -1897,8 +2071,8 @@
         <f>"服务接口开发"</f>
         <v>服务接口开发</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>22</v>
+      <c r="J18" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="K18" s="1" t="str">
         <f>"80"</f>
@@ -1914,22 +2088,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="83.25" thickBot="1">
-      <c r="A19" s="10">
+      <c r="A19" s="16">
         <v>3.4</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="B19" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="18">
         <v>40</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="18">
         <v>80</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="18">
         <v>60</v>
       </c>
       <c r="H19" s="1" t="str">
@@ -1940,8 +2114,8 @@
         <f>"数据安全与加密"</f>
         <v>数据安全与加密</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>23</v>
+      <c r="J19" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K19" s="1" t="str">
         <f>"40"</f>
@@ -1957,20 +2131,20 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A20" s="10">
+      <c r="A20" s="16">
         <v>4</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13">
+      <c r="B20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18">
         <v>150</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="18">
         <v>300</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="18">
         <v>200</v>
       </c>
       <c r="H20" s="1" t="str">
@@ -1999,22 +2173,22 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A21" s="10">
+      <c r="A21" s="16">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="C21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="18">
         <v>50</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="18">
         <v>100</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="18">
         <v>75</v>
       </c>
       <c r="H21" s="1" t="str">
@@ -2025,8 +2199,8 @@
         <f>"单元测试"</f>
         <v>单元测试</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>24</v>
+      <c r="J21" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="K21" s="1" t="str">
         <f>"50"</f>
@@ -2042,22 +2216,22 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="68.25" thickBot="1">
-      <c r="A22" s="10">
+      <c r="A22" s="16">
         <v>4.2</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="C22" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="18">
         <v>40</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="18">
         <v>80</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="18">
         <v>60</v>
       </c>
       <c r="H22" s="1" t="str">
@@ -2068,8 +2242,8 @@
         <f>"集成测试"</f>
         <v>集成测试</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>25</v>
+      <c r="J22" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="K22" s="1" t="str">
         <f>"40"</f>
@@ -2085,22 +2259,22 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A23" s="10">
+      <c r="A23" s="16">
         <v>4.3</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="13">
-        <v>60</v>
-      </c>
-      <c r="E23" s="13">
+      <c r="C23" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="18">
+        <v>60</v>
+      </c>
+      <c r="E23" s="18">
         <v>120</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="18">
         <v>90</v>
       </c>
       <c r="H23" s="1" t="str">
@@ -2111,8 +2285,8 @@
         <f>"功能测试"</f>
         <v>功能测试</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>26</v>
+      <c r="J23" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="K23" s="1" t="str">
         <f>"60"</f>
@@ -2128,20 +2302,20 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A24" s="10">
+      <c r="A24" s="16">
         <v>5</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="13">
+      <c r="B24" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18">
         <v>100</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="18">
         <v>200</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="18">
         <v>150</v>
       </c>
       <c r="H24" s="1" t="str">
@@ -2170,22 +2344,22 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A25" s="10">
+      <c r="A25" s="16">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="13">
+      <c r="B25" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="18">
         <v>50</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="18">
         <v>100</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="18">
         <v>75</v>
       </c>
       <c r="H25" s="1" t="str">
@@ -2196,8 +2370,8 @@
         <f>"Alpha和Beta测试"</f>
         <v>Alpha和Beta测试</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>27</v>
+      <c r="J25" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="K25" s="1" t="str">
         <f>"50"</f>
@@ -2213,22 +2387,22 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="84.75" thickBot="1">
-      <c r="A26" s="10">
+      <c r="A26" s="16">
         <v>5.2</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="13">
+      <c r="B26" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="18">
         <v>10</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="18">
         <v>20</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="18">
         <v>15</v>
       </c>
       <c r="H26" s="1" t="str">
@@ -2239,8 +2413,8 @@
         <f>"SSL证书配置"</f>
         <v>SSL证书配置</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>28</v>
+      <c r="J26" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K26" s="1" t="str">
         <f>"10"</f>
@@ -2256,22 +2430,22 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="81.75" thickBot="1">
-      <c r="A27" s="10">
+      <c r="A27" s="16">
         <v>5.3</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="13">
+      <c r="B27" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="18">
         <v>30</v>
       </c>
-      <c r="E27" s="13">
-        <v>60</v>
-      </c>
-      <c r="F27" s="13">
+      <c r="E27" s="18">
+        <v>60</v>
+      </c>
+      <c r="F27" s="18">
         <v>45</v>
       </c>
       <c r="H27" s="1" t="str">
@@ -2282,8 +2456,8 @@
         <f>"服务器部署"</f>
         <v>服务器部署</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>29</v>
+      <c r="J27" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="K27" s="1" t="str">
         <f>"30"</f>
@@ -2299,20 +2473,20 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="13">
+      <c r="B28" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18">
         <v>1000</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="18">
         <v>1950</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="18">
         <v>1400</v>
       </c>
       <c r="H28" s="1" t="str">
@@ -2348,10 +2522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E0DD2C-E896-F14F-9EB7-F7E140FCF726}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -2361,1118 +2535,1217 @@
     <col min="3" max="5" width="10.875" style="3"/>
     <col min="6" max="6" width="14.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="3"/>
+    <col min="8" max="9" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="24"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="16">
+      <c r="C1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" ht="15">
+      <c r="A3" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="27">
         <v>50</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="27">
         <v>100</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="27">
         <v>70</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="28">
         <f>(C3+D3+6*E3)/6</f>
         <v>95</v>
       </c>
-      <c r="G3" s="19">
-        <f>(C3+D3)/6</f>
+      <c r="G3" s="28">
+        <f>(D3-E3)/6</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="31">
+        <f>G3^2</f>
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
-      <c r="A4" s="16">
+    <row r="4" spans="1:8" ht="15">
+      <c r="A4" s="25">
         <v>1.2</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="B4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="27">
         <v>10</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="27">
         <v>40</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="27">
         <v>20</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="28">
         <f t="shared" ref="F4:F23" si="0">(C4+D4+6*E4)/6</f>
         <v>28.333333333333332</v>
       </c>
-      <c r="G4" s="19">
-        <f t="shared" ref="G4:G23" si="1">(C4+D4)/6</f>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15">
-      <c r="A5" s="16">
+      <c r="G4" s="28">
+        <f t="shared" ref="G4:G23" si="1">(D4-E4)/6</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H4" s="31">
+        <f t="shared" ref="H4:H23" si="2">G4^2</f>
+        <v>11.111111111111112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15">
+      <c r="A5" s="25">
         <v>1.3</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="B5" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="27">
         <v>100</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="27">
         <v>250</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="27">
         <v>150</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="28">
         <f t="shared" si="0"/>
         <v>208.33333333333334</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="28">
         <f t="shared" si="1"/>
-        <v>58.333333333333336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15">
-      <c r="A6" s="16">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="H5" s="31">
+        <f t="shared" si="2"/>
+        <v>277.77777777777783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15">
+      <c r="A6" s="25">
         <v>1.4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="B6" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="27">
         <v>40</v>
       </c>
-      <c r="D6" s="18">
-        <v>60</v>
-      </c>
-      <c r="E6" s="18">
+      <c r="D6" s="27">
+        <v>60</v>
+      </c>
+      <c r="E6" s="27">
         <v>50</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="28">
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="28">
         <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="16">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H6" s="31">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15">
+      <c r="A7" s="25">
         <v>2.1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="27">
         <v>40</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="27">
         <v>80</v>
       </c>
-      <c r="E7" s="18">
-        <v>60</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="E7" s="27">
+        <v>60</v>
+      </c>
+      <c r="F7" s="28">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="28">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15">
-      <c r="A8" s="16">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H7" s="31">
+        <f t="shared" si="2"/>
+        <v>11.111111111111112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15">
+      <c r="A8" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="B8" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="27">
         <v>30</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="27">
         <v>50</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="27">
         <v>40</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="28">
         <f t="shared" si="0"/>
         <v>53.333333333333336</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="28">
         <f t="shared" si="1"/>
-        <v>13.333333333333334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15">
-      <c r="A9" s="16">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H8" s="31">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15">
+      <c r="A9" s="25">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="27">
         <v>50</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="27">
         <v>90</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="27">
         <v>70</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="28">
         <f t="shared" si="0"/>
         <v>93.333333333333329</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="28">
         <f t="shared" si="1"/>
-        <v>23.333333333333332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15">
-      <c r="A10" s="16">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H9" s="31">
+        <f t="shared" si="2"/>
+        <v>11.111111111111112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15">
+      <c r="A10" s="25">
         <v>2.4</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="B10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="27">
         <v>50</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="27">
         <v>100</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="27">
         <v>75</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="28">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15">
-      <c r="A11" s="16">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="H10" s="31">
+        <f t="shared" si="2"/>
+        <v>17.361111111111114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15">
+      <c r="A11" s="25">
         <v>2.5</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="27">
         <v>40</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="27">
         <v>80</v>
       </c>
-      <c r="E11" s="18">
-        <v>60</v>
-      </c>
-      <c r="F11" s="19">
+      <c r="E11" s="27">
+        <v>60</v>
+      </c>
+      <c r="F11" s="28">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="28">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15">
-      <c r="A12" s="16">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H11" s="31">
+        <f t="shared" si="2"/>
+        <v>11.111111111111112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15">
+      <c r="A12" s="25">
         <v>2.6</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="B12" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="27">
         <v>30</v>
       </c>
-      <c r="D12" s="18">
-        <v>60</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="D12" s="27">
+        <v>60</v>
+      </c>
+      <c r="E12" s="27">
         <v>45</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="28">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="28">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15">
-      <c r="A13" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="H12" s="31">
+        <f t="shared" si="2"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15">
+      <c r="A13" s="25">
         <v>2.7</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="18">
-        <v>60</v>
-      </c>
-      <c r="D13" s="18">
+      <c r="B13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="27">
+        <v>60</v>
+      </c>
+      <c r="D13" s="27">
         <v>120</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="27">
         <v>90</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="28">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="28">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15">
-      <c r="A14" s="16">
+        <v>5</v>
+      </c>
+      <c r="H13" s="31">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15">
+      <c r="A14" s="25">
         <v>3.1</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="18">
-        <v>60</v>
-      </c>
-      <c r="D14" s="18">
+      <c r="B14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="27">
+        <v>60</v>
+      </c>
+      <c r="D14" s="27">
         <v>120</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="27">
         <v>90</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="28">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="28">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15">
-      <c r="A15" s="16">
+        <v>5</v>
+      </c>
+      <c r="H14" s="31">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15">
+      <c r="A15" s="25">
         <v>3.2</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="18">
+      <c r="B15" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="27">
         <v>40</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="27">
         <v>80</v>
       </c>
-      <c r="E15" s="18">
-        <v>60</v>
-      </c>
-      <c r="F15" s="19">
+      <c r="E15" s="27">
+        <v>60</v>
+      </c>
+      <c r="F15" s="28">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="28">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15">
-      <c r="A16" s="16">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H15" s="31">
+        <f t="shared" si="2"/>
+        <v>11.111111111111112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15">
+      <c r="A16" s="25">
         <v>3.3</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="B16" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="27">
         <v>80</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="27">
         <v>150</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="27">
         <v>100</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="28">
         <f t="shared" si="0"/>
         <v>138.33333333333334</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="28">
         <f t="shared" si="1"/>
-        <v>38.333333333333336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15">
-      <c r="A17" s="16">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="H16" s="31">
+        <f t="shared" si="2"/>
+        <v>69.444444444444457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="25">
         <v>3.4</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="B17" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="27">
         <v>40</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="27">
         <v>80</v>
       </c>
-      <c r="E17" s="18">
-        <v>60</v>
-      </c>
-      <c r="F17" s="19">
+      <c r="E17" s="27">
+        <v>60</v>
+      </c>
+      <c r="F17" s="28">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="28">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15">
-      <c r="A18" s="16">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H17" s="31">
+        <f t="shared" si="2"/>
+        <v>11.111111111111112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="25">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="27">
         <v>50</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="27">
         <v>100</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="27">
         <v>75</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="28">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15">
-      <c r="A19" s="16">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="H18" s="31">
+        <f t="shared" si="2"/>
+        <v>17.361111111111114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" s="25">
         <v>4.2</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="27">
         <v>40</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="27">
         <v>80</v>
       </c>
-      <c r="E19" s="18">
-        <v>60</v>
-      </c>
-      <c r="F19" s="19">
+      <c r="E19" s="27">
+        <v>60</v>
+      </c>
+      <c r="F19" s="28">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="28">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15">
-      <c r="A20" s="16">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H19" s="31">
+        <f t="shared" si="2"/>
+        <v>11.111111111111112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" s="25">
         <v>4.3</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="18">
-        <v>60</v>
-      </c>
-      <c r="D20" s="18">
+      <c r="C20" s="27">
+        <v>60</v>
+      </c>
+      <c r="D20" s="27">
         <v>120</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="27">
         <v>90</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="28">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="28">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15">
-      <c r="A21" s="16">
+        <v>5</v>
+      </c>
+      <c r="H20" s="31">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" s="25">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="B21" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="27">
         <v>50</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="27">
         <v>100</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="27">
         <v>75</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="28">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15">
-      <c r="A22" s="16">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="H21" s="31">
+        <f t="shared" si="2"/>
+        <v>17.361111111111114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15">
+      <c r="A22" s="25">
         <v>5.2</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="18">
+      <c r="B22" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="27">
         <v>10</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="27">
         <v>20</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="27">
         <v>15</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15">
-      <c r="A23" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H22" s="31">
+        <f t="shared" si="2"/>
+        <v>0.69444444444444453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15">
+      <c r="A23" s="25">
         <v>5.3</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="18">
+      <c r="B23" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="27">
         <v>30</v>
       </c>
-      <c r="D23" s="18">
-        <v>60</v>
-      </c>
-      <c r="E23" s="18">
+      <c r="D23" s="27">
+        <v>60</v>
+      </c>
+      <c r="E23" s="27">
         <v>45</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="28">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="28">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="F24" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="H23" s="31">
+        <f t="shared" si="2"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="30">
         <f>SUM(F37:F57)</f>
         <v>1883.3333333333333</v>
       </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3">
+        <f>SQRT(SUM(H3:H23))</f>
+        <v>24.409697526461347</v>
+      </c>
+      <c r="I24" s="3">
+        <f>F24+2*H24</f>
+        <v>1932.1527283862561</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="23" t="s">
+      <c r="A35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="C35" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="24"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="15">
-      <c r="A37" s="16">
+      <c r="A37" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="7">
         <v>50</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="7">
         <v>100</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="7">
         <v>70</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="8">
         <f>(C37+D37+6*E37)/6</f>
         <v>95</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="8">
         <f>(C37+D37)/6</f>
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15">
-      <c r="A38" s="16">
+      <c r="A38" s="5">
         <v>1.2</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="18">
+      <c r="B38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="7">
         <v>10</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="7">
         <v>40</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="7">
         <v>20</v>
       </c>
-      <c r="F38" s="19">
-        <f t="shared" ref="F38:F57" si="2">(C38+D38+6*E38)/6</f>
+      <c r="F38" s="8">
+        <f t="shared" ref="F38:F57" si="3">(C38+D38+6*E38)/6</f>
         <v>28.333333333333332</v>
       </c>
-      <c r="G38" s="19">
-        <f t="shared" ref="G38:G57" si="3">(C38+D38)/6</f>
+      <c r="G38" s="8">
+        <f t="shared" ref="G38:G57" si="4">(C38+D38)/6</f>
         <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15">
-      <c r="A39" s="16">
+      <c r="A39" s="5">
         <v>1.3</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="18">
+      <c r="B39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="7">
         <v>100</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="7">
         <v>250</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="7">
         <v>150</v>
       </c>
-      <c r="F39" s="19">
-        <f t="shared" si="2"/>
+      <c r="F39" s="8">
+        <f t="shared" si="3"/>
         <v>208.33333333333334</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="8">
+        <f t="shared" si="4"/>
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15">
+      <c r="A40" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="7">
+        <v>40</v>
+      </c>
+      <c r="D40" s="7">
+        <v>60</v>
+      </c>
+      <c r="E40" s="7">
+        <v>50</v>
+      </c>
+      <c r="F40" s="8">
         <f t="shared" si="3"/>
-        <v>58.333333333333336</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15">
-      <c r="A40" s="16">
-        <v>1.4</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="18">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" si="4"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15">
+      <c r="A41" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="7">
         <v>40</v>
       </c>
-      <c r="D40" s="18">
-        <v>60</v>
-      </c>
-      <c r="E40" s="18">
+      <c r="D41" s="7">
+        <v>80</v>
+      </c>
+      <c r="E41" s="7">
+        <v>60</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15">
+      <c r="A42" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="7">
+        <v>30</v>
+      </c>
+      <c r="D42" s="7">
         <v>50</v>
       </c>
-      <c r="F40" s="19">
-        <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="G40" s="19">
+      <c r="E42" s="7">
+        <v>40</v>
+      </c>
+      <c r="F42" s="8">
         <f t="shared" si="3"/>
-        <v>16.666666666666668</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15">
-      <c r="A41" s="16">
-        <v>2.1</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="18">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="4"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15">
+      <c r="A43" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="7">
+        <v>50</v>
+      </c>
+      <c r="D43" s="7">
+        <v>90</v>
+      </c>
+      <c r="E43" s="7">
+        <v>70</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="3"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="4"/>
+        <v>23.333333333333332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15">
+      <c r="A44" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="7">
+        <v>50</v>
+      </c>
+      <c r="D44" s="7">
+        <v>100</v>
+      </c>
+      <c r="E44" s="7">
+        <v>75</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15">
+      <c r="A45" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="7">
         <v>40</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D45" s="7">
         <v>80</v>
       </c>
-      <c r="E41" s="18">
-        <v>60</v>
-      </c>
-      <c r="F41" s="19">
-        <f t="shared" si="2"/>
+      <c r="E45" s="7">
+        <v>60</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G45" s="8">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15">
+      <c r="A46" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="7">
+        <v>30</v>
+      </c>
+      <c r="D46" s="7">
+        <v>60</v>
+      </c>
+      <c r="E46" s="7">
+        <v>45</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15">
+      <c r="A47" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="7">
+        <v>60</v>
+      </c>
+      <c r="D47" s="7">
+        <v>120</v>
+      </c>
+      <c r="E47" s="7">
+        <v>90</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="G47" s="8">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15">
+      <c r="A48" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="7">
+        <v>60</v>
+      </c>
+      <c r="D48" s="7">
+        <v>120</v>
+      </c>
+      <c r="E48" s="7">
+        <v>90</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="G48" s="8">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15">
+      <c r="A49" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="7">
+        <v>40</v>
+      </c>
+      <c r="D49" s="7">
+        <v>80</v>
+      </c>
+      <c r="E49" s="7">
+        <v>60</v>
+      </c>
+      <c r="F49" s="8">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="G49" s="8">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15">
+      <c r="A50" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="7">
+        <v>80</v>
+      </c>
+      <c r="D50" s="7">
+        <v>150</v>
+      </c>
+      <c r="E50" s="7">
+        <v>100</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" si="3"/>
+        <v>138.33333333333334</v>
+      </c>
+      <c r="G50" s="8">
+        <f>(C50+D50)/6</f>
+        <v>38.333333333333336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15">
+      <c r="A51" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="7">
+        <v>40</v>
+      </c>
+      <c r="D51" s="7">
+        <v>80</v>
+      </c>
+      <c r="E51" s="7">
+        <v>60</v>
+      </c>
+      <c r="F51" s="8">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="G51" s="8">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15">
+      <c r="A52" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="7">
+        <v>50</v>
+      </c>
+      <c r="D52" s="7">
+        <v>100</v>
+      </c>
+      <c r="E52" s="7">
+        <v>75</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="G52" s="8">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15">
+      <c r="A53" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="7">
+        <v>40</v>
+      </c>
+      <c r="D53" s="7">
+        <v>80</v>
+      </c>
+      <c r="E53" s="7">
+        <v>60</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="G53" s="8">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15">
+      <c r="A54" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="7">
+        <v>60</v>
+      </c>
+      <c r="D54" s="7">
+        <v>120</v>
+      </c>
+      <c r="E54" s="7">
+        <v>90</v>
+      </c>
+      <c r="F54" s="8">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="G54" s="8">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15">
+      <c r="A55" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="7">
+        <v>50</v>
+      </c>
+      <c r="D55" s="7">
+        <v>100</v>
+      </c>
+      <c r="E55" s="7">
+        <v>75</v>
+      </c>
+      <c r="F55" s="8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="G55" s="8">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15">
+      <c r="A56" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="7">
+        <v>10</v>
+      </c>
+      <c r="D56" s="7">
+        <v>20</v>
+      </c>
+      <c r="E56" s="7">
+        <v>15</v>
+      </c>
+      <c r="F56" s="8">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="15">
-      <c r="A42" s="16">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="18">
+      <c r="G56" s="8">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15">
+      <c r="A57" s="5">
+        <v>5.3</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="7">
         <v>30</v>
       </c>
-      <c r="D42" s="18">
-        <v>50</v>
-      </c>
-      <c r="E42" s="18">
-        <v>40</v>
-      </c>
-      <c r="F42" s="19">
-        <f t="shared" si="2"/>
-        <v>53.333333333333336</v>
-      </c>
-      <c r="G42" s="19">
+      <c r="D57" s="7">
+        <v>60</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45</v>
+      </c>
+      <c r="F57" s="8">
         <f t="shared" si="3"/>
-        <v>13.333333333333334</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15">
-      <c r="A43" s="16">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="18">
-        <v>50</v>
-      </c>
-      <c r="D43" s="18">
-        <v>90</v>
-      </c>
-      <c r="E43" s="18">
-        <v>70</v>
-      </c>
-      <c r="F43" s="19">
-        <f t="shared" si="2"/>
-        <v>93.333333333333329</v>
-      </c>
-      <c r="G43" s="19">
-        <f t="shared" si="3"/>
-        <v>23.333333333333332</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15">
-      <c r="A44" s="16">
-        <v>2.4</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="18">
-        <v>50</v>
-      </c>
-      <c r="D44" s="18">
-        <v>100</v>
-      </c>
-      <c r="E44" s="18">
-        <v>75</v>
-      </c>
-      <c r="F44" s="19">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G44" s="19">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15">
-      <c r="A45" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="18">
-        <v>40</v>
-      </c>
-      <c r="D45" s="18">
-        <v>80</v>
-      </c>
-      <c r="E45" s="18">
-        <v>60</v>
-      </c>
-      <c r="F45" s="19">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="G45" s="19">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15">
-      <c r="A46" s="16">
-        <v>2.6</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="18">
-        <v>30</v>
-      </c>
-      <c r="D46" s="18">
-        <v>60</v>
-      </c>
-      <c r="E46" s="18">
-        <v>45</v>
-      </c>
-      <c r="F46" s="19">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="G46" s="19">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15">
-      <c r="A47" s="16">
-        <v>2.7</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="18">
-        <v>60</v>
-      </c>
-      <c r="D47" s="18">
-        <v>120</v>
-      </c>
-      <c r="E47" s="18">
-        <v>90</v>
-      </c>
-      <c r="F47" s="19">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="G47" s="19">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15">
-      <c r="A48" s="16">
-        <v>3.1</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="18">
-        <v>60</v>
-      </c>
-      <c r="D48" s="18">
-        <v>120</v>
-      </c>
-      <c r="E48" s="18">
-        <v>90</v>
-      </c>
-      <c r="F48" s="19">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="G48" s="19">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15">
-      <c r="A49" s="16">
-        <v>3.2</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="18">
-        <v>40</v>
-      </c>
-      <c r="D49" s="18">
-        <v>80</v>
-      </c>
-      <c r="E49" s="18">
-        <v>60</v>
-      </c>
-      <c r="F49" s="19">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="G49" s="19">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15">
-      <c r="A50" s="16">
-        <v>3.3</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="18">
-        <v>80</v>
-      </c>
-      <c r="D50" s="18">
-        <v>150</v>
-      </c>
-      <c r="E50" s="18">
-        <v>100</v>
-      </c>
-      <c r="F50" s="19">
-        <f t="shared" si="2"/>
-        <v>138.33333333333334</v>
-      </c>
-      <c r="G50" s="19">
-        <f>(C50+D50)/6</f>
-        <v>38.333333333333336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15">
-      <c r="A51" s="16">
-        <v>3.4</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="18">
-        <v>40</v>
-      </c>
-      <c r="D51" s="18">
-        <v>80</v>
-      </c>
-      <c r="E51" s="18">
-        <v>60</v>
-      </c>
-      <c r="F51" s="19">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="G51" s="19">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15">
-      <c r="A52" s="16">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="18">
-        <v>50</v>
-      </c>
-      <c r="D52" s="18">
-        <v>100</v>
-      </c>
-      <c r="E52" s="18">
-        <v>75</v>
-      </c>
-      <c r="F52" s="19">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G52" s="19">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15">
-      <c r="A53" s="16">
-        <v>4.2</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="18">
-        <v>40</v>
-      </c>
-      <c r="D53" s="18">
-        <v>80</v>
-      </c>
-      <c r="E53" s="18">
-        <v>60</v>
-      </c>
-      <c r="F53" s="19">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="G53" s="19">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15">
-      <c r="A54" s="16">
-        <v>4.3</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="18">
-        <v>60</v>
-      </c>
-      <c r="D54" s="18">
-        <v>120</v>
-      </c>
-      <c r="E54" s="18">
-        <v>90</v>
-      </c>
-      <c r="F54" s="19">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="G54" s="19">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15">
-      <c r="A55" s="16">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="18">
-        <v>50</v>
-      </c>
-      <c r="D55" s="18">
-        <v>100</v>
-      </c>
-      <c r="E55" s="18">
-        <v>75</v>
-      </c>
-      <c r="F55" s="19">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G55" s="19">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15">
-      <c r="A56" s="16">
-        <v>5.2</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="18">
-        <v>10</v>
-      </c>
-      <c r="D56" s="18">
-        <v>20</v>
-      </c>
-      <c r="E56" s="18">
-        <v>15</v>
-      </c>
-      <c r="F56" s="19">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G56" s="19">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15">
-      <c r="A57" s="16">
-        <v>5.3</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="18">
-        <v>30</v>
-      </c>
-      <c r="D57" s="18">
-        <v>60</v>
-      </c>
-      <c r="E57" s="18">
-        <v>45</v>
-      </c>
-      <c r="F57" s="19">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="G57" s="19">
-        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G57" s="8">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>

--- a/EconomicsSoftwareEngineering/Lab1.xlsx
+++ b/EconomicsSoftwareEngineering/Lab1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tolia\Documents\GitHub\ITMO-PE\EconomicsSoftwareEngineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/2398768715qq.com/GitHub/ITMO-PE/EconomicsSoftwareEngineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A990E2B-512D-4E40-B1C9-B7F1CCDBC8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7167C0B-B688-E944-A7B0-E3B6A9A08A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{343BDCF8-93BA-48B2-B1E2-DDA5B2F75838}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{343BDCF8-93BA-48B2-B1E2-DDA5B2F75838}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Method" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>Название</t>
   </si>
@@ -436,9 +447,6 @@
     <t>Проектирование и разработка RESTful API для взаимодействия фронтенда и бэкенда.</t>
   </si>
   <si>
-    <t>Безопасность и шифрование данных</t>
-  </si>
-  <si>
     <t>Реализация шифрования данных для хранения и обеспечение защищенной связи (например, через SSL/TLS).</t>
   </si>
   <si>
@@ -452,9 +460,6 @@
   </si>
   <si>
     <t>Тестирование полных пользовательских сценариев, включая регистрацию, заказ услуг, просмотр документации и т. д.</t>
-  </si>
-  <si>
-    <t>Alpha и Beta тестирование</t>
   </si>
   <si>
     <t>Проведение внутреннего тестирования и открытого тестирования основных функций, сбор обратной связи и оптимизация.</t>
@@ -688,7 +693,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Аутентификация и управление правами доступа</t>
+    <t>Безопасность и шифрование данных</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha и Beta тестирование</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +708,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,30 +732,11 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
       <family val="1"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -886,7 +876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -899,7 +889,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -908,80 +922,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1001,9 +949,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1041,7 +989,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1147,7 +1095,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1289,7 +1237,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1299,38 +1247,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF919840-9214-4EC6-8269-5D4BE3F124DF}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F28" sqref="D28:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="1" t="str">
@@ -1358,22 +1306,25 @@
         <v>最佳时间 (小时)</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A2" s="16">
+    <row r="2" spans="1:13" ht="16" thickBot="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8">
+        <f t="shared" ref="D2:E2" si="0">SUM(D3:D6)</f>
         <v>200</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="8">
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="F2" s="18">
-        <v>300</v>
+      <c r="F2" s="8">
+        <f>SUM(F3:F6)</f>
+        <v>290</v>
       </c>
       <c r="H2" s="1" t="str">
         <f>"1"</f>
@@ -1400,23 +1351,23 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="122.25" thickBot="1">
-      <c r="A3" s="16">
+    <row r="3" spans="1:13" ht="136" thickBot="1">
+      <c r="A3" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="8">
         <v>50</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="8">
         <v>100</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="8">
         <v>70</v>
       </c>
       <c r="H3" s="1" t="str">
@@ -1428,7 +1379,7 @@
         <v>网站原型</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K3" s="1" t="str">
         <f>"50"</f>
@@ -1443,23 +1394,23 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="210.75" thickBot="1">
-      <c r="A4" s="16">
+    <row r="4" spans="1:13" ht="226" thickBot="1">
+      <c r="A4" s="6">
         <v>1.2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="C4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="8">
         <v>10</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="8">
         <v>40</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="8">
         <v>20</v>
       </c>
       <c r="H4" s="1" t="str">
@@ -1486,23 +1437,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="135.75" thickBot="1">
-      <c r="A5" s="16">
+    <row r="5" spans="1:13" ht="151" thickBot="1">
+      <c r="A5" s="6">
         <v>1.3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="8">
         <v>100</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="8">
         <v>250</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="8">
         <v>150</v>
       </c>
       <c r="H5" s="1" t="str">
@@ -1514,7 +1465,7 @@
         <v>数据处理许可</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K5" s="1" t="str">
         <f>"100"</f>
@@ -1529,23 +1480,23 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="90.75" thickBot="1">
-      <c r="A6" s="16">
+    <row r="6" spans="1:13" ht="91" thickBot="1">
+      <c r="A6" s="6">
         <v>1.4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="8">
         <v>40</v>
       </c>
-      <c r="E6" s="18">
-        <v>60</v>
-      </c>
-      <c r="F6" s="18">
+      <c r="E6" s="8">
+        <v>60</v>
+      </c>
+      <c r="F6" s="8">
         <v>50</v>
       </c>
       <c r="H6" s="1" t="str">
@@ -1573,22 +1524,25 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A7" s="16">
+    <row r="7" spans="1:13" ht="16" thickBot="1">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18">
+      <c r="C7" s="7"/>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:E7" si="1">SUM(D8:D14)</f>
         <v>300</v>
       </c>
-      <c r="E7" s="18">
-        <v>500</v>
-      </c>
-      <c r="F7" s="18">
-        <v>400</v>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>580</v>
+      </c>
+      <c r="F7" s="8">
+        <f>SUM(F8:F14)</f>
+        <v>440</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>"2"</f>
@@ -1615,23 +1569,23 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="122.25" thickBot="1">
-      <c r="A8" s="16">
+    <row r="8" spans="1:13" ht="136" thickBot="1">
+      <c r="A8" s="6">
         <v>2.1</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="8">
         <v>40</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="8">
         <v>80</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="8">
         <v>60</v>
       </c>
       <c r="H8" s="1" t="str">
@@ -1643,7 +1597,7 @@
         <v>主页</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K8" s="1" t="str">
         <f>"40"</f>
@@ -1658,23 +1612,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="69.75" thickBot="1">
-      <c r="A9" s="16">
+    <row r="9" spans="1:13" ht="76" thickBot="1">
+      <c r="A9" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="8">
         <v>30</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="8">
         <v>50</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="8">
         <v>40</v>
       </c>
       <c r="H9" s="1" t="str">
@@ -1686,7 +1640,7 @@
         <v>登录/注册</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="str">
         <f>"30"</f>
@@ -1701,23 +1655,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="110.25" thickBot="1">
-      <c r="A10" s="16">
+    <row r="10" spans="1:13" ht="121" thickBot="1">
+      <c r="A10" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="8">
         <v>50</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="8">
         <v>90</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="8">
         <v>70</v>
       </c>
       <c r="H10" s="1" t="str">
@@ -1744,23 +1698,23 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="96.75" thickBot="1">
-      <c r="A11" s="16">
+    <row r="11" spans="1:13" ht="106" thickBot="1">
+      <c r="A11" s="6">
         <v>2.4</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="8">
         <v>50</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="8">
         <v>100</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="8">
         <v>75</v>
       </c>
       <c r="H11" s="1" t="str">
@@ -1787,23 +1741,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="81.75" thickBot="1">
-      <c r="A12" s="16">
+    <row r="12" spans="1:13" ht="91" thickBot="1">
+      <c r="A12" s="6">
         <v>2.5</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="8">
         <v>40</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="8">
         <v>80</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="8">
         <v>60</v>
       </c>
       <c r="H12" s="1" t="str">
@@ -1815,7 +1769,7 @@
         <v>支持中心</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K12" s="1" t="str">
         <f>"40"</f>
@@ -1830,23 +1784,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="81.75" thickBot="1">
-      <c r="A13" s="16">
+    <row r="13" spans="1:13" ht="91" thickBot="1">
+      <c r="A13" s="6">
         <v>2.6</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="8">
         <v>30</v>
       </c>
-      <c r="E13" s="18">
-        <v>60</v>
-      </c>
-      <c r="F13" s="18">
+      <c r="E13" s="8">
+        <v>60</v>
+      </c>
+      <c r="F13" s="8">
         <v>45</v>
       </c>
       <c r="H13" s="1" t="str">
@@ -1858,7 +1812,7 @@
         <v>文档页面</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K13" s="1" t="str">
         <f>"30"</f>
@@ -1873,23 +1827,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="108.75" thickBot="1">
-      <c r="A14" s="16">
+    <row r="14" spans="1:13" ht="121" thickBot="1">
+      <c r="A14" s="6">
         <v>2.7</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="18">
-        <v>60</v>
-      </c>
-      <c r="E14" s="18">
+      <c r="D14" s="8">
+        <v>60</v>
+      </c>
+      <c r="E14" s="8">
         <v>120</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="8">
         <v>90</v>
       </c>
       <c r="H14" s="1" t="str">
@@ -1901,7 +1855,7 @@
         <v>用户控制面板</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K14" s="1" t="str">
         <f>"60"</f>
@@ -1916,22 +1870,25 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A15" s="16">
+    <row r="15" spans="1:13" ht="16" thickBot="1">
+      <c r="A15" s="6">
         <v>3</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18">
-        <v>250</v>
-      </c>
-      <c r="E15" s="18">
-        <v>450</v>
-      </c>
-      <c r="F15" s="18">
-        <v>350</v>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8">
+        <f>SUM(D16:D19)</f>
+        <v>300</v>
+      </c>
+      <c r="E15" s="8">
+        <f>SUM(E16:E19)</f>
+        <v>560</v>
+      </c>
+      <c r="F15" s="8">
+        <f>SUM(F16:F19)</f>
+        <v>410</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>"3"</f>
@@ -1958,23 +1915,23 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="123.75" thickBot="1">
-      <c r="A16" s="16">
+    <row r="16" spans="1:13" ht="136" thickBot="1">
+      <c r="A16" s="6">
         <v>3.1</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="18">
-        <v>60</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="8">
+        <v>60</v>
+      </c>
+      <c r="E16" s="8">
         <v>120</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="8">
         <v>90</v>
       </c>
       <c r="H16" s="1" t="str">
@@ -2001,23 +1958,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="122.25" thickBot="1">
-      <c r="A17" s="16">
+    <row r="17" spans="1:13" ht="136" thickBot="1">
+      <c r="A17" s="6">
         <v>3.2</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="8">
         <v>40</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="8">
         <v>80</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="8">
         <v>60</v>
       </c>
       <c r="H17" s="1" t="str">
@@ -2029,7 +1986,7 @@
         <v>用户认证与权限管理</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K17" s="1" t="str">
         <f>"40"</f>
@@ -2044,24 +2001,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="84.75" thickBot="1">
-      <c r="A18" s="16">
+    <row r="18" spans="1:13" ht="106" thickBot="1">
+      <c r="A18" s="6">
         <v>3.3</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="18">
-        <v>80</v>
-      </c>
-      <c r="E18" s="18">
-        <v>150</v>
-      </c>
-      <c r="F18" s="18">
-        <v>100</v>
+      <c r="D18" s="8">
+        <v>160</v>
+      </c>
+      <c r="E18" s="8">
+        <v>280</v>
+      </c>
+      <c r="F18" s="8">
+        <v>200</v>
       </c>
       <c r="H18" s="1" t="str">
         <f>"3.3"</f>
@@ -2087,23 +2044,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="83.25" thickBot="1">
-      <c r="A19" s="16">
+    <row r="19" spans="1:13" ht="91" thickBot="1">
+      <c r="A19" s="6">
         <v>3.4</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="18">
+      <c r="D19" s="8">
         <v>40</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="8">
         <v>80</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="8">
         <v>60</v>
       </c>
       <c r="H19" s="1" t="str">
@@ -2130,22 +2087,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A20" s="16">
+    <row r="20" spans="1:13" ht="16" thickBot="1">
+      <c r="A20" s="6">
         <v>4</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18">
-        <v>150</v>
-      </c>
-      <c r="E20" s="18">
-        <v>300</v>
-      </c>
-      <c r="F20" s="18">
-        <v>200</v>
+      <c r="B20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8">
+        <f t="shared" ref="D20:E20" si="2">SUM(D21:D23)</f>
+        <v>145</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="2"/>
+        <v>308</v>
+      </c>
+      <c r="F20" s="8">
+        <f>SUM(F21:F23)</f>
+        <v>222</v>
       </c>
       <c r="H20" s="1" t="str">
         <f>"4"</f>
@@ -2172,24 +2132,24 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A21" s="16">
+    <row r="21" spans="1:13" ht="106" thickBot="1">
+      <c r="A21" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="18">
-        <v>50</v>
-      </c>
-      <c r="E21" s="18">
-        <v>100</v>
-      </c>
-      <c r="F21" s="18">
-        <v>75</v>
+      <c r="C21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="8">
+        <v>45</v>
+      </c>
+      <c r="E21" s="8">
+        <v>108</v>
+      </c>
+      <c r="F21" s="8">
+        <v>72</v>
       </c>
       <c r="H21" s="1" t="str">
         <f>"4.1"</f>
@@ -2200,7 +2160,7 @@
         <v>单元测试</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K21" s="1" t="str">
         <f>"50"</f>
@@ -2215,23 +2175,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="68.25" thickBot="1">
-      <c r="A22" s="16">
+    <row r="22" spans="1:13" ht="76" thickBot="1">
+      <c r="A22" s="6">
         <v>4.2</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="18">
+      <c r="C22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="8">
         <v>40</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="8">
         <v>80</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="8">
         <v>60</v>
       </c>
       <c r="H22" s="1" t="str">
@@ -2243,7 +2203,7 @@
         <v>集成测试</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K22" s="1" t="str">
         <f>"40"</f>
@@ -2258,23 +2218,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A23" s="16">
+    <row r="23" spans="1:13" ht="106" thickBot="1">
+      <c r="A23" s="6">
         <v>4.3</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="18">
-        <v>60</v>
-      </c>
-      <c r="E23" s="18">
+      <c r="C23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="8">
+        <v>60</v>
+      </c>
+      <c r="E23" s="8">
         <v>120</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="8">
         <v>90</v>
       </c>
       <c r="H23" s="1" t="str">
@@ -2286,7 +2246,7 @@
         <v>功能测试</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K23" s="1" t="str">
         <f>"60"</f>
@@ -2301,22 +2261,25 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A24" s="16">
+    <row r="24" spans="1:13" ht="16" thickBot="1">
+      <c r="A24" s="6">
         <v>5</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18">
-        <v>100</v>
-      </c>
-      <c r="E24" s="18">
-        <v>200</v>
-      </c>
-      <c r="F24" s="18">
-        <v>150</v>
+      <c r="B24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8">
+        <f t="shared" ref="D24:E24" si="3">SUM(D25:D27)</f>
+        <v>90</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="F24" s="8">
+        <f>SUM(F25:F27)</f>
+        <v>135</v>
       </c>
       <c r="H24" s="1" t="str">
         <f>"5"</f>
@@ -2343,23 +2306,23 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="95.25" thickBot="1">
-      <c r="A25" s="16">
+    <row r="25" spans="1:13" ht="106" thickBot="1">
+      <c r="A25" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="18">
+      <c r="B25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="8">
         <v>50</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="8">
         <v>100</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="8">
         <v>75</v>
       </c>
       <c r="H25" s="1" t="str">
@@ -2371,7 +2334,7 @@
         <v>Alpha和Beta测试</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K25" s="1" t="str">
         <f>"50"</f>
@@ -2386,23 +2349,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="84.75" thickBot="1">
-      <c r="A26" s="16">
+    <row r="26" spans="1:13" ht="91" thickBot="1">
+      <c r="A26" s="6">
         <v>5.2</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="18">
+      <c r="B26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="8">
         <v>10</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="8">
         <v>20</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="8">
         <v>15</v>
       </c>
       <c r="H26" s="1" t="str">
@@ -2429,23 +2392,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="81.75" thickBot="1">
-      <c r="A27" s="16">
+    <row r="27" spans="1:13" ht="91" thickBot="1">
+      <c r="A27" s="6">
         <v>5.3</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="18">
+      <c r="B27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="8">
         <v>30</v>
       </c>
-      <c r="E27" s="18">
-        <v>60</v>
-      </c>
-      <c r="F27" s="18">
+      <c r="E27" s="8">
+        <v>60</v>
+      </c>
+      <c r="F27" s="8">
         <v>45</v>
       </c>
       <c r="H27" s="1" t="str">
@@ -2457,7 +2420,7 @@
         <v>服务器部署</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K27" s="1" t="str">
         <f>"30"</f>
@@ -2472,22 +2435,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:13" ht="16" thickBot="1">
+      <c r="A28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18">
-        <v>1000</v>
-      </c>
-      <c r="E28" s="18">
-        <v>1950</v>
-      </c>
-      <c r="F28" s="18">
-        <v>1400</v>
+      <c r="B28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8">
+        <f t="shared" ref="D28:E28" si="4">SUM(D25:D27,D21:D23,D16:D19,D8:D14,D3:D6)</f>
+        <v>1035</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="4"/>
+        <v>2078</v>
+      </c>
+      <c r="F28" s="8">
+        <f>SUM(F25:F27,F21:F23,F16:F19,F8:F14,F3:F6)</f>
+        <v>1497</v>
       </c>
       <c r="H28" s="1" t="str">
         <f>"Z"</f>
@@ -2517,1243 +2483,683 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E0DD2C-E896-F14F-9EB7-F7E140FCF726}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="3"/>
-    <col min="2" max="2" width="42.375" style="3" customWidth="1"/>
-    <col min="3" max="5" width="10.875" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="42.33203125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.875" style="3"/>
+    <col min="7" max="7" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="16" thickBot="1">
+      <c r="A3" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="8">
         <v>50</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="8">
         <v>100</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="8">
         <v>70</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="10">
         <f>(C3+D3+6*E3)/6</f>
         <v>95</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="10">
         <f>(D3-E3)/6</f>
         <v>5</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="12">
         <f>G3^2</f>
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="25">
+    <row r="4" spans="1:8" ht="16" thickBot="1">
+      <c r="A4" s="6">
         <v>1.2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="8">
         <v>10</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="8">
         <v>40</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="8">
         <v>20</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="10">
         <f t="shared" ref="F4:F23" si="0">(C4+D4+6*E4)/6</f>
         <v>28.333333333333332</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="10">
         <f t="shared" ref="G4:G23" si="1">(D4-E4)/6</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="12">
         <f t="shared" ref="H4:H23" si="2">G4^2</f>
         <v>11.111111111111112</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
-      <c r="A5" s="25">
+    <row r="5" spans="1:8" ht="16" thickBot="1">
+      <c r="A5" s="6">
         <v>1.3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="8">
         <v>100</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="8">
         <v>250</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="8">
         <v>150</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>208.33333333333334</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="10">
         <f t="shared" si="1"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="12">
         <f t="shared" si="2"/>
         <v>277.77777777777783</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
-      <c r="A6" s="25">
+    <row r="6" spans="1:8" ht="16" thickBot="1">
+      <c r="A6" s="6">
         <v>1.4</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="8">
         <v>40</v>
       </c>
-      <c r="D6" s="27">
-        <v>60</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="D6" s="8">
+        <v>60</v>
+      </c>
+      <c r="E6" s="8">
         <v>50</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="10">
         <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="12">
         <f t="shared" si="2"/>
         <v>2.7777777777777781</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15">
-      <c r="A7" s="25">
+    <row r="7" spans="1:8" ht="16" thickBot="1">
+      <c r="A7" s="6">
         <v>2.1</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="8">
         <v>40</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="8">
         <v>80</v>
       </c>
-      <c r="E7" s="27">
-        <v>60</v>
-      </c>
-      <c r="F7" s="28">
+      <c r="E7" s="8">
+        <v>60</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="10">
         <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="12">
         <f t="shared" si="2"/>
         <v>11.111111111111112</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
-      <c r="A8" s="25">
+    <row r="8" spans="1:8" ht="16" thickBot="1">
+      <c r="A8" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="8">
         <v>30</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="8">
         <v>50</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="8">
         <v>40</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>53.333333333333336</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="10">
         <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="12">
         <f t="shared" si="2"/>
         <v>2.7777777777777781</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
-      <c r="A9" s="25">
+    <row r="9" spans="1:8" ht="16" thickBot="1">
+      <c r="A9" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="8">
         <v>50</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="8">
         <v>90</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="8">
         <v>70</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>93.333333333333329</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="10">
         <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="12">
         <f t="shared" si="2"/>
         <v>11.111111111111112</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
-      <c r="A10" s="25">
+    <row r="10" spans="1:8" ht="16" thickBot="1">
+      <c r="A10" s="6">
         <v>2.4</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="8">
         <v>50</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="8">
         <v>100</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="8">
         <v>75</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="10">
         <f t="shared" si="1"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="12">
         <f t="shared" si="2"/>
         <v>17.361111111111114</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15">
-      <c r="A11" s="25">
+    <row r="11" spans="1:8" ht="16" thickBot="1">
+      <c r="A11" s="6">
         <v>2.5</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="8">
         <v>40</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="8">
         <v>80</v>
       </c>
-      <c r="E11" s="27">
-        <v>60</v>
-      </c>
-      <c r="F11" s="28">
+      <c r="E11" s="8">
+        <v>60</v>
+      </c>
+      <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="10">
         <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="12">
         <f t="shared" si="2"/>
         <v>11.111111111111112</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15">
-      <c r="A12" s="25">
+    <row r="12" spans="1:8" ht="16" thickBot="1">
+      <c r="A12" s="6">
         <v>2.6</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="8">
         <v>30</v>
       </c>
-      <c r="D12" s="27">
-        <v>60</v>
-      </c>
-      <c r="E12" s="27">
+      <c r="D12" s="8">
+        <v>60</v>
+      </c>
+      <c r="E12" s="8">
         <v>45</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="10">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="10">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="12">
         <f t="shared" si="2"/>
         <v>6.25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15">
-      <c r="A13" s="25">
+    <row r="13" spans="1:8" ht="16" thickBot="1">
+      <c r="A13" s="6">
         <v>2.7</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="27">
-        <v>60</v>
-      </c>
-      <c r="D13" s="27">
+      <c r="C13" s="8">
+        <v>60</v>
+      </c>
+      <c r="D13" s="8">
         <v>120</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="8">
         <v>90</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="12">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15">
-      <c r="A14" s="25">
+    <row r="14" spans="1:8" ht="16" thickBot="1">
+      <c r="A14" s="6">
         <v>3.1</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="27">
-        <v>60</v>
-      </c>
-      <c r="D14" s="27">
+      <c r="C14" s="8">
+        <v>60</v>
+      </c>
+      <c r="D14" s="8">
         <v>120</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="8">
         <v>90</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="10">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="12">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15">
-      <c r="A15" s="25">
+    <row r="15" spans="1:8" ht="16" thickBot="1">
+      <c r="A15" s="6">
         <v>3.2</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="27">
+      <c r="B15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="8">
         <v>40</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="8">
         <v>80</v>
       </c>
-      <c r="E15" s="27">
-        <v>60</v>
-      </c>
-      <c r="F15" s="28">
+      <c r="E15" s="8">
+        <v>60</v>
+      </c>
+      <c r="F15" s="10">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="10">
         <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="12">
         <f t="shared" si="2"/>
         <v>11.111111111111112</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15">
-      <c r="A16" s="25">
+    <row r="16" spans="1:8" ht="16" thickBot="1">
+      <c r="A16" s="6">
         <v>3.3</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="B16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="8">
+        <v>160</v>
+      </c>
+      <c r="D16" s="8">
+        <v>280</v>
+      </c>
+      <c r="E16" s="8">
+        <v>200</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>273.33333333333331</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="2"/>
+        <v>177.7777777777778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16" thickBot="1">
+      <c r="A17" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="8">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8">
         <v>80</v>
       </c>
-      <c r="D16" s="27">
-        <v>150</v>
-      </c>
-      <c r="E16" s="27">
-        <v>100</v>
-      </c>
-      <c r="F16" s="28">
-        <f t="shared" si="0"/>
-        <v>138.33333333333334</v>
-      </c>
-      <c r="G16" s="28">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="H16" s="31">
-        <f t="shared" si="2"/>
-        <v>69.444444444444457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="25">
-        <v>3.4</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="27">
-        <v>40</v>
-      </c>
-      <c r="D17" s="27">
-        <v>80</v>
-      </c>
-      <c r="E17" s="27">
-        <v>60</v>
-      </c>
-      <c r="F17" s="28">
+      <c r="E17" s="8">
+        <v>60</v>
+      </c>
+      <c r="F17" s="10">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="10">
         <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="12">
         <f t="shared" si="2"/>
         <v>11.111111111111112</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="25">
+    <row r="18" spans="1:9" ht="16" thickBot="1">
+      <c r="A18" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="8">
+        <v>45</v>
+      </c>
+      <c r="D18" s="8">
+        <v>108</v>
+      </c>
+      <c r="E18" s="8">
+        <v>72</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>97.5</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16" thickBot="1">
+      <c r="A19" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8">
+        <v>40</v>
+      </c>
+      <c r="D19" s="8">
+        <v>80</v>
+      </c>
+      <c r="E19" s="8">
+        <v>60</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" si="2"/>
+        <v>11.111111111111112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16" thickBot="1">
+      <c r="A20" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8">
+        <v>120</v>
+      </c>
+      <c r="E20" s="8">
+        <v>90</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16" thickBot="1">
+      <c r="A21" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="8">
         <v>50</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D21" s="8">
         <v>100</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E21" s="8">
         <v>75</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F21" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G21" s="10">
         <f t="shared" si="1"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H21" s="12">
         <f t="shared" si="2"/>
         <v>17.361111111111114</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="25">
-        <v>4.2</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="27">
-        <v>40</v>
-      </c>
-      <c r="D19" s="27">
-        <v>80</v>
-      </c>
-      <c r="E19" s="27">
-        <v>60</v>
-      </c>
-      <c r="F19" s="28">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="G19" s="28">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="H19" s="31">
-        <f t="shared" si="2"/>
-        <v>11.111111111111112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15">
-      <c r="A20" s="25">
-        <v>4.3</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="27">
-        <v>60</v>
-      </c>
-      <c r="D20" s="27">
-        <v>120</v>
-      </c>
-      <c r="E20" s="27">
-        <v>90</v>
-      </c>
-      <c r="F20" s="28">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="G20" s="28">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H20" s="31">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15">
-      <c r="A21" s="25">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B21" s="26" t="s">
+    <row r="22" spans="1:9" ht="16" thickBot="1">
+      <c r="A22" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="27">
-        <v>50</v>
-      </c>
-      <c r="D21" s="27">
-        <v>100</v>
-      </c>
-      <c r="E21" s="27">
-        <v>75</v>
-      </c>
-      <c r="F21" s="28">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G21" s="28">
-        <f t="shared" si="1"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="H21" s="31">
-        <f t="shared" si="2"/>
-        <v>17.361111111111114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15">
-      <c r="A22" s="25">
-        <v>5.2</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="27">
+      <c r="C22" s="8">
         <v>10</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="8">
         <v>20</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="8">
         <v>15</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="10">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="12">
         <f t="shared" si="2"/>
         <v>0.69444444444444453</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15">
-      <c r="A23" s="25">
+    <row r="23" spans="1:9" ht="16" thickBot="1">
+      <c r="A23" s="6">
         <v>5.3</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="27">
+      <c r="B23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="8">
         <v>30</v>
       </c>
-      <c r="D23" s="27">
-        <v>60</v>
-      </c>
-      <c r="E23" s="27">
+      <c r="D23" s="8">
+        <v>60</v>
+      </c>
+      <c r="E23" s="8">
         <v>45</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="10">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="10">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="12">
         <f t="shared" si="2"/>
         <v>6.25</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="30">
-        <f>SUM(F37:F57)</f>
-        <v>1883.3333333333333</v>
+    <row r="24" spans="1:9">
+      <c r="F24" s="11">
+        <f>SUM(F3:F23)</f>
+        <v>2015.8333333333333</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="3">
         <f>SQRT(SUM(H3:H23))</f>
-        <v>24.409697526461347</v>
+        <v>26.88504334301054</v>
       </c>
       <c r="I24" s="3">
         <f>F24+2*H24</f>
-        <v>1932.1527283862561</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="9"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" ht="15">
-      <c r="A37" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="7">
-        <v>50</v>
-      </c>
-      <c r="D37" s="7">
-        <v>100</v>
-      </c>
-      <c r="E37" s="7">
-        <v>70</v>
-      </c>
-      <c r="F37" s="8">
-        <f>(C37+D37+6*E37)/6</f>
-        <v>95</v>
-      </c>
-      <c r="G37" s="8">
-        <f>(C37+D37)/6</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15">
-      <c r="A38" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="7">
-        <v>10</v>
-      </c>
-      <c r="D38" s="7">
-        <v>40</v>
-      </c>
-      <c r="E38" s="7">
-        <v>20</v>
-      </c>
-      <c r="F38" s="8">
-        <f t="shared" ref="F38:F57" si="3">(C38+D38+6*E38)/6</f>
-        <v>28.333333333333332</v>
-      </c>
-      <c r="G38" s="8">
-        <f t="shared" ref="G38:G57" si="4">(C38+D38)/6</f>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15">
-      <c r="A39" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="7">
-        <v>100</v>
-      </c>
-      <c r="D39" s="7">
-        <v>250</v>
-      </c>
-      <c r="E39" s="7">
-        <v>150</v>
-      </c>
-      <c r="F39" s="8">
-        <f t="shared" si="3"/>
-        <v>208.33333333333334</v>
-      </c>
-      <c r="G39" s="8">
-        <f t="shared" si="4"/>
-        <v>58.333333333333336</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15">
-      <c r="A40" s="5">
-        <v>1.4</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="7">
-        <v>40</v>
-      </c>
-      <c r="D40" s="7">
-        <v>60</v>
-      </c>
-      <c r="E40" s="7">
-        <v>50</v>
-      </c>
-      <c r="F40" s="8">
-        <f t="shared" si="3"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="G40" s="8">
-        <f t="shared" si="4"/>
-        <v>16.666666666666668</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15">
-      <c r="A41" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="7">
-        <v>40</v>
-      </c>
-      <c r="D41" s="7">
-        <v>80</v>
-      </c>
-      <c r="E41" s="7">
-        <v>60</v>
-      </c>
-      <c r="F41" s="8">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="G41" s="8">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15">
-      <c r="A42" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="7">
-        <v>30</v>
-      </c>
-      <c r="D42" s="7">
-        <v>50</v>
-      </c>
-      <c r="E42" s="7">
-        <v>40</v>
-      </c>
-      <c r="F42" s="8">
-        <f t="shared" si="3"/>
-        <v>53.333333333333336</v>
-      </c>
-      <c r="G42" s="8">
-        <f t="shared" si="4"/>
-        <v>13.333333333333334</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15">
-      <c r="A43" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="7">
-        <v>50</v>
-      </c>
-      <c r="D43" s="7">
-        <v>90</v>
-      </c>
-      <c r="E43" s="7">
-        <v>70</v>
-      </c>
-      <c r="F43" s="8">
-        <f t="shared" si="3"/>
-        <v>93.333333333333329</v>
-      </c>
-      <c r="G43" s="8">
-        <f t="shared" si="4"/>
-        <v>23.333333333333332</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15">
-      <c r="A44" s="5">
-        <v>2.4</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="7">
-        <v>50</v>
-      </c>
-      <c r="D44" s="7">
-        <v>100</v>
-      </c>
-      <c r="E44" s="7">
-        <v>75</v>
-      </c>
-      <c r="F44" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="G44" s="8">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15">
-      <c r="A45" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="7">
-        <v>40</v>
-      </c>
-      <c r="D45" s="7">
-        <v>80</v>
-      </c>
-      <c r="E45" s="7">
-        <v>60</v>
-      </c>
-      <c r="F45" s="8">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="G45" s="8">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15">
-      <c r="A46" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="7">
-        <v>30</v>
-      </c>
-      <c r="D46" s="7">
-        <v>60</v>
-      </c>
-      <c r="E46" s="7">
-        <v>45</v>
-      </c>
-      <c r="F46" s="8">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="G46" s="8">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15">
-      <c r="A47" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="7">
-        <v>60</v>
-      </c>
-      <c r="D47" s="7">
-        <v>120</v>
-      </c>
-      <c r="E47" s="7">
-        <v>90</v>
-      </c>
-      <c r="F47" s="8">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="G47" s="8">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15">
-      <c r="A48" s="5">
-        <v>3.1</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="7">
-        <v>60</v>
-      </c>
-      <c r="D48" s="7">
-        <v>120</v>
-      </c>
-      <c r="E48" s="7">
-        <v>90</v>
-      </c>
-      <c r="F48" s="8">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="G48" s="8">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15">
-      <c r="A49" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="7">
-        <v>40</v>
-      </c>
-      <c r="D49" s="7">
-        <v>80</v>
-      </c>
-      <c r="E49" s="7">
-        <v>60</v>
-      </c>
-      <c r="F49" s="8">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="G49" s="8">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15">
-      <c r="A50" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="7">
-        <v>80</v>
-      </c>
-      <c r="D50" s="7">
-        <v>150</v>
-      </c>
-      <c r="E50" s="7">
-        <v>100</v>
-      </c>
-      <c r="F50" s="8">
-        <f t="shared" si="3"/>
-        <v>138.33333333333334</v>
-      </c>
-      <c r="G50" s="8">
-        <f>(C50+D50)/6</f>
-        <v>38.333333333333336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15">
-      <c r="A51" s="5">
-        <v>3.4</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="7">
-        <v>40</v>
-      </c>
-      <c r="D51" s="7">
-        <v>80</v>
-      </c>
-      <c r="E51" s="7">
-        <v>60</v>
-      </c>
-      <c r="F51" s="8">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="G51" s="8">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15">
-      <c r="A52" s="5">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="7">
-        <v>50</v>
-      </c>
-      <c r="D52" s="7">
-        <v>100</v>
-      </c>
-      <c r="E52" s="7">
-        <v>75</v>
-      </c>
-      <c r="F52" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="G52" s="8">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15">
-      <c r="A53" s="5">
-        <v>4.2</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="7">
-        <v>40</v>
-      </c>
-      <c r="D53" s="7">
-        <v>80</v>
-      </c>
-      <c r="E53" s="7">
-        <v>60</v>
-      </c>
-      <c r="F53" s="8">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="G53" s="8">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15">
-      <c r="A54" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="7">
-        <v>60</v>
-      </c>
-      <c r="D54" s="7">
-        <v>120</v>
-      </c>
-      <c r="E54" s="7">
-        <v>90</v>
-      </c>
-      <c r="F54" s="8">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="G54" s="8">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15">
-      <c r="A55" s="5">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="7">
-        <v>50</v>
-      </c>
-      <c r="D55" s="7">
-        <v>100</v>
-      </c>
-      <c r="E55" s="7">
-        <v>75</v>
-      </c>
-      <c r="F55" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="G55" s="8">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15">
-      <c r="A56" s="5">
-        <v>5.2</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="7">
-        <v>10</v>
-      </c>
-      <c r="D56" s="7">
-        <v>20</v>
-      </c>
-      <c r="E56" s="7">
-        <v>15</v>
-      </c>
-      <c r="F56" s="8">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="G56" s="8">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15">
-      <c r="A57" s="5">
-        <v>5.3</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="7">
-        <v>30</v>
-      </c>
-      <c r="D57" s="7">
-        <v>60</v>
-      </c>
-      <c r="E57" s="7">
-        <v>45</v>
-      </c>
-      <c r="F57" s="8">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="G57" s="8">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <v>2069.6034200193544</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -3761,10 +3167,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EconomicsSoftwareEngineering/Lab1.xlsx
+++ b/EconomicsSoftwareEngineering/Lab1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/2398768715qq.com/GitHub/ITMO-PE/EconomicsSoftwareEngineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7167C0B-B688-E944-A7B0-E3B6A9A08A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E2CAFE-CA08-674D-A876-CEA46B0A1649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{343BDCF8-93BA-48B2-B1E2-DDA5B2F75838}"/>
+    <workbookView xWindow="16980" yWindow="7380" windowWidth="25600" windowHeight="18400" activeTab="1" xr2:uid="{343BDCF8-93BA-48B2-B1E2-DDA5B2F75838}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Method" sheetId="1" r:id="rId1"/>
-    <sheet name="PERT Method" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="PERT Method" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="169">
   <si>
     <t>Название</t>
   </si>
@@ -700,6 +701,282 @@
     <t>Alpha и Beta тестирование</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Функция</t>
+  </si>
+  <si>
+    <t>Тип транзакции</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>EO</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>Изменяет поведение системы</t>
+  </si>
+  <si>
+    <t>О</t>
+  </si>
+  <si>
+    <t>Д</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Поддержка одного или более ILF</t>
+  </si>
+  <si>
+    <t>Представление информации пользователю</t>
+  </si>
+  <si>
+    <t>Сложность данных</t>
+  </si>
+  <si>
+    <t>Количество UFP (ILF)</t>
+  </si>
+  <si>
+    <t>Количество UFP (EIF)</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>1-10 DET</t>
+  </si>
+  <si>
+    <t>11-20 DET</t>
+  </si>
+  <si>
+    <t>20+ DET</t>
+  </si>
+  <si>
+    <t>1 RET</t>
+  </si>
+  <si>
+    <t>2-5 RET</t>
+  </si>
+  <si>
+    <t>6+ RET</t>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RET</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>Сложность</t>
+  </si>
+  <si>
+    <t>UFP</t>
+  </si>
+  <si>
+    <t>Форма регистрации</t>
+  </si>
+  <si>
+    <t>Данные входа, личная информация (2)</t>
+  </si>
+  <si>
+    <t>Email, пароль, имя, фамилия, пол, дата рождения, город, телефон (9)</t>
+  </si>
+  <si>
+    <t>Сложность транзакций</t>
+  </si>
+  <si>
+    <t>Количество UFP (EI &amp; EQ)</t>
+  </si>
+  <si>
+    <t>Количество UFP (EO)</t>
+  </si>
+  <si>
+    <t>Название фактора</t>
+  </si>
+  <si>
+    <t>Уровень фактора</t>
+  </si>
+  <si>
+    <t>Значение уровня</t>
+  </si>
+  <si>
+    <t>PREC</t>
+  </si>
+  <si>
+    <t>FLEX</t>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESL</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMAT</t>
+  </si>
+  <si>
+    <t>Very Low</t>
+  </si>
+  <si>
+    <t>Технический фактор</t>
+  </si>
+  <si>
+    <t>Масса</t>
+  </si>
+  <si>
+    <t>Воспринимаемая сложность</t>
+  </si>
+  <si>
+    <t>Рассчитанный фактор</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Распределенная система</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Производительность</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Эффективность для конечного пользователя</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Сложная внутренняя обработка</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>Возможность повторного использования</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>Легко установить</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>Легко использовать</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>Портативный</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>Легко изменить</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>Параллельный</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>Специальные функции безопасности</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>Предоставляет прямой доступ третьим лицам</t>
+  </si>
+  <si>
+    <t>Фактор</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Знакомство с UML</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>Опыт применения</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>Объектно-ориентированный опыт</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>Возможности ведущего аналитика</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>Мотивация</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>Требования к стабильности</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>Неполный рабочий день</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>Сложный язык программирования</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>Требуются специальные условия для обучения пользователей.</t>
+  </si>
 </sst>
 </file>
 
@@ -708,7 +985,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,6 +1036,31 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -876,7 +1178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,6 +1218,30 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -928,8 +1254,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1247,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF919840-9214-4EC6-8269-5D4BE3F124DF}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F28" sqref="D28:F28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2488,6 +2829,2209 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8665DC3-5A6D-2D43-B744-93D514722791}">
+  <dimension ref="A1:G168"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155:A168"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="19"/>
+      <c r="B2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="str">
+        <f>"№"</f>
+        <v>№</v>
+      </c>
+      <c r="B8" t="str">
+        <f>"Параметр"</f>
+        <v>Параметр</v>
+      </c>
+      <c r="C8" t="str">
+        <f>"Вес (DI)"</f>
+        <v>Вес (DI)</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" ref="D8:D22" si="0">"|"</f>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="B9" t="str">
+        <f>"Обмен данными"</f>
+        <v>Обмен данными</v>
+      </c>
+      <c r="C9" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="B10" t="str">
+        <f>"Распределенная обработка данных"</f>
+        <v>Распределенная обработка данных</v>
+      </c>
+      <c r="C10" t="str">
+        <f>"0"</f>
+        <v>0</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="B11" t="str">
+        <f>"Производительность"</f>
+        <v>Производительность</v>
+      </c>
+      <c r="C11" t="str">
+        <f>"0"</f>
+        <v>0</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="B12" t="str">
+        <f>"Ограничения по аппаратным ресурсам"</f>
+        <v>Ограничения по аппаратным ресурсам</v>
+      </c>
+      <c r="C12" t="str">
+        <f>"0"</f>
+        <v>0</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="B13" t="str">
+        <f>"Транзакционная нагрузка"</f>
+        <v>Транзакционная нагрузка</v>
+      </c>
+      <c r="C13" t="str">
+        <f>"0"</f>
+        <v>0</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="B14" t="str">
+        <f>"Интенсивность взаимодействия с пользователем"</f>
+        <v>Интенсивность взаимодействия с пользователем</v>
+      </c>
+      <c r="C14" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="B15" t="str">
+        <f>"Эргономика"</f>
+        <v>Эргономика</v>
+      </c>
+      <c r="C15" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="B16" t="str">
+        <f>"Интенсивность изменения данных"</f>
+        <v>Интенсивность изменения данных</v>
+      </c>
+      <c r="C16" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="str">
+        <f>"9"</f>
+        <v>9</v>
+      </c>
+      <c r="B17" t="str">
+        <f>"Сложность обработки"</f>
+        <v>Сложность обработки</v>
+      </c>
+      <c r="C17" t="str">
+        <f>"0"</f>
+        <v>0</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="str">
+        <f>"10"</f>
+        <v>10</v>
+      </c>
+      <c r="B18" t="str">
+        <f>"Повторное использование"</f>
+        <v>Повторное использование</v>
+      </c>
+      <c r="C18" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="str">
+        <f>"11"</f>
+        <v>11</v>
+      </c>
+      <c r="B19" t="str">
+        <f>"Удобство инсталляции"</f>
+        <v>Удобство инсталляции</v>
+      </c>
+      <c r="C19" t="str">
+        <f>"0"</f>
+        <v>0</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="str">
+        <f>"12"</f>
+        <v>12</v>
+      </c>
+      <c r="B20" t="str">
+        <f>"Удобство администрирования"</f>
+        <v>Удобство администрирования</v>
+      </c>
+      <c r="C20" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="str">
+        <f>"13"</f>
+        <v>13</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"Портируемость"</f>
+        <v>Портируемость</v>
+      </c>
+      <c r="C21" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="str">
+        <f>"14"</f>
+        <v>14</v>
+      </c>
+      <c r="B22" t="str">
+        <f>"Гибкость"</f>
+        <v>Гибкость</v>
+      </c>
+      <c r="C22" t="str">
+        <f>"0"</f>
+        <v>0</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="14">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="14">
+        <v>10</v>
+      </c>
+      <c r="C27" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="14">
+        <v>15</v>
+      </c>
+      <c r="C28" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" thickBot="1"/>
+    <row r="31" spans="1:4" ht="16" thickBot="1">
+      <c r="A31" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16" thickBot="1">
+      <c r="A32" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16" thickBot="1">
+      <c r="A33" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16" thickBot="1">
+      <c r="A34" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16" thickBot="1"/>
+    <row r="37" spans="1:6" ht="16" thickBot="1">
+      <c r="A37" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="91" thickBot="1">
+      <c r="A38" s="17">
+        <v>1</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16" thickBot="1">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="str">
+        <f>"№"</f>
+        <v>№</v>
+      </c>
+      <c r="B42" t="str">
+        <f>"Название"</f>
+        <v>Название</v>
+      </c>
+      <c r="C42" t="str">
+        <f>"RET"</f>
+        <v>RET</v>
+      </c>
+      <c r="D42" t="str">
+        <f>"DET"</f>
+        <v>DET</v>
+      </c>
+      <c r="E42" t="str">
+        <f>"Сложность"</f>
+        <v>Сложность</v>
+      </c>
+      <c r="F42" t="str">
+        <f>"UFP"</f>
+        <v>UFP</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="B43" t="str">
+        <f>"Форма регистрации"</f>
+        <v>Форма регистрации</v>
+      </c>
+      <c r="C43" t="str">
+        <f>"Данные входа, личная информация (2)"</f>
+        <v>Данные входа, личная информация (2)</v>
+      </c>
+      <c r="D43" t="str">
+        <f>"Email, пароль, имя, фамилия, пол, дата рождения, город, телефон (9)"</f>
+        <v>Email, пароль, имя, фамилия, пол, дата рождения, город, телефон (9)</v>
+      </c>
+      <c r="E43" t="str">
+        <f>"Low"</f>
+        <v>Low</v>
+      </c>
+      <c r="F43" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="B44" t="str">
+        <f>"Авторизация (логин)"</f>
+        <v>Авторизация (логин)</v>
+      </c>
+      <c r="C44" t="str">
+        <f>"Данные входа (1)"</f>
+        <v>Данные входа (1)</v>
+      </c>
+      <c r="D44" t="str">
+        <f>"Email, пароль (2)"</f>
+        <v>Email, пароль (2)</v>
+      </c>
+      <c r="E44" t="str">
+        <f>"Low"</f>
+        <v>Low</v>
+      </c>
+      <c r="F44" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="B45" t="str">
+        <f>"Система оплаты"</f>
+        <v>Система оплаты</v>
+      </c>
+      <c r="C45" t="str">
+        <f>"Заказ, информация о платеже (2)"</f>
+        <v>Заказ, информация о платеже (2)</v>
+      </c>
+      <c r="D45" t="str">
+        <f>"Сумма, дата, метод оплаты (4)"</f>
+        <v>Сумма, дата, метод оплаты (4)</v>
+      </c>
+      <c r="E45" t="str">
+        <f>"Average"</f>
+        <v>Average</v>
+      </c>
+      <c r="F45" t="str">
+        <f>"10"</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="B46" t="str">
+        <f>"Просмотр услуг"</f>
+        <v>Просмотр услуг</v>
+      </c>
+      <c r="C46" t="str">
+        <f>"Каталог услуг (1)"</f>
+        <v>Каталог услуг (1)</v>
+      </c>
+      <c r="D46" t="str">
+        <f>"Название услуги, описание, цена, тип, доступность (5)"</f>
+        <v>Название услуги, описание, цена, тип, доступность (5)</v>
+      </c>
+      <c r="E46" t="str">
+        <f>"Low"</f>
+        <v>Low</v>
+      </c>
+      <c r="F46" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="B47" t="str">
+        <f>"Заказ услуги"</f>
+        <v>Заказ услуги</v>
+      </c>
+      <c r="C47" t="str">
+        <f>"Заказ, информация о платеже (2)"</f>
+        <v>Заказ, информация о платеже (2)</v>
+      </c>
+      <c r="D47" t="str">
+        <f>"Услуга, дата заказа, сумма, метод оплаты, контактные данные (6)"</f>
+        <v>Услуга, дата заказа, сумма, метод оплаты, контактные данные (6)</v>
+      </c>
+      <c r="E47" t="str">
+        <f>"Average"</f>
+        <v>Average</v>
+      </c>
+      <c r="F47" t="str">
+        <f>"10"</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="B48" t="str">
+        <f>"Личный кабинет"</f>
+        <v>Личный кабинет</v>
+      </c>
+      <c r="C48" t="str">
+        <f>"Данные пользователя (3)"</f>
+        <v>Данные пользователя (3)</v>
+      </c>
+      <c r="D48" t="str">
+        <f>"Имя, фамилия, email, телефон, адрес, история заказов, предпочтения (8)"</f>
+        <v>Имя, фамилия, email, телефон, адрес, история заказов, предпочтения (8)</v>
+      </c>
+      <c r="E48" t="str">
+        <f>"High"</f>
+        <v>High</v>
+      </c>
+      <c r="F48" t="str">
+        <f>"15"</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="B49" t="str">
+        <f>"Контакт с поддержкой"</f>
+        <v>Контакт с поддержкой</v>
+      </c>
+      <c r="C49" t="str">
+        <f>"Обращение пользователя (1)"</f>
+        <v>Обращение пользователя (1)</v>
+      </c>
+      <c r="D49" t="str">
+        <f>"Тема запроса, описание, дата, статус, приоритет (5)"</f>
+        <v>Тема запроса, описание, дата, статус, приоритет (5)</v>
+      </c>
+      <c r="E49" t="str">
+        <f>"Average"</f>
+        <v>Average</v>
+      </c>
+      <c r="F49" t="str">
+        <f>"10"</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="B50" t="str">
+        <f>"Отчеты по заказам"</f>
+        <v>Отчеты по заказам</v>
+      </c>
+      <c r="C50" t="str">
+        <f>"История заказов (1)"</f>
+        <v>История заказов (1)</v>
+      </c>
+      <c r="D50" t="str">
+        <f>"Заказ, дата, статус, сумма, услуги (5)"</f>
+        <v>Заказ, дата, статус, сумма, услуги (5)</v>
+      </c>
+      <c r="E50" t="str">
+        <f>"Average"</f>
+        <v>Average</v>
+      </c>
+      <c r="F50" t="str">
+        <f>"10"</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="str">
+        <f>"9"</f>
+        <v>9</v>
+      </c>
+      <c r="B51" t="str">
+        <f>"Регистрация оплаты"</f>
+        <v>Регистрация оплаты</v>
+      </c>
+      <c r="C51" t="str">
+        <f>"Данные о платеже (2)"</f>
+        <v>Данные о платеже (2)</v>
+      </c>
+      <c r="D51" t="str">
+        <f>"Сумма, дата, метод оплаты, статус (4)"</f>
+        <v>Сумма, дата, метод оплаты, статус (4)</v>
+      </c>
+      <c r="E51" t="str">
+        <f>"Average"</f>
+        <v>Average</v>
+      </c>
+      <c r="F51" t="str">
+        <f>"10"</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="str">
+        <f>"10"</f>
+        <v>10</v>
+      </c>
+      <c r="B52" t="str">
+        <f>"Продуктовый каталог"</f>
+        <v>Продуктовый каталог</v>
+      </c>
+      <c r="C52" t="str">
+        <f>"Данные товаров/услуг (1)"</f>
+        <v>Данные товаров/услуг (1)</v>
+      </c>
+      <c r="D52" t="str">
+        <f>"Название, описание, категория, цена, доступность, дата обновления (6)"</f>
+        <v>Название, описание, категория, цена, доступность, дата обновления (6)</v>
+      </c>
+      <c r="E52" t="str">
+        <f>"High"</f>
+        <v>High</v>
+      </c>
+      <c r="F52" t="str">
+        <f>"15"</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="14">
+        <v>3</v>
+      </c>
+      <c r="C56" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="14">
+        <v>4</v>
+      </c>
+      <c r="C57" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="14">
+        <v>6</v>
+      </c>
+      <c r="C58" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="str">
+        <f>"№"</f>
+        <v>№</v>
+      </c>
+      <c r="B61" t="str">
+        <f>"Название"</f>
+        <v>Название</v>
+      </c>
+      <c r="C61" t="str">
+        <f>"Тип"</f>
+        <v>Тип</v>
+      </c>
+      <c r="D61" t="str">
+        <f>"FTR"</f>
+        <v>FTR</v>
+      </c>
+      <c r="E61" t="str">
+        <f>"DET"</f>
+        <v>DET</v>
+      </c>
+      <c r="F61" t="str">
+        <f>"Сложность"</f>
+        <v>Сложность</v>
+      </c>
+      <c r="G61" t="str">
+        <f>"UFP"</f>
+        <v>UFP</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="B62" t="str">
+        <f>"Форма регистрации"</f>
+        <v>Форма регистрации</v>
+      </c>
+      <c r="C62" t="str">
+        <f>"EI"</f>
+        <v>EI</v>
+      </c>
+      <c r="D62" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="E62" t="str">
+        <f>"10 (Email, пароль, имя, фамилия, пол, дата рождения, город, телефон, и т.д.)"</f>
+        <v>10 (Email, пароль, имя, фамилия, пол, дата рождения, город, телефон, и т.д.)</v>
+      </c>
+      <c r="F62" t="str">
+        <f>"Low"</f>
+        <v>Low</v>
+      </c>
+      <c r="G62" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="B63" t="str">
+        <f>"Авторизация (логин)"</f>
+        <v>Авторизация (логин)</v>
+      </c>
+      <c r="C63" t="str">
+        <f>"EI"</f>
+        <v>EI</v>
+      </c>
+      <c r="D63" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="E63" t="str">
+        <f>"2 (Email, пароль)"</f>
+        <v>2 (Email, пароль)</v>
+      </c>
+      <c r="F63" t="str">
+        <f>"Low"</f>
+        <v>Low</v>
+      </c>
+      <c r="G63" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="B64" t="str">
+        <f>"Просмотр услуг"</f>
+        <v>Просмотр услуг</v>
+      </c>
+      <c r="C64" t="str">
+        <f>"EO"</f>
+        <v>EO</v>
+      </c>
+      <c r="D64" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="E64" t="str">
+        <f>"5 (Название услуги, описание, цена, доступность, тип)"</f>
+        <v>5 (Название услуги, описание, цена, доступность, тип)</v>
+      </c>
+      <c r="F64" t="str">
+        <f>"Low"</f>
+        <v>Low</v>
+      </c>
+      <c r="G64" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="B65" t="str">
+        <f>"Заказ услуги"</f>
+        <v>Заказ услуги</v>
+      </c>
+      <c r="C65" t="str">
+        <f>"EI"</f>
+        <v>EI</v>
+      </c>
+      <c r="D65" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="E65" t="str">
+        <f>"6 (Услуга, дата заказа, сумма, метод оплаты, контактные данные)"</f>
+        <v>6 (Услуга, дата заказа, сумма, метод оплаты, контактные данные)</v>
+      </c>
+      <c r="F65" t="str">
+        <f>"Average"</f>
+        <v>Average</v>
+      </c>
+      <c r="G65" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="B66" t="str">
+        <f>"Личный кабинет"</f>
+        <v>Личный кабинет</v>
+      </c>
+      <c r="C66" t="str">
+        <f>"EO"</f>
+        <v>EO</v>
+      </c>
+      <c r="D66" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="E66" t="str">
+        <f>"8 (Имя, фамилия, email, телефон, история заказов, предпочтения, и т.д.)"</f>
+        <v>8 (Имя, фамилия, email, телефон, история заказов, предпочтения, и т.д.)</v>
+      </c>
+      <c r="F66" t="str">
+        <f>"High"</f>
+        <v>High</v>
+      </c>
+      <c r="G66" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="B67" t="str">
+        <f>"Система оплаты"</f>
+        <v>Система оплаты</v>
+      </c>
+      <c r="C67" t="str">
+        <f>"EI"</f>
+        <v>EI</v>
+      </c>
+      <c r="D67" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="E67" t="str">
+        <f>"4 (Сумма, дата, метод оплаты)"</f>
+        <v>4 (Сумма, дата, метод оплаты)</v>
+      </c>
+      <c r="F67" t="str">
+        <f>"Average"</f>
+        <v>Average</v>
+      </c>
+      <c r="G67" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="B68" t="str">
+        <f>"Контакт с поддержкой"</f>
+        <v>Контакт с поддержкой</v>
+      </c>
+      <c r="C68" t="str">
+        <f>"EO"</f>
+        <v>EO</v>
+      </c>
+      <c r="D68" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="E68" t="str">
+        <f>"5 (Тема запроса, описание, дата, приоритет, статус)"</f>
+        <v>5 (Тема запроса, описание, дата, приоритет, статус)</v>
+      </c>
+      <c r="F68" t="str">
+        <f>"Average"</f>
+        <v>Average</v>
+      </c>
+      <c r="G68" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="B69" t="str">
+        <f>"Отчеты по заказам"</f>
+        <v>Отчеты по заказам</v>
+      </c>
+      <c r="C69" t="str">
+        <f>"EQ"</f>
+        <v>EQ</v>
+      </c>
+      <c r="D69" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="E69" t="str">
+        <f>"6 (Заказ, дата, статус, сумма, услуги)"</f>
+        <v>6 (Заказ, дата, статус, сумма, услуги)</v>
+      </c>
+      <c r="F69" t="str">
+        <f>"Average"</f>
+        <v>Average</v>
+      </c>
+      <c r="G69" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="str">
+        <f>"9"</f>
+        <v>9</v>
+      </c>
+      <c r="B70" t="str">
+        <f>"Регистрация оплаты"</f>
+        <v>Регистрация оплаты</v>
+      </c>
+      <c r="C70" t="str">
+        <f>"EI"</f>
+        <v>EI</v>
+      </c>
+      <c r="D70" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="E70" t="str">
+        <f>"4 (Сумма, дата, метод оплаты, статус)"</f>
+        <v>4 (Сумма, дата, метод оплаты, статус)</v>
+      </c>
+      <c r="F70" t="str">
+        <f>"Average"</f>
+        <v>Average</v>
+      </c>
+      <c r="G70" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="str">
+        <f>"10"</f>
+        <v>10</v>
+      </c>
+      <c r="B71" t="str">
+        <f>"Продуктовый каталог"</f>
+        <v>Продуктовый каталог</v>
+      </c>
+      <c r="C71" t="str">
+        <f>"EO"</f>
+        <v>EO</v>
+      </c>
+      <c r="D71" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="E71" t="str">
+        <f>"6 (Название, описание, категория, цена, доступность, дата обновления)"</f>
+        <v>6 (Название, описание, категория, цена, доступность, дата обновления)</v>
+      </c>
+      <c r="F71" t="str">
+        <f>"High"</f>
+        <v>High</v>
+      </c>
+      <c r="G71" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="str">
+        <f>"№"</f>
+        <v>№</v>
+      </c>
+      <c r="B75" t="str">
+        <f>"Параметр"</f>
+        <v>Параметр</v>
+      </c>
+      <c r="C75" t="str">
+        <f>"Описание"</f>
+        <v>Описание</v>
+      </c>
+      <c r="D75" t="str">
+        <f>"DI"</f>
+        <v>DI</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="B76" t="str">
+        <f>"Обмен данными"</f>
+        <v>Обмен данными</v>
+      </c>
+      <c r="C76" t="str">
+        <f>"Selectel.ru осуществляет обмен данными по протоколам (например, HTTP/HTTPS, API)."</f>
+        <v>Selectel.ru осуществляет обмен данными по протоколам (например, HTTP/HTTPS, API).</v>
+      </c>
+      <c r="D76" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="B77" t="str">
+        <f>"Распределенная обработка данных"</f>
+        <v>Распределенная обработка данных</v>
+      </c>
+      <c r="C77" t="str">
+        <f>"Для масштабируемости используется несколько серверов и облачные сервисы."</f>
+        <v>Для масштабируемости используется несколько серверов и облачные сервисы.</v>
+      </c>
+      <c r="D77" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="B78" t="str">
+        <f>"Производительность"</f>
+        <v>Производительность</v>
+      </c>
+      <c r="C78" t="str">
+        <f>"Требования к производительности важны, особенно для обработки запросов от множества пользователей."</f>
+        <v>Требования к производительности важны, особенно для обработки запросов от множества пользователей.</v>
+      </c>
+      <c r="D78" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="B79" t="str">
+        <f>"Ограничения по аппаратным ресурсам"</f>
+        <v>Ограничения по аппаратным ресурсам</v>
+      </c>
+      <c r="C79" t="str">
+        <f>"Продукт работает на облачных ресурсах, не ограничен одним процессором или машиной."</f>
+        <v>Продукт работает на облачных ресурсах, не ограничен одним процессором или машиной.</v>
+      </c>
+      <c r="D79" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="B80" t="str">
+        <f>"Транзакционная нагрузка"</f>
+        <v>Транзакционная нагрузка</v>
+      </c>
+      <c r="C80" t="str">
+        <f>"Система обрабатывает множество транзакций с переменной нагрузкой, но не критично."</f>
+        <v>Система обрабатывает множество транзакций с переменной нагрузкой, но не критично.</v>
+      </c>
+      <c r="D80" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="B81" t="str">
+        <f>"Интенсивность взаимодействия с пользователем"</f>
+        <v>Интенсивность взаимодействия с пользователем</v>
+      </c>
+      <c r="C81" t="str">
+        <f>"Система использует интерфейсы для пользователей, большинство транзакций интерактивные."</f>
+        <v>Система использует интерфейсы для пользователей, большинство транзакций интерактивные.</v>
+      </c>
+      <c r="D81" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="B82" t="str">
+        <f>"Эргономика"</f>
+        <v>Эргономика</v>
+      </c>
+      <c r="C82" t="str">
+        <f>"Система требует удобных интерфейсов для пользователей, чтобы уменьшить время на выполнение задач."</f>
+        <v>Система требует удобных интерфейсов для пользователей, чтобы уменьшить время на выполнение задач.</v>
+      </c>
+      <c r="D82" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="B83" t="str">
+        <f>"Интенсивность изменения данных (ILF)"</f>
+        <v>Интенсивность изменения данных (ILF)</v>
+      </c>
+      <c r="C83" t="str">
+        <f>"Частые изменения данных, например, обновления данных пользователей и счетов."</f>
+        <v>Частые изменения данных, например, обновления данных пользователей и счетов.</v>
+      </c>
+      <c r="D83" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="str">
+        <f>"9"</f>
+        <v>9</v>
+      </c>
+      <c r="B84" t="str">
+        <f>"Сложность обработки"</f>
+        <v>Сложность обработки</v>
+      </c>
+      <c r="C84" t="str">
+        <f>"Требования к безопасности и обработке данных на сервере, но без особых сложных математических операций."</f>
+        <v>Требования к безопасности и обработке данных на сервере, но без особых сложных математических операций.</v>
+      </c>
+      <c r="D84" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="str">
+        <f>"10"</f>
+        <v>10</v>
+      </c>
+      <c r="B85" t="str">
+        <f>"Повторное использование"</f>
+        <v>Повторное использование</v>
+      </c>
+      <c r="C85" t="str">
+        <f>"Продукт разрабатывается как стандартный компонент, который можно интегрировать в другие системы."</f>
+        <v>Продукт разрабатывается как стандартный компонент, который можно интегрировать в другие системы.</v>
+      </c>
+      <c r="D85" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="str">
+        <f>"11"</f>
+        <v>11</v>
+      </c>
+      <c r="B86" t="str">
+        <f>"Удобство инсталляции"</f>
+        <v>Удобство инсталляции</v>
+      </c>
+      <c r="C86" t="str">
+        <f>"Продукт имеет требование для легкости установки и обновления, но автоматизация установки ограничена."</f>
+        <v>Продукт имеет требование для легкости установки и обновления, но автоматизация установки ограничена.</v>
+      </c>
+      <c r="D86" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="str">
+        <f>"12"</f>
+        <v>12</v>
+      </c>
+      <c r="B87" t="str">
+        <f>"Удобство администрирования"</f>
+        <v>Удобство администрирования</v>
+      </c>
+      <c r="C87" t="str">
+        <f>"Система требует администрирования, но восстановление и самообслуживание не критичны."</f>
+        <v>Система требует администрирования, но восстановление и самообслуживание не критичны.</v>
+      </c>
+      <c r="D87" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="str">
+        <f>"13"</f>
+        <v>13</v>
+      </c>
+      <c r="B88" t="str">
+        <f>"Портируемость"</f>
+        <v>Портируемость</v>
+      </c>
+      <c r="C88" t="str">
+        <f>"Работает на разных облачных и физических системах, но не требует поддержки разных ОС."</f>
+        <v>Работает на разных облачных и физических системах, но не требует поддержки разных ОС.</v>
+      </c>
+      <c r="D88" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="str">
+        <f>"14"</f>
+        <v>14</v>
+      </c>
+      <c r="B89" t="str">
+        <f>"Гибкость"</f>
+        <v>Гибкость</v>
+      </c>
+      <c r="C89" t="str">
+        <f>"Система поддерживает гибкие запросы, но не требует изменений модели данных в интерактивном режиме."</f>
+        <v>Система поддерживает гибкие запросы, но не требует изменений модели данных в интерактивном режиме.</v>
+      </c>
+      <c r="D89" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16" thickBot="1"/>
+    <row r="101" spans="1:5" ht="46" thickBot="1">
+      <c r="A101" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="52" thickBot="1">
+      <c r="A102" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="26">
+        <v>2</v>
+      </c>
+      <c r="D102" s="26">
+        <v>5</v>
+      </c>
+      <c r="E102" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="35" thickBot="1">
+      <c r="A103" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="26">
+        <v>1</v>
+      </c>
+      <c r="D103" s="26">
+        <v>4</v>
+      </c>
+      <c r="E103" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="69" thickBot="1">
+      <c r="A104" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C104" s="26">
+        <v>1</v>
+      </c>
+      <c r="D104" s="26">
+        <v>3</v>
+      </c>
+      <c r="E104" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="52" thickBot="1">
+      <c r="A105" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C105" s="26">
+        <v>1</v>
+      </c>
+      <c r="D105" s="26">
+        <v>5</v>
+      </c>
+      <c r="E105" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="69" thickBot="1">
+      <c r="A106" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C106" s="26">
+        <v>1</v>
+      </c>
+      <c r="D106" s="26">
+        <v>3</v>
+      </c>
+      <c r="E106" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="35" thickBot="1">
+      <c r="A107" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D107" s="26">
+        <v>5</v>
+      </c>
+      <c r="E107" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="35" thickBot="1">
+      <c r="A108" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D108" s="26">
+        <v>5</v>
+      </c>
+      <c r="E108" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="35" thickBot="1">
+      <c r="A109" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C109" s="26">
+        <v>2</v>
+      </c>
+      <c r="D109" s="26">
+        <v>4</v>
+      </c>
+      <c r="E109" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="35" thickBot="1">
+      <c r="A110" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" s="26">
+        <v>1</v>
+      </c>
+      <c r="D110" s="26">
+        <v>2</v>
+      </c>
+      <c r="E110" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="35" thickBot="1">
+      <c r="A111" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" s="26">
+        <v>1</v>
+      </c>
+      <c r="D111" s="26">
+        <v>3</v>
+      </c>
+      <c r="E111" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="69" thickBot="1">
+      <c r="A112" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" s="26">
+        <v>1</v>
+      </c>
+      <c r="D112" s="26">
+        <v>3</v>
+      </c>
+      <c r="E112" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="69" thickBot="1">
+      <c r="A113" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113" s="26">
+        <v>1</v>
+      </c>
+      <c r="D113" s="26">
+        <v>4</v>
+      </c>
+      <c r="E113" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="E114">
+        <f>SUM(E101:E113)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>150</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117" t="s">
+        <v>124</v>
+      </c>
+      <c r="E117" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>151</v>
+      </c>
+      <c r="B118" t="s">
+        <v>152</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>153</v>
+      </c>
+      <c r="B119" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>155</v>
+      </c>
+      <c r="B120" t="s">
+        <v>156</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>157</v>
+      </c>
+      <c r="B121" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>159</v>
+      </c>
+      <c r="B122" t="s">
+        <v>160</v>
+      </c>
+      <c r="C122">
+        <v>0.5</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>161</v>
+      </c>
+      <c r="B123" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>5</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>163</v>
+      </c>
+      <c r="B124" t="s">
+        <v>164</v>
+      </c>
+      <c r="C124">
+        <v>0.5</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>165</v>
+      </c>
+      <c r="B125" t="s">
+        <v>166</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="E126">
+        <f>SUM(E118:E125)</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="16" thickBot="1"/>
+    <row r="131" spans="1:5" ht="46" thickBot="1">
+      <c r="A131" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="52" thickBot="1">
+      <c r="A132" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B132" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C132" s="28">
+        <v>2</v>
+      </c>
+      <c r="D132" s="28">
+        <v>3</v>
+      </c>
+      <c r="E132" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="35" thickBot="1">
+      <c r="A133" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C133" s="26">
+        <v>1</v>
+      </c>
+      <c r="D133" s="26">
+        <v>4</v>
+      </c>
+      <c r="E133" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="69" thickBot="1">
+      <c r="A134" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C134" s="26">
+        <v>1</v>
+      </c>
+      <c r="D134" s="26">
+        <v>3</v>
+      </c>
+      <c r="E134" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="52" thickBot="1">
+      <c r="A135" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C135" s="26">
+        <v>1</v>
+      </c>
+      <c r="D135" s="26">
+        <v>4</v>
+      </c>
+      <c r="E135" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="69" thickBot="1">
+      <c r="A136" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" s="26">
+        <v>2</v>
+      </c>
+      <c r="D136" s="26">
+        <v>1</v>
+      </c>
+      <c r="E136" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="35" thickBot="1">
+      <c r="A137" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D137" s="26">
+        <v>4</v>
+      </c>
+      <c r="E137" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="35" thickBot="1">
+      <c r="A138" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D138" s="26">
+        <v>4</v>
+      </c>
+      <c r="E138" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="35" thickBot="1">
+      <c r="A139" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C139" s="26">
+        <v>2</v>
+      </c>
+      <c r="D139" s="26">
+        <v>3</v>
+      </c>
+      <c r="E139" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="35" thickBot="1">
+      <c r="A140" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C140" s="26">
+        <v>1</v>
+      </c>
+      <c r="D140" s="26">
+        <v>2</v>
+      </c>
+      <c r="E140" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="35" thickBot="1">
+      <c r="A141" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141" s="26">
+        <v>1</v>
+      </c>
+      <c r="D141" s="26">
+        <v>3</v>
+      </c>
+      <c r="E141" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="69" thickBot="1">
+      <c r="A142" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C142" s="26">
+        <v>1</v>
+      </c>
+      <c r="D142" s="26">
+        <v>3</v>
+      </c>
+      <c r="E142" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="69" thickBot="1">
+      <c r="A143" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" s="26">
+        <v>1</v>
+      </c>
+      <c r="D143" s="26">
+        <v>4</v>
+      </c>
+      <c r="E143" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="103" thickBot="1">
+      <c r="A144" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B144" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C144" s="26">
+        <v>1</v>
+      </c>
+      <c r="D144" s="26">
+        <v>1</v>
+      </c>
+      <c r="E144" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="E145">
+        <f>SUM(E132:E144)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="16" thickBot="1"/>
+    <row r="155" spans="1:5" ht="16" thickBot="1">
+      <c r="A155" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="16" thickBot="1">
+      <c r="A156" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="16" thickBot="1">
+      <c r="A157" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="16" thickBot="1">
+      <c r="A158" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="16" thickBot="1">
+      <c r="A159" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="16" thickBot="1">
+      <c r="A160" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="16" thickBot="1">
+      <c r="A161" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="16" thickBot="1">
+      <c r="A162" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="16" thickBot="1">
+      <c r="A163" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="16" thickBot="1">
+      <c r="A164" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="16" thickBot="1">
+      <c r="A165" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="16" thickBot="1">
+      <c r="A166" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="16" thickBot="1">
+      <c r="A167" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="16" thickBot="1">
+      <c r="A168" s="30">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E0DD2C-E896-F14F-9EB7-F7E140FCF726}">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -2507,32 +5051,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="16" thickBot="1">
       <c r="A3" s="6">
@@ -3160,13 +5704,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
